--- a/secteur-action-publique/transition-ecologique/regions/barometre-resultats-transition-ecologique-regions-synthese.xlsx
+++ b/secteur-action-publique/transition-ecologique/regions/barometre-resultats-transition-ecologique-regions-synthese.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="293">
   <si>
     <t>mesure</t>
   </si>
@@ -93,700 +93,823 @@
     <t>Guadeloupe</t>
   </si>
   <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>75.0</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>kilomètres</t>
+  </si>
+  <si>
+    <t>Verdir le parc automobile</t>
+  </si>
+  <si>
+    <t>Nombre de primes à la conversion et de bonus écologiques</t>
+  </si>
+  <si>
+    <t>nb-primes-conversion</t>
+  </si>
+  <si>
+    <t>1727.0</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>8362.0</t>
+  </si>
+  <si>
+    <t>21.0</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>primes et bonus</t>
+  </si>
+  <si>
+    <t>Mettre en œuvre la sortie du plastique à usage unique et lutter contre le gaspillage</t>
+  </si>
+  <si>
+    <t>Nombre de Français qui peuvent mettre tous les emballages dans le bac jaune</t>
+  </si>
+  <si>
+    <t>nb-francais-emballages-bac-jaune</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>400000.0</t>
+  </si>
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>habitants</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>14.0</t>
+  </si>
+  <si>
+    <t>71.0</t>
+  </si>
+  <si>
     <t>2.0</t>
   </si>
   <si>
-    <t>2020-09-30</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>2017-12-31</t>
-  </si>
-  <si>
-    <t>2022-03-31</t>
-  </si>
-  <si>
-    <t>kilomètres</t>
-  </si>
-  <si>
-    <t>Mettre en œuvre la sortie du plastique à usage unique et lutter contre le gaspillage</t>
-  </si>
-  <si>
-    <t>Nombre de Français qui peuvent mettre tous les emballages dans le bac jaune</t>
-  </si>
-  <si>
-    <t>nb-francais-emballages-bac-jaune</t>
-  </si>
-  <si>
-    <t>2020-06-30</t>
-  </si>
-  <si>
-    <t>2017-06-30</t>
-  </si>
-  <si>
-    <t>400000.0</t>
-  </si>
-  <si>
-    <t>2022-12-31</t>
-  </si>
-  <si>
-    <t>habitants</t>
-  </si>
-  <si>
-    <t>Verdir le parc automobile</t>
-  </si>
-  <si>
-    <t>Nombre de primes à la conversion et de bonus écologiques</t>
-  </si>
-  <si>
-    <t>nb-primes-conversion</t>
-  </si>
-  <si>
-    <t>1327.0</t>
-  </si>
-  <si>
-    <t>2018-03-31</t>
-  </si>
-  <si>
-    <t>primes et bonus</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>Martinique</t>
-  </si>
-  <si>
-    <t>8.0</t>
-  </si>
-  <si>
-    <t>7.0</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>14.0</t>
-  </si>
-  <si>
-    <t>9.0</t>
-  </si>
-  <si>
-    <t>50.0</t>
+    <t>1925.0</t>
+  </si>
+  <si>
+    <t>7900.0</t>
+  </si>
+  <si>
+    <t>24.0</t>
   </si>
   <si>
     <t>380000.0</t>
   </si>
   <si>
-    <t>1497.0</t>
-  </si>
-  <si>
     <t>03</t>
   </si>
   <si>
     <t>Guyane</t>
   </si>
   <si>
-    <t>65.0</t>
+    <t>77.0</t>
   </si>
   <si>
     <t>26.0</t>
   </si>
   <si>
+    <t>51.0</t>
+  </si>
+  <si>
+    <t>196.0</t>
+  </si>
+  <si>
+    <t>69.0</t>
+  </si>
+  <si>
+    <t>119.0</t>
+  </si>
+  <si>
+    <t>114.0</t>
+  </si>
+  <si>
+    <t>6542.0</t>
+  </si>
+  <si>
+    <t>260000.0</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>La Réunion</t>
+  </si>
+  <si>
+    <t>374.0</t>
+  </si>
+  <si>
+    <t>332.0</t>
+  </si>
+  <si>
+    <t>42.0</t>
+  </si>
+  <si>
+    <t>13.0</t>
+  </si>
+  <si>
+    <t>410.0</t>
+  </si>
+  <si>
+    <t>54.0</t>
+  </si>
+  <si>
+    <t>5786.0</t>
+  </si>
+  <si>
+    <t>19099.0</t>
+  </si>
+  <si>
+    <t>30.0</t>
+  </si>
+  <si>
+    <t>850000.0</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>58.0</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>6428.0</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Île-de-France</t>
+  </si>
+  <si>
+    <t>4748.0</t>
+  </si>
+  <si>
+    <t>3651.0</t>
+  </si>
+  <si>
+    <t>1097.0</t>
+  </si>
+  <si>
+    <t>5104.0</t>
+  </si>
+  <si>
+    <t>Instaurer des zones à faibles émissions</t>
+  </si>
+  <si>
+    <t>Nombre d'habitants vivant à l'intérieur d'une zone à faibles émissions</t>
+  </si>
+  <si>
+    <t>nb-habitants-zfe</t>
+  </si>
+  <si>
+    <t>3872191.0</t>
+  </si>
+  <si>
+    <t>2187526.0</t>
+  </si>
+  <si>
+    <t>1684665.0</t>
+  </si>
+  <si>
+    <t>5279661.0</t>
+  </si>
+  <si>
+    <t>121012.0</t>
+  </si>
+  <si>
+    <t>274237.0</t>
+  </si>
+  <si>
+    <t>44.0</t>
+  </si>
+  <si>
+    <t>8660000.0</t>
+  </si>
+  <si>
+    <t>3270000.0</t>
+  </si>
+  <si>
+    <t>5390000.0</t>
+  </si>
+  <si>
+    <t>165.0</t>
+  </si>
+  <si>
+    <t>12090000.0</t>
+  </si>
+  <si>
+    <t>61.0</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Centre-Val de Loire</t>
+  </si>
+  <si>
+    <t>2598.0</t>
+  </si>
+  <si>
+    <t>1816.0</t>
+  </si>
+  <si>
+    <t>782.0</t>
+  </si>
+  <si>
+    <t>43.0</t>
+  </si>
+  <si>
+    <t>2704.0</t>
+  </si>
+  <si>
+    <t>88.0</t>
+  </si>
+  <si>
+    <t>42628.0</t>
+  </si>
+  <si>
+    <t>57009.0</t>
+  </si>
+  <si>
+    <t>190000.0</t>
+  </si>
+  <si>
+    <t>120000.0</t>
+  </si>
+  <si>
+    <t>70000.0</t>
+  </si>
+  <si>
+    <t>2560000.0</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Bourgogne-Franche-Comté</t>
+  </si>
+  <si>
+    <t>3346.0</t>
+  </si>
+  <si>
+    <t>2992.0</t>
+  </si>
+  <si>
+    <t>354.0</t>
+  </si>
+  <si>
+    <t>12.0</t>
+  </si>
+  <si>
+    <t>3577.0</t>
+  </si>
+  <si>
+    <t>45629.0</t>
+  </si>
+  <si>
+    <t>61987.0</t>
+  </si>
+  <si>
+    <t>74.0</t>
+  </si>
+  <si>
+    <t>1430000.0</t>
+  </si>
+  <si>
+    <t>1030000.0</t>
+  </si>
+  <si>
     <t>39.0</t>
   </si>
   <si>
-    <t>150.0</t>
-  </si>
-  <si>
-    <t>36.0</t>
-  </si>
-  <si>
-    <t>390.0</t>
-  </si>
-  <si>
-    <t>260000.0</t>
-  </si>
-  <si>
-    <t>57.0</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>La Réunion</t>
-  </si>
-  <si>
-    <t>386.0</t>
-  </si>
-  <si>
-    <t>332.0</t>
-  </si>
-  <si>
-    <t>54.0</t>
-  </si>
-  <si>
-    <t>16.0</t>
-  </si>
-  <si>
-    <t>459.0</t>
-  </si>
-  <si>
-    <t>43.0</t>
-  </si>
-  <si>
-    <t>850000.0</t>
-  </si>
-  <si>
-    <t>4079.0</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>Mayotte</t>
-  </si>
-  <si>
-    <t>11.0</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Île-de-France</t>
-  </si>
-  <si>
-    <t>4650.0</t>
-  </si>
-  <si>
-    <t>3651.0</t>
-  </si>
-  <si>
-    <t>999.0</t>
+    <t>2820000.0</t>
+  </si>
+  <si>
+    <t>22.0</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Normandie</t>
+  </si>
+  <si>
+    <t>3207.0</t>
+  </si>
+  <si>
+    <t>2579.0</t>
+  </si>
+  <si>
+    <t>628.0</t>
+  </si>
+  <si>
+    <t>3405.0</t>
+  </si>
+  <si>
+    <t>76.0</t>
+  </si>
+  <si>
+    <t>228894.0</t>
+  </si>
+  <si>
+    <t>61192.0</t>
+  </si>
+  <si>
+    <t>73553.0</t>
+  </si>
+  <si>
+    <t>83.0</t>
+  </si>
+  <si>
+    <t>1990000.0</t>
+  </si>
+  <si>
+    <t>1310000.0</t>
+  </si>
+  <si>
+    <t>680000.0</t>
+  </si>
+  <si>
+    <t>52.0</t>
+  </si>
+  <si>
+    <t>3340000.0</t>
+  </si>
+  <si>
+    <t>33.0</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Hauts-de-France</t>
+  </si>
+  <si>
+    <t>4484.0</t>
+  </si>
+  <si>
+    <t>3515.0</t>
+  </si>
+  <si>
+    <t>969.0</t>
+  </si>
+  <si>
+    <t>28.0</t>
+  </si>
+  <si>
+    <t>4778.0</t>
+  </si>
+  <si>
+    <t>96256.0</t>
+  </si>
+  <si>
+    <t>132986.0</t>
+  </si>
+  <si>
+    <t>72.0</t>
+  </si>
+  <si>
+    <t>1810000.0</t>
+  </si>
+  <si>
+    <t>940000.0</t>
+  </si>
+  <si>
+    <t>870000.0</t>
+  </si>
+  <si>
+    <t>93.0</t>
+  </si>
+  <si>
+    <t>6010000.0</t>
+  </si>
+  <si>
+    <t>17.0</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Grand Est</t>
+  </si>
+  <si>
+    <t>6513.0</t>
+  </si>
+  <si>
+    <t>5340.0</t>
+  </si>
+  <si>
+    <t>1173.0</t>
+  </si>
+  <si>
+    <t>6856.0</t>
+  </si>
+  <si>
+    <t>228826.0</t>
+  </si>
+  <si>
+    <t>83845.0</t>
+  </si>
+  <si>
+    <t>122915.0</t>
+  </si>
+  <si>
+    <t>68.0</t>
+  </si>
+  <si>
+    <t>1760000.0</t>
+  </si>
+  <si>
+    <t>830000.0</t>
+  </si>
+  <si>
+    <t>930000.0</t>
+  </si>
+  <si>
+    <t>112.0</t>
+  </si>
+  <si>
+    <t>5550000.0</t>
+  </si>
+  <si>
+    <t>20.0</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Pays de la Loire</t>
+  </si>
+  <si>
+    <t>4601.0</t>
+  </si>
+  <si>
+    <t>3359.0</t>
+  </si>
+  <si>
+    <t>1242.0</t>
+  </si>
+  <si>
+    <t>37.0</t>
+  </si>
+  <si>
+    <t>4840.0</t>
+  </si>
+  <si>
+    <t>84.0</t>
+  </si>
+  <si>
+    <t>78131.0</t>
+  </si>
+  <si>
+    <t>85389.0</t>
+  </si>
+  <si>
+    <t>92.0</t>
+  </si>
+  <si>
+    <t>3030000.0</t>
+  </si>
+  <si>
+    <t>1260000.0</t>
+  </si>
+  <si>
+    <t>1770000.0</t>
+  </si>
+  <si>
+    <t>140.0</t>
+  </si>
+  <si>
+    <t>3730000.0</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>Bretagne</t>
+  </si>
+  <si>
+    <t>4003.0</t>
+  </si>
+  <si>
+    <t>2843.0</t>
+  </si>
+  <si>
+    <t>1160.0</t>
+  </si>
+  <si>
+    <t>41.0</t>
+  </si>
+  <si>
+    <t>4084.0</t>
+  </si>
+  <si>
+    <t>71215.0</t>
+  </si>
+  <si>
+    <t>75004.0</t>
+  </si>
+  <si>
+    <t>95.0</t>
+  </si>
+  <si>
+    <t>2440000.0</t>
+  </si>
+  <si>
+    <t>1240000.0</t>
+  </si>
+  <si>
+    <t>1200000.0</t>
+  </si>
+  <si>
+    <t>97.0</t>
+  </si>
+  <si>
+    <t>3290000.0</t>
+  </si>
+  <si>
+    <t>59.0</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>Nouvelle-Aquitaine</t>
+  </si>
+  <si>
+    <t>6943.0</t>
+  </si>
+  <si>
+    <t>5548.0</t>
+  </si>
+  <si>
+    <t>1395.0</t>
+  </si>
+  <si>
+    <t>25.0</t>
+  </si>
+  <si>
+    <t>7424.0</t>
+  </si>
+  <si>
+    <t>112364.0</t>
+  </si>
+  <si>
+    <t>134372.0</t>
+  </si>
+  <si>
+    <t>3370000.0</t>
+  </si>
+  <si>
+    <t>2050000.0</t>
+  </si>
+  <si>
+    <t>1320000.0</t>
+  </si>
+  <si>
+    <t>64.0</t>
+  </si>
+  <si>
+    <t>5900000.0</t>
+  </si>
+  <si>
+    <t>34.0</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>Occitanie</t>
+  </si>
+  <si>
+    <t>5038.0</t>
+  </si>
+  <si>
+    <t>3826.0</t>
+  </si>
+  <si>
+    <t>1212.0</t>
+  </si>
+  <si>
+    <t>32.0</t>
+  </si>
+  <si>
+    <t>5378.0</t>
+  </si>
+  <si>
+    <t>78.0</t>
+  </si>
+  <si>
+    <t>707740.0</t>
+  </si>
+  <si>
+    <t>121257.0</t>
+  </si>
+  <si>
+    <t>133170.0</t>
+  </si>
+  <si>
+    <t>91.0</t>
+  </si>
+  <si>
+    <t>2950000.0</t>
+  </si>
+  <si>
+    <t>1560000.0</t>
+  </si>
+  <si>
+    <t>1390000.0</t>
+  </si>
+  <si>
+    <t>89.0</t>
+  </si>
+  <si>
+    <t>5790000.0</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>Auvergne-Rhône-Alpes</t>
+  </si>
+  <si>
+    <t>4827.0</t>
+  </si>
+  <si>
+    <t>3809.0</t>
+  </si>
+  <si>
+    <t>1018.0</t>
   </si>
   <si>
     <t>27.0</t>
   </si>
   <si>
-    <t>5038.0</t>
-  </si>
-  <si>
-    <t>72.0</t>
-  </si>
-  <si>
-    <t>8660000.0</t>
-  </si>
-  <si>
-    <t>3270000.0</t>
-  </si>
-  <si>
-    <t>5390000.0</t>
-  </si>
-  <si>
-    <t>165.0</t>
-  </si>
-  <si>
-    <t>12090000.0</t>
-  </si>
-  <si>
-    <t>61.0</t>
-  </si>
-  <si>
-    <t>92306.0</t>
-  </si>
-  <si>
-    <t>Instaurer des zones à faibles émissions</t>
-  </si>
-  <si>
-    <t>Nombre d'habitants vivant à l'intérieur d'une zone à faibles émissions</t>
-  </si>
-  <si>
-    <t>nb-habitants-zfe</t>
-  </si>
-  <si>
-    <t>3905110.0</t>
-  </si>
-  <si>
-    <t>2020-12-31</t>
-  </si>
-  <si>
-    <t>2220445.0</t>
-  </si>
-  <si>
-    <t>1684665.0</t>
-  </si>
-  <si>
-    <t>76.0</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>Centre-Val de Loire</t>
-  </si>
-  <si>
-    <t>2450.0</t>
-  </si>
-  <si>
-    <t>1816.0</t>
-  </si>
-  <si>
-    <t>634.0</t>
+    <t>5103.0</t>
+  </si>
+  <si>
+    <t>79.0</t>
+  </si>
+  <si>
+    <t>1197526.0</t>
+  </si>
+  <si>
+    <t>1030199.0</t>
+  </si>
+  <si>
+    <t>116.0</t>
+  </si>
+  <si>
+    <t>135288.0</t>
+  </si>
+  <si>
+    <t>180043.0</t>
+  </si>
+  <si>
+    <t>3010000.0</t>
+  </si>
+  <si>
+    <t>790000.0</t>
+  </si>
+  <si>
+    <t>2220000.0</t>
+  </si>
+  <si>
+    <t>281.0</t>
+  </si>
+  <si>
+    <t>7870000.0</t>
+  </si>
+  <si>
+    <t>31.0</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>Provence-Alpes-Côte d'Azur</t>
+  </si>
+  <si>
+    <t>1867.0</t>
+  </si>
+  <si>
+    <t>1322.0</t>
+  </si>
+  <si>
+    <t>545.0</t>
+  </si>
+  <si>
+    <t>1906.0</t>
+  </si>
+  <si>
+    <t>1524680.0</t>
+  </si>
+  <si>
+    <t>83880.0</t>
+  </si>
+  <si>
+    <t>113234.0</t>
+  </si>
+  <si>
+    <t>2480000.0</t>
+  </si>
+  <si>
+    <t>1140000.0</t>
+  </si>
+  <si>
+    <t>1340000.0</t>
+  </si>
+  <si>
+    <t>118.0</t>
+  </si>
+  <si>
+    <t>5010000.0</t>
   </si>
   <si>
     <t>35.0</t>
   </si>
   <si>
-    <t>2506.0</t>
-  </si>
-  <si>
-    <t>92.0</t>
-  </si>
-  <si>
-    <t>190000.0</t>
-  </si>
-  <si>
-    <t>120000.0</t>
-  </si>
-  <si>
-    <t>70000.0</t>
-  </si>
-  <si>
-    <t>58.0</t>
-  </si>
-  <si>
-    <t>2560000.0</t>
-  </si>
-  <si>
-    <t>3.0</t>
-  </si>
-  <si>
-    <t>36399.0</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>Bourgogne-Franche-Comté</t>
-  </si>
-  <si>
-    <t>3274.0</t>
-  </si>
-  <si>
-    <t>2992.0</t>
-  </si>
-  <si>
-    <t>282.0</t>
-  </si>
-  <si>
-    <t>4129.0</t>
-  </si>
-  <si>
-    <t>25.0</t>
-  </si>
-  <si>
-    <t>1430000.0</t>
-  </si>
-  <si>
-    <t>1030000.0</t>
-  </si>
-  <si>
-    <t>2820000.0</t>
-  </si>
-  <si>
-    <t>22.0</t>
-  </si>
-  <si>
-    <t>38697.0</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>Normandie</t>
-  </si>
-  <si>
-    <t>3063.0</t>
-  </si>
-  <si>
-    <t>2579.0</t>
-  </si>
-  <si>
-    <t>484.0</t>
+    <t>94</t>
+  </si>
+  <si>
+    <t>Corse</t>
   </si>
   <si>
     <t>19.0</t>
   </si>
   <si>
-    <t>3559.0</t>
-  </si>
-  <si>
-    <t>49.0</t>
-  </si>
-  <si>
-    <t>1780000.0</t>
-  </si>
-  <si>
-    <t>1310000.0</t>
-  </si>
-  <si>
-    <t>470000.0</t>
-  </si>
-  <si>
-    <t>3340000.0</t>
-  </si>
-  <si>
-    <t>23.0</t>
-  </si>
-  <si>
-    <t>52590.0</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>Hauts-de-France</t>
-  </si>
-  <si>
-    <t>4287.0</t>
-  </si>
-  <si>
-    <t>3515.0</t>
-  </si>
-  <si>
-    <t>772.0</t>
-  </si>
-  <si>
-    <t>4851.0</t>
-  </si>
-  <si>
-    <t>1810000.0</t>
-  </si>
-  <si>
-    <t>940000.0</t>
-  </si>
-  <si>
-    <t>870000.0</t>
-  </si>
-  <si>
-    <t>93.0</t>
-  </si>
-  <si>
-    <t>6010000.0</t>
-  </si>
-  <si>
-    <t>17.0</t>
-  </si>
-  <si>
-    <t>81126.0</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>Grand Est</t>
-  </si>
-  <si>
-    <t>6319.0</t>
-  </si>
-  <si>
-    <t>5340.0</t>
-  </si>
-  <si>
-    <t>979.0</t>
-  </si>
-  <si>
-    <t>18.0</t>
-  </si>
-  <si>
-    <t>7369.0</t>
-  </si>
-  <si>
-    <t>48.0</t>
-  </si>
-  <si>
-    <t>1410000.0</t>
-  </si>
-  <si>
-    <t>830000.0</t>
-  </si>
-  <si>
-    <t>580000.0</t>
-  </si>
-  <si>
     <t>70.0</t>
   </si>
   <si>
-    <t>5550000.0</t>
-  </si>
-  <si>
-    <t>12.0</t>
-  </si>
-  <si>
-    <t>69398.0</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>Pays de la Loire</t>
-  </si>
-  <si>
-    <t>4292.0</t>
-  </si>
-  <si>
-    <t>3359.0</t>
-  </si>
-  <si>
-    <t>933.0</t>
-  </si>
-  <si>
-    <t>28.0</t>
-  </si>
-  <si>
-    <t>4635.0</t>
-  </si>
-  <si>
-    <t>73.0</t>
-  </si>
-  <si>
-    <t>2950000.0</t>
-  </si>
-  <si>
-    <t>1260000.0</t>
-  </si>
-  <si>
-    <t>1690000.0</t>
-  </si>
-  <si>
-    <t>134.0</t>
-  </si>
-  <si>
-    <t>3730000.0</t>
-  </si>
-  <si>
-    <t>68.0</t>
-  </si>
-  <si>
-    <t>67355.0</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>Bretagne</t>
-  </si>
-  <si>
-    <t>3451.0</t>
-  </si>
-  <si>
-    <t>2843.0</t>
-  </si>
-  <si>
-    <t>608.0</t>
-  </si>
-  <si>
-    <t>21.0</t>
-  </si>
-  <si>
-    <t>3923.0</t>
-  </si>
-  <si>
-    <t>56.0</t>
-  </si>
-  <si>
-    <t>2440000.0</t>
-  </si>
-  <si>
-    <t>1240000.0</t>
-  </si>
-  <si>
-    <t>1200000.0</t>
-  </si>
-  <si>
-    <t>97.0</t>
-  </si>
-  <si>
-    <t>3290000.0</t>
-  </si>
-  <si>
-    <t>59.0</t>
-  </si>
-  <si>
-    <t>62083.0</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>Nouvelle-Aquitaine</t>
-  </si>
-  <si>
-    <t>6768.0</t>
-  </si>
-  <si>
-    <t>5548.0</t>
-  </si>
-  <si>
-    <t>1220.0</t>
-  </si>
-  <si>
-    <t>7656.0</t>
-  </si>
-  <si>
-    <t>2920000.0</t>
-  </si>
-  <si>
-    <t>2050000.0</t>
-  </si>
-  <si>
-    <t>42.0</t>
-  </si>
-  <si>
-    <t>5900000.0</t>
-  </si>
-  <si>
-    <t>94618.0</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>Occitanie</t>
-  </si>
-  <si>
-    <t>4814.0</t>
-  </si>
-  <si>
-    <t>3826.0</t>
-  </si>
-  <si>
-    <t>988.0</t>
-  </si>
-  <si>
-    <t>5280.0</t>
-  </si>
-  <si>
-    <t>2620000.0</t>
-  </si>
-  <si>
-    <t>1560000.0</t>
-  </si>
-  <si>
-    <t>1060000.0</t>
-  </si>
-  <si>
-    <t>5790000.0</t>
-  </si>
-  <si>
-    <t>100245.0</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>Auvergne-Rhône-Alpes</t>
-  </si>
-  <si>
-    <t>4654.0</t>
-  </si>
-  <si>
-    <t>3809.0</t>
-  </si>
-  <si>
-    <t>845.0</t>
-  </si>
-  <si>
-    <t>5256.0</t>
-  </si>
-  <si>
-    <t>2890000.0</t>
-  </si>
-  <si>
-    <t>790000.0</t>
-  </si>
-  <si>
-    <t>2100000.0</t>
-  </si>
-  <si>
-    <t>266.0</t>
-  </si>
-  <si>
-    <t>7870000.0</t>
-  </si>
-  <si>
-    <t>30.0</t>
-  </si>
-  <si>
-    <t>108782.0</t>
-  </si>
-  <si>
-    <t>1197526.0</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>Provence-Alpes-Côte d'Azur</t>
-  </si>
-  <si>
-    <t>1686.0</t>
-  </si>
-  <si>
-    <t>1322.0</t>
-  </si>
-  <si>
-    <t>364.0</t>
-  </si>
-  <si>
-    <t>1824.0</t>
-  </si>
-  <si>
-    <t>2390000.0</t>
-  </si>
-  <si>
-    <t>1140000.0</t>
-  </si>
-  <si>
-    <t>1250000.0</t>
-  </si>
-  <si>
-    <t>110.0</t>
-  </si>
-  <si>
-    <t>5010000.0</t>
-  </si>
-  <si>
-    <t>32.0</t>
-  </si>
-  <si>
-    <t>65811.0</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>Corse</t>
-  </si>
-  <si>
-    <t>-1.0</t>
-  </si>
-  <si>
-    <t>-5.0</t>
-  </si>
-  <si>
-    <t>-14.0</t>
+    <t>4642.0</t>
+  </si>
+  <si>
+    <t>7771.0</t>
+  </si>
+  <si>
+    <t>60.0</t>
   </si>
   <si>
     <t>320000.0</t>
   </si>
   <si>
     <t>100.0</t>
-  </si>
-  <si>
-    <t>3299.0</t>
   </si>
 </sst>
 </file>
@@ -1203,24 +1326,27 @@
         <v>20</v>
       </c>
       <c r="L2" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="M2" t="s">
+        <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
@@ -1229,42 +1355,42 @@
         <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
         <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="L3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="N3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
@@ -1273,22 +1399,31 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J4" t="s">
-        <v>37</v>
+        <v>22</v>
+      </c>
+      <c r="L4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" t="s">
+        <v>43</v>
       </c>
       <c r="O4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1362,122 +1497,131 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="E2" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="F2" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="K2" t="s">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="L2" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="M2" t="s">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="N2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="E3" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="F3" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>144</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>145</v>
-      </c>
-      <c r="K3" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="L3" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="M3" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="N3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="E4" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="F4" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>165</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J4" t="s">
-        <v>149</v>
+        <v>166</v>
+      </c>
+      <c r="K4" t="s">
+        <v>167</v>
+      </c>
+      <c r="L4" t="s">
+        <v>168</v>
+      </c>
+      <c r="M4" t="s">
+        <v>169</v>
+      </c>
+      <c r="N4" t="s">
+        <v>43</v>
       </c>
       <c r="O4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1487,7 +1631,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1551,107 +1695,104 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="E2" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="F2" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="K2" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="L2" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="M2" t="s">
-        <v>157</v>
+        <v>59</v>
       </c>
       <c r="N2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="D3" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="E3" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="F3" t="s">
-        <v>158</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>159</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>160</v>
-      </c>
-      <c r="K3" t="s">
-        <v>161</v>
+        <v>22</v>
       </c>
       <c r="L3" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="M3" t="s">
-        <v>163</v>
+        <v>22</v>
       </c>
       <c r="N3" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="O3" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="E4" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="F4" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G4" t="s">
         <v>21</v>
@@ -1660,13 +1801,69 @@
         <v>22</v>
       </c>
       <c r="I4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" t="s">
+        <v>177</v>
+      </c>
+      <c r="L4" t="s">
+        <v>178</v>
+      </c>
+      <c r="M4" t="s">
+        <v>179</v>
+      </c>
+      <c r="N4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
         <v>38</v>
       </c>
-      <c r="J4" t="s">
-        <v>164</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="C5" t="s">
         <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E5" t="s">
+        <v>171</v>
+      </c>
+      <c r="F5" t="s">
+        <v>180</v>
+      </c>
+      <c r="G5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" t="s">
+        <v>181</v>
+      </c>
+      <c r="I5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" t="s">
+        <v>182</v>
+      </c>
+      <c r="K5" t="s">
+        <v>183</v>
+      </c>
+      <c r="L5" t="s">
+        <v>184</v>
+      </c>
+      <c r="M5" t="s">
+        <v>185</v>
+      </c>
+      <c r="N5" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1740,122 +1937,131 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="E2" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="F2" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="K2" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="L2" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="M2" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="N2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="E3" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="F3" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>174</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>175</v>
-      </c>
-      <c r="K3" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="L3" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="M3" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="N3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="E4" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="F4" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>198</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J4" t="s">
-        <v>179</v>
+        <v>199</v>
+      </c>
+      <c r="K4" t="s">
+        <v>200</v>
+      </c>
+      <c r="L4" t="s">
+        <v>201</v>
+      </c>
+      <c r="M4" t="s">
+        <v>163</v>
+      </c>
+      <c r="N4" t="s">
+        <v>43</v>
       </c>
       <c r="O4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1929,122 +2135,131 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="E2" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="F2" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="K2" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="L2" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="M2" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="N2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="E3" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="F3" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>189</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K3" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="L3" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="M3" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="N3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="E4" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="F4" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>213</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J4" t="s">
-        <v>194</v>
+        <v>214</v>
+      </c>
+      <c r="K4" t="s">
+        <v>215</v>
+      </c>
+      <c r="L4" t="s">
+        <v>216</v>
+      </c>
+      <c r="M4" t="s">
+        <v>217</v>
+      </c>
+      <c r="N4" t="s">
+        <v>43</v>
       </c>
       <c r="O4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2118,122 +2333,131 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="E2" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="F2" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="K2" t="s">
-        <v>121</v>
+        <v>223</v>
       </c>
       <c r="L2" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="M2" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="N2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="E3" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="F3" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>202</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>145</v>
-      </c>
-      <c r="K3" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="L3" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="M3" t="s">
-        <v>135</v>
+        <v>193</v>
       </c>
       <c r="N3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="E4" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="F4" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>228</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J4" t="s">
-        <v>205</v>
+        <v>229</v>
+      </c>
+      <c r="K4" t="s">
+        <v>230</v>
+      </c>
+      <c r="L4" t="s">
+        <v>231</v>
+      </c>
+      <c r="M4" t="s">
+        <v>232</v>
+      </c>
+      <c r="N4" t="s">
+        <v>43</v>
       </c>
       <c r="O4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2243,7 +2467,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2307,107 +2531,104 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="E2" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="F2" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="K2" t="s">
-        <v>53</v>
+        <v>238</v>
       </c>
       <c r="L2" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="M2" t="s">
-        <v>178</v>
+        <v>240</v>
       </c>
       <c r="N2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="D3" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="E3" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="F3" t="s">
-        <v>212</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>214</v>
-      </c>
-      <c r="K3" t="s">
-        <v>178</v>
+        <v>22</v>
       </c>
       <c r="L3" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="M3" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
       <c r="N3" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="O3" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="E4" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="F4" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="G4" t="s">
         <v>21</v>
@@ -2416,13 +2637,69 @@
         <v>22</v>
       </c>
       <c r="I4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" t="s">
+        <v>242</v>
+      </c>
+      <c r="L4" t="s">
+        <v>243</v>
+      </c>
+      <c r="M4" t="s">
+        <v>244</v>
+      </c>
+      <c r="N4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
         <v>38</v>
       </c>
-      <c r="J4" t="s">
-        <v>216</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="C5" t="s">
         <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E5" t="s">
+        <v>234</v>
+      </c>
+      <c r="F5" t="s">
+        <v>245</v>
+      </c>
+      <c r="G5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" t="s">
+        <v>246</v>
+      </c>
+      <c r="I5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" t="s">
+        <v>247</v>
+      </c>
+      <c r="K5" t="s">
+        <v>248</v>
+      </c>
+      <c r="L5" t="s">
+        <v>249</v>
+      </c>
+      <c r="M5" t="s">
+        <v>153</v>
+      </c>
+      <c r="N5" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2496,107 +2773,104 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>217</v>
+        <v>250</v>
       </c>
       <c r="E2" t="s">
-        <v>218</v>
+        <v>251</v>
       </c>
       <c r="F2" t="s">
-        <v>219</v>
+        <v>252</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="K2" t="s">
-        <v>121</v>
+        <v>255</v>
       </c>
       <c r="L2" t="s">
-        <v>222</v>
+        <v>256</v>
       </c>
       <c r="M2" t="s">
-        <v>107</v>
+        <v>257</v>
       </c>
       <c r="N2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="D3" t="s">
-        <v>217</v>
+        <v>250</v>
       </c>
       <c r="E3" t="s">
-        <v>218</v>
+        <v>251</v>
       </c>
       <c r="F3" t="s">
-        <v>223</v>
+        <v>258</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>224</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>225</v>
-      </c>
-      <c r="K3" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="L3" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="M3" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="N3" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="O3" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>217</v>
+        <v>250</v>
       </c>
       <c r="E4" t="s">
-        <v>218</v>
+        <v>251</v>
       </c>
       <c r="F4" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="G4" t="s">
         <v>21</v>
@@ -2605,39 +2879,69 @@
         <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="J4" t="s">
-        <v>229</v>
+        <v>261</v>
+      </c>
+      <c r="L4" t="s">
+        <v>262</v>
+      </c>
+      <c r="M4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" t="s">
+        <v>35</v>
       </c>
       <c r="O4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>217</v>
+        <v>250</v>
       </c>
       <c r="E5" t="s">
-        <v>218</v>
+        <v>251</v>
       </c>
       <c r="F5" t="s">
-        <v>230</v>
+        <v>263</v>
       </c>
       <c r="G5" t="s">
-        <v>92</v>
+        <v>40</v>
+      </c>
+      <c r="H5" t="s">
+        <v>264</v>
+      </c>
+      <c r="I5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" t="s">
+        <v>265</v>
+      </c>
+      <c r="K5" t="s">
+        <v>266</v>
+      </c>
+      <c r="L5" t="s">
+        <v>267</v>
+      </c>
+      <c r="M5" t="s">
+        <v>268</v>
+      </c>
+      <c r="N5" t="s">
+        <v>43</v>
       </c>
       <c r="O5" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2647,7 +2951,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2711,107 +3015,104 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>231</v>
+        <v>269</v>
       </c>
       <c r="E2" t="s">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="F2" t="s">
-        <v>233</v>
+        <v>271</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>234</v>
+        <v>272</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
       <c r="K2" t="s">
-        <v>170</v>
+        <v>207</v>
       </c>
       <c r="L2" t="s">
-        <v>236</v>
+        <v>274</v>
       </c>
       <c r="M2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="N2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="D3" t="s">
-        <v>231</v>
+        <v>269</v>
       </c>
       <c r="E3" t="s">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="F3" t="s">
-        <v>237</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>238</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>239</v>
-      </c>
-      <c r="K3" t="s">
-        <v>240</v>
+        <v>22</v>
       </c>
       <c r="L3" t="s">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="M3" t="s">
-        <v>242</v>
+        <v>22</v>
       </c>
       <c r="N3" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="O3" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>231</v>
+        <v>269</v>
       </c>
       <c r="E4" t="s">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="F4" t="s">
-        <v>243</v>
+        <v>276</v>
       </c>
       <c r="G4" t="s">
         <v>21</v>
@@ -2820,13 +3121,69 @@
         <v>22</v>
       </c>
       <c r="I4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" t="s">
+        <v>276</v>
+      </c>
+      <c r="L4" t="s">
+        <v>277</v>
+      </c>
+      <c r="M4" t="s">
+        <v>131</v>
+      </c>
+      <c r="N4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
         <v>38</v>
       </c>
-      <c r="J4" t="s">
-        <v>243</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="C5" t="s">
         <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>269</v>
+      </c>
+      <c r="E5" t="s">
+        <v>270</v>
+      </c>
+      <c r="F5" t="s">
+        <v>278</v>
+      </c>
+      <c r="G5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" t="s">
+        <v>279</v>
+      </c>
+      <c r="I5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" t="s">
+        <v>280</v>
+      </c>
+      <c r="K5" t="s">
+        <v>281</v>
+      </c>
+      <c r="L5" t="s">
+        <v>282</v>
+      </c>
+      <c r="M5" t="s">
+        <v>283</v>
+      </c>
+      <c r="N5" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2900,119 +3257,128 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>244</v>
+        <v>284</v>
       </c>
       <c r="E2" t="s">
-        <v>245</v>
+        <v>285</v>
       </c>
       <c r="F2" t="s">
-        <v>155</v>
+        <v>286</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>128</v>
+        <v>286</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>246</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>247</v>
+        <v>22</v>
       </c>
       <c r="L2" t="s">
-        <v>53</v>
+        <v>287</v>
       </c>
       <c r="M2" t="s">
-        <v>248</v>
+        <v>22</v>
       </c>
       <c r="N2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>244</v>
+        <v>284</v>
       </c>
       <c r="E3" t="s">
-        <v>245</v>
+        <v>285</v>
       </c>
       <c r="F3" t="s">
-        <v>249</v>
+        <v>288</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
         <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>249</v>
+        <v>288</v>
       </c>
       <c r="L3" t="s">
-        <v>249</v>
+        <v>289</v>
       </c>
       <c r="M3" t="s">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="N3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>244</v>
+        <v>284</v>
       </c>
       <c r="E4" t="s">
-        <v>245</v>
+        <v>285</v>
       </c>
       <c r="F4" t="s">
-        <v>251</v>
+        <v>291</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J4" t="s">
-        <v>251</v>
+        <v>291</v>
+      </c>
+      <c r="L4" t="s">
+        <v>291</v>
+      </c>
+      <c r="M4" t="s">
+        <v>292</v>
+      </c>
+      <c r="N4" t="s">
+        <v>43</v>
       </c>
       <c r="O4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -3086,119 +3452,128 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="N2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
         <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="L3" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="N3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
         <v>40</v>
       </c>
-      <c r="E4" t="s">
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
         <v>41</v>
       </c>
-      <c r="F4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" t="s">
-        <v>38</v>
-      </c>
       <c r="J4" t="s">
-        <v>49</v>
+        <v>22</v>
+      </c>
+      <c r="L4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" t="s">
+        <v>43</v>
       </c>
       <c r="O4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -3272,119 +3647,128 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="K2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="L2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="M2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="N2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
         <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="N3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J4" t="s">
-        <v>59</v>
+        <v>22</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" t="s">
+        <v>43</v>
       </c>
       <c r="O4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -3458,119 +3842,128 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="K2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="L2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="M2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="N2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
         <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="L3" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="N3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="F4" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>22</v>
+      </c>
+      <c r="L4" t="s">
+        <v>79</v>
+      </c>
+      <c r="M4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" t="s">
+        <v>43</v>
       </c>
       <c r="O4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -3644,13 +4037,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -3662,92 +4055,104 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="L2" t="s">
-        <v>22</v>
+        <v>83</v>
+      </c>
+      <c r="M2" t="s">
+        <v>84</v>
       </c>
       <c r="N2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E3" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
         <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="L3" t="s">
+        <v>85</v>
+      </c>
+      <c r="M3" t="s">
         <v>22</v>
       </c>
       <c r="N3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J4" t="s">
-        <v>72</v>
+        <v>22</v>
+      </c>
+      <c r="L4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" t="s">
+        <v>43</v>
       </c>
       <c r="O4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -3821,107 +4226,107 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="F2" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K2" t="s">
         <v>78</v>
       </c>
       <c r="L2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="M2" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="N2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="F3" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="K3" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="M3" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="N3" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="O3" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="F4" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="G4" t="s">
         <v>21</v>
@@ -3930,51 +4335,69 @@
         <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="J4" t="s">
-        <v>87</v>
+        <v>99</v>
+      </c>
+      <c r="L4" t="s">
+        <v>100</v>
+      </c>
+      <c r="M4" t="s">
+        <v>101</v>
+      </c>
+      <c r="N4" t="s">
+        <v>35</v>
       </c>
       <c r="O4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="E5" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="F5" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="G5" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="H5" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="I5" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="J5" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="K5" t="s">
-        <v>95</v>
+        <v>105</v>
+      </c>
+      <c r="L5" t="s">
+        <v>106</v>
+      </c>
+      <c r="M5" t="s">
+        <v>107</v>
+      </c>
+      <c r="N5" t="s">
+        <v>43</v>
       </c>
       <c r="O5" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -4048,122 +4471,131 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="E2" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="F2" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="K2" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="L2" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="M2" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="N2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="E3" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="F3" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>106</v>
-      </c>
-      <c r="K3" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="L3" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="M3" t="s">
-        <v>109</v>
+        <v>24</v>
       </c>
       <c r="N3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="E4" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="F4" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>119</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J4" t="s">
-        <v>110</v>
+        <v>120</v>
+      </c>
+      <c r="K4" t="s">
+        <v>83</v>
+      </c>
+      <c r="L4" t="s">
+        <v>121</v>
+      </c>
+      <c r="M4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" t="s">
+        <v>43</v>
       </c>
       <c r="O4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -4237,122 +4669,131 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="E2" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="F2" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="K2" t="s">
-        <v>46</v>
+        <v>127</v>
       </c>
       <c r="L2" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="M2" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="N2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="E3" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="F3" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>119</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" t="s">
-        <v>54</v>
+        <v>129</v>
       </c>
       <c r="L3" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="M3" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="N3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="E4" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="F4" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>133</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J4" t="s">
-        <v>122</v>
+        <v>42</v>
+      </c>
+      <c r="K4" t="s">
+        <v>134</v>
+      </c>
+      <c r="L4" t="s">
+        <v>135</v>
+      </c>
+      <c r="M4" t="s">
+        <v>136</v>
+      </c>
+      <c r="N4" t="s">
+        <v>43</v>
       </c>
       <c r="O4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -4362,7 +4803,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4426,107 +4867,104 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="E2" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="F2" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="K2" t="s">
-        <v>128</v>
+        <v>55</v>
       </c>
       <c r="L2" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="M2" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="N2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="D3" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="E3" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="F3" t="s">
-        <v>131</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>132</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>133</v>
-      </c>
-      <c r="K3" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="L3" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="M3" t="s">
-        <v>135</v>
+        <v>22</v>
       </c>
       <c r="N3" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="O3" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="E4" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="F4" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="G4" t="s">
         <v>21</v>
@@ -4535,13 +4973,69 @@
         <v>22</v>
       </c>
       <c r="I4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" t="s">
+        <v>145</v>
+      </c>
+      <c r="L4" t="s">
+        <v>146</v>
+      </c>
+      <c r="M4" t="s">
+        <v>147</v>
+      </c>
+      <c r="N4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
         <v>38</v>
       </c>
-      <c r="J4" t="s">
-        <v>136</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="C5" t="s">
         <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" t="s">
+        <v>149</v>
+      </c>
+      <c r="I5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K5" t="s">
+        <v>151</v>
+      </c>
+      <c r="L5" t="s">
+        <v>152</v>
+      </c>
+      <c r="M5" t="s">
+        <v>153</v>
+      </c>
+      <c r="N5" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/secteur-action-publique/transition-ecologique/regions/barometre-resultats-transition-ecologique-regions-synthese.xlsx
+++ b/secteur-action-publique/transition-ecologique/regions/barometre-resultats-transition-ecologique-regions-synthese.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1523" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="376">
   <si>
     <t>mesure</t>
   </si>
@@ -93,10 +93,10 @@
     <t>Guadeloupe</t>
   </si>
   <si>
-    <t>3.0</t>
-  </si>
-  <si>
-    <t>2021-03-31</t>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
   </si>
   <si>
     <t>0.0</t>
@@ -108,7 +108,7 @@
     <t>75.0</t>
   </si>
   <si>
-    <t>4.0</t>
+    <t>5.0</t>
   </si>
   <si>
     <t>2022-03-31</t>
@@ -126,10 +126,10 @@
     <t>nb-primes-conversion</t>
   </si>
   <si>
-    <t>1876.0</t>
-  </si>
-  <si>
-    <t>2021-05-31</t>
+    <t>2334.0</t>
+  </si>
+  <si>
+    <t>2021-11-30</t>
   </si>
   <si>
     <t>2018-03-31</t>
@@ -138,991 +138,1021 @@
     <t>8362.0</t>
   </si>
   <si>
+    <t>28.0</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>primes et bonus</t>
+  </si>
+  <si>
+    <t>Nombre de bornes de recharge pour véhicules électriques déployées</t>
+  </si>
+  <si>
+    <t>nb-points-recharge</t>
+  </si>
+  <si>
+    <t>32.0</t>
+  </si>
+  <si>
+    <t>557.0</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>bornes de recharge</t>
+  </si>
+  <si>
+    <t>Mettre en œuvre la sortie du plastique à usage unique et lutter contre le gaspillage</t>
+  </si>
+  <si>
+    <t>Nombre de Français qui peuvent mettre tous les emballages dans le bac jaune</t>
+  </si>
+  <si>
+    <t>nb-francais-emballages-bac-jaune</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>400000.0</t>
+  </si>
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>habitants</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>14.0</t>
+  </si>
+  <si>
+    <t>71.0</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>2480.0</t>
+  </si>
+  <si>
+    <t>7900.0</t>
+  </si>
+  <si>
+    <t>31.0</t>
+  </si>
+  <si>
+    <t>64.0</t>
+  </si>
+  <si>
+    <t>527.0</t>
+  </si>
+  <si>
+    <t>12.0</t>
+  </si>
+  <si>
+    <t>380000.0</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>Guyane</t>
+  </si>
+  <si>
+    <t>76.0</t>
+  </si>
+  <si>
+    <t>26.0</t>
+  </si>
+  <si>
+    <t>50.0</t>
+  </si>
+  <si>
+    <t>192.0</t>
+  </si>
+  <si>
+    <t>69.0</t>
+  </si>
+  <si>
+    <t>100.0</t>
+  </si>
+  <si>
+    <t>269.0</t>
+  </si>
+  <si>
+    <t>6542.0</t>
+  </si>
+  <si>
+    <t>33.0</t>
+  </si>
+  <si>
+    <t>436.0</t>
+  </si>
+  <si>
+    <t>260000.0</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>La Réunion</t>
+  </si>
+  <si>
+    <t>388.0</t>
+  </si>
+  <si>
+    <t>332.0</t>
+  </si>
+  <si>
+    <t>56.0</t>
+  </si>
+  <si>
+    <t>17.0</t>
+  </si>
+  <si>
+    <t>410.0</t>
+  </si>
+  <si>
+    <t>72.0</t>
+  </si>
+  <si>
+    <t>8437.0</t>
+  </si>
+  <si>
+    <t>19099.0</t>
+  </si>
+  <si>
+    <t>44.0</t>
+  </si>
+  <si>
+    <t>113.0</t>
+  </si>
+  <si>
+    <t>1273.0</t>
+  </si>
+  <si>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>850000.0</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>58.0</t>
+  </si>
+  <si>
+    <t>21.0</t>
+  </si>
+  <si>
     <t>22.0</t>
   </si>
   <si>
-    <t>2022-06-30</t>
-  </si>
-  <si>
-    <t>primes et bonus</t>
-  </si>
-  <si>
-    <t>Nombre de bornes de recharge pour véhicules électriques déployées</t>
-  </si>
-  <si>
-    <t>nb-points-recharge</t>
+    <t>6428.0</t>
+  </si>
+  <si>
+    <t>429.0</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Île-de-France</t>
+  </si>
+  <si>
+    <t>4695.0</t>
+  </si>
+  <si>
+    <t>3651.0</t>
+  </si>
+  <si>
+    <t>1044.0</t>
+  </si>
+  <si>
+    <t>29.0</t>
+  </si>
+  <si>
+    <t>5104.0</t>
+  </si>
+  <si>
+    <t>Instaurer des zones à faibles émissions</t>
+  </si>
+  <si>
+    <t>Nombre d'habitants vivant à l'intérieur d'une zone à faibles émissions</t>
+  </si>
+  <si>
+    <t>nb-habitants-zfe</t>
+  </si>
+  <si>
+    <t>3872191.0</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2187526.0</t>
+  </si>
+  <si>
+    <t>1684665.0</t>
+  </si>
+  <si>
+    <t>77.0</t>
+  </si>
+  <si>
+    <t>5279661.0</t>
+  </si>
+  <si>
+    <t>54.0</t>
+  </si>
+  <si>
+    <t>171026.0</t>
+  </si>
+  <si>
+    <t>274237.0</t>
+  </si>
+  <si>
+    <t>62.0</t>
+  </si>
+  <si>
+    <t>9297.0</t>
+  </si>
+  <si>
+    <t>18282.0</t>
+  </si>
+  <si>
+    <t>51.0</t>
+  </si>
+  <si>
+    <t>8970000.0</t>
+  </si>
+  <si>
+    <t>3270000.0</t>
+  </si>
+  <si>
+    <t>5700000.0</t>
+  </si>
+  <si>
+    <t>174.0</t>
+  </si>
+  <si>
+    <t>12090000.0</t>
+  </si>
+  <si>
+    <t>65.0</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Centre-Val de Loire</t>
+  </si>
+  <si>
+    <t>2779.0</t>
+  </si>
+  <si>
+    <t>1816.0</t>
+  </si>
+  <si>
+    <t>963.0</t>
+  </si>
+  <si>
+    <t>53.0</t>
+  </si>
+  <si>
+    <t>2704.0</t>
+  </si>
+  <si>
+    <t>51094.0</t>
+  </si>
+  <si>
+    <t>57009.0</t>
+  </si>
+  <si>
+    <t>90.0</t>
+  </si>
+  <si>
+    <t>2138.0</t>
+  </si>
+  <si>
+    <t>3801.0</t>
+  </si>
+  <si>
+    <t>730000.0</t>
+  </si>
+  <si>
+    <t>120000.0</t>
+  </si>
+  <si>
+    <t>610000.0</t>
+  </si>
+  <si>
+    <t>508.0</t>
+  </si>
+  <si>
+    <t>2560000.0</t>
+  </si>
+  <si>
+    <t>25.0</t>
+  </si>
+  <si>
+    <t>Plan de soutien aux petites lignes ferroviaires</t>
+  </si>
+  <si>
+    <t>Nombre de kilomètres de lignes rénovées</t>
+  </si>
+  <si>
+    <t>nb-km-lignes-regenerees</t>
+  </si>
+  <si>
+    <t>36.0</t>
+  </si>
+  <si>
+    <t>93.0</t>
+  </si>
+  <si>
+    <t>39.0</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Bourgogne-Franche-Comté</t>
+  </si>
+  <si>
+    <t>3535.0</t>
+  </si>
+  <si>
+    <t>2992.0</t>
+  </si>
+  <si>
+    <t>543.0</t>
+  </si>
+  <si>
+    <t>18.0</t>
+  </si>
+  <si>
+    <t>3577.0</t>
+  </si>
+  <si>
+    <t>54288.0</t>
+  </si>
+  <si>
+    <t>61987.0</t>
+  </si>
+  <si>
+    <t>88.0</t>
+  </si>
+  <si>
+    <t>2096.0</t>
+  </si>
+  <si>
+    <t>4132.0</t>
+  </si>
+  <si>
+    <t>1430000.0</t>
+  </si>
+  <si>
+    <t>1030000.0</t>
+  </si>
+  <si>
+    <t>2820000.0</t>
+  </si>
+  <si>
+    <t>829.0</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Normandie</t>
+  </si>
+  <si>
+    <t>3267.0</t>
+  </si>
+  <si>
+    <t>2579.0</t>
+  </si>
+  <si>
+    <t>688.0</t>
+  </si>
+  <si>
+    <t>27.0</t>
+  </si>
+  <si>
+    <t>3405.0</t>
+  </si>
+  <si>
+    <t>83.0</t>
+  </si>
+  <si>
+    <t>33467.0</t>
+  </si>
+  <si>
+    <t>228894.0</t>
+  </si>
+  <si>
+    <t>15.0</t>
+  </si>
+  <si>
+    <t>73423.0</t>
+  </si>
+  <si>
+    <t>73553.0</t>
+  </si>
+  <si>
+    <t>2666.0</t>
+  </si>
+  <si>
+    <t>4904.0</t>
+  </si>
+  <si>
+    <t>2300000.0</t>
+  </si>
+  <si>
+    <t>1310000.0</t>
+  </si>
+  <si>
+    <t>990000.0</t>
+  </si>
+  <si>
+    <t>3340000.0</t>
+  </si>
+  <si>
+    <t>49.0</t>
+  </si>
+  <si>
+    <t>30.0</t>
+  </si>
+  <si>
+    <t>16.0</t>
+  </si>
+  <si>
+    <t>42.0</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Hauts-de-France</t>
+  </si>
+  <si>
+    <t>4549.0</t>
+  </si>
+  <si>
+    <t>3515.0</t>
+  </si>
+  <si>
+    <t>1034.0</t>
+  </si>
+  <si>
+    <t>4778.0</t>
+  </si>
+  <si>
+    <t>82.0</t>
+  </si>
+  <si>
+    <t>117450.0</t>
+  </si>
+  <si>
+    <t>132986.0</t>
+  </si>
+  <si>
+    <t>4187.0</t>
+  </si>
+  <si>
+    <t>8866.0</t>
+  </si>
+  <si>
+    <t>47.0</t>
+  </si>
+  <si>
+    <t>1900000.0</t>
+  </si>
+  <si>
+    <t>940000.0</t>
+  </si>
+  <si>
+    <t>960000.0</t>
+  </si>
+  <si>
+    <t>102.0</t>
+  </si>
+  <si>
+    <t>6010000.0</t>
+  </si>
+  <si>
+    <t>19.0</t>
+  </si>
+  <si>
+    <t>140.0</t>
+  </si>
+  <si>
+    <t>139.0</t>
+  </si>
+  <si>
+    <t>13900.0</t>
+  </si>
+  <si>
+    <t>170.0</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Grand Est</t>
+  </si>
+  <si>
+    <t>6658.0</t>
+  </si>
+  <si>
+    <t>5340.0</t>
+  </si>
+  <si>
+    <t>1318.0</t>
+  </si>
+  <si>
+    <t>6856.0</t>
+  </si>
+  <si>
+    <t>87.0</t>
+  </si>
+  <si>
+    <t>26000.0</t>
+  </si>
+  <si>
+    <t>228826.0</t>
+  </si>
+  <si>
+    <t>11.0</t>
+  </si>
+  <si>
+    <t>103994.0</t>
+  </si>
+  <si>
+    <t>122915.0</t>
+  </si>
+  <si>
+    <t>85.0</t>
+  </si>
+  <si>
+    <t>3954.0</t>
+  </si>
+  <si>
+    <t>8194.0</t>
+  </si>
+  <si>
+    <t>48.0</t>
+  </si>
+  <si>
+    <t>2290000.0</t>
+  </si>
+  <si>
+    <t>830000.0</t>
+  </si>
+  <si>
+    <t>1460000.0</t>
+  </si>
+  <si>
+    <t>176.0</t>
+  </si>
+  <si>
+    <t>5550000.0</t>
+  </si>
+  <si>
+    <t>138.0</t>
+  </si>
+  <si>
+    <t>120.0</t>
+  </si>
+  <si>
+    <t>667.0</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Pays de la Loire</t>
+  </si>
+  <si>
+    <t>4701.0</t>
+  </si>
+  <si>
+    <t>3359.0</t>
+  </si>
+  <si>
+    <t>1342.0</t>
+  </si>
+  <si>
+    <t>40.0</t>
+  </si>
+  <si>
+    <t>4840.0</t>
+  </si>
+  <si>
+    <t>91.0</t>
+  </si>
+  <si>
+    <t>91607.0</t>
+  </si>
+  <si>
+    <t>85389.0</t>
+  </si>
+  <si>
+    <t>2345.0</t>
+  </si>
+  <si>
+    <t>5693.0</t>
+  </si>
+  <si>
+    <t>41.0</t>
+  </si>
+  <si>
+    <t>3460000.0</t>
+  </si>
+  <si>
+    <t>1270000.0</t>
+  </si>
+  <si>
+    <t>2190000.0</t>
+  </si>
+  <si>
+    <t>172.0</t>
+  </si>
+  <si>
+    <t>3730000.0</t>
+  </si>
+  <si>
+    <t>89.0</t>
   </si>
   <si>
     <t>23.0</t>
   </si>
   <si>
-    <t>2021-07-31</t>
-  </si>
-  <si>
-    <t>557.0</t>
-  </si>
-  <si>
-    <t>bornes de recharge</t>
-  </si>
-  <si>
-    <t>Mettre en œuvre la sortie du plastique à usage unique et lutter contre le gaspillage</t>
-  </si>
-  <si>
-    <t>Nombre de Français qui peuvent mettre tous les emballages dans le bac jaune</t>
-  </si>
-  <si>
-    <t>nb-francais-emballages-bac-jaune</t>
-  </si>
-  <si>
-    <t>2020-12-31</t>
-  </si>
-  <si>
-    <t>2017-06-30</t>
-  </si>
-  <si>
-    <t>400000.0</t>
-  </si>
-  <si>
-    <t>2022-12-31</t>
-  </si>
-  <si>
-    <t>habitants</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>Martinique</t>
-  </si>
-  <si>
-    <t>8.0</t>
-  </si>
-  <si>
-    <t>7.0</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>14.0</t>
-  </si>
-  <si>
-    <t>71.0</t>
-  </si>
-  <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>2089.0</t>
-  </si>
-  <si>
-    <t>7900.0</t>
-  </si>
-  <si>
-    <t>26.0</t>
-  </si>
-  <si>
-    <t>44.0</t>
-  </si>
-  <si>
-    <t>527.0</t>
-  </si>
-  <si>
-    <t>380000.0</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>Guyane</t>
-  </si>
-  <si>
-    <t>77.0</t>
-  </si>
-  <si>
-    <t>51.0</t>
-  </si>
-  <si>
-    <t>196.0</t>
-  </si>
-  <si>
-    <t>69.0</t>
-  </si>
-  <si>
-    <t>100.0</t>
-  </si>
-  <si>
-    <t>150.0</t>
-  </si>
-  <si>
-    <t>6542.0</t>
-  </si>
-  <si>
-    <t>17.0</t>
-  </si>
-  <si>
-    <t>436.0</t>
-  </si>
-  <si>
-    <t>260000.0</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>La Réunion</t>
-  </si>
-  <si>
-    <t>374.0</t>
-  </si>
-  <si>
-    <t>332.0</t>
-  </si>
-  <si>
-    <t>42.0</t>
-  </si>
-  <si>
-    <t>13.0</t>
-  </si>
-  <si>
-    <t>410.0</t>
-  </si>
-  <si>
-    <t>54.0</t>
-  </si>
-  <si>
-    <t>6454.0</t>
-  </si>
-  <si>
-    <t>19099.0</t>
-  </si>
-  <si>
-    <t>34.0</t>
-  </si>
-  <si>
-    <t>88.0</t>
-  </si>
-  <si>
-    <t>1273.0</t>
-  </si>
-  <si>
-    <t>850000.0</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>Mayotte</t>
-  </si>
-  <si>
-    <t>6.0</t>
-  </si>
-  <si>
-    <t>58.0</t>
-  </si>
-  <si>
-    <t>10.0</t>
-  </si>
-  <si>
-    <t>16.0</t>
-  </si>
-  <si>
-    <t>6428.0</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Île-de-France</t>
-  </si>
-  <si>
-    <t>4748.0</t>
-  </si>
-  <si>
-    <t>3651.0</t>
-  </si>
-  <si>
-    <t>1097.0</t>
-  </si>
-  <si>
-    <t>30.0</t>
-  </si>
-  <si>
-    <t>5104.0</t>
-  </si>
-  <si>
-    <t>Instaurer des zones à faibles émissions</t>
-  </si>
-  <si>
-    <t>Nombre d'habitants vivant à l'intérieur d'une zone à faibles émissions</t>
-  </si>
-  <si>
-    <t>nb-habitants-zfe</t>
-  </si>
-  <si>
-    <t>3872191.0</t>
-  </si>
-  <si>
-    <t>2187526.0</t>
-  </si>
-  <si>
-    <t>1684665.0</t>
-  </si>
-  <si>
-    <t>5279661.0</t>
-  </si>
-  <si>
-    <t>130610.0</t>
-  </si>
-  <si>
-    <t>274237.0</t>
-  </si>
-  <si>
-    <t>48.0</t>
-  </si>
-  <si>
-    <t>8124.0</t>
-  </si>
-  <si>
-    <t>18282.0</t>
-  </si>
-  <si>
-    <t>8660000.0</t>
-  </si>
-  <si>
-    <t>3270000.0</t>
-  </si>
-  <si>
-    <t>5390000.0</t>
-  </si>
-  <si>
-    <t>165.0</t>
-  </si>
-  <si>
-    <t>12090000.0</t>
-  </si>
-  <si>
-    <t>61.0</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>Centre-Val de Loire</t>
-  </si>
-  <si>
-    <t>2598.0</t>
-  </si>
-  <si>
-    <t>1816.0</t>
-  </si>
-  <si>
-    <t>782.0</t>
+    <t>116.0</t>
+  </si>
+  <si>
+    <t>504.0</t>
+  </si>
+  <si>
+    <t>144.0</t>
+  </si>
+  <si>
+    <t>96.0</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>Bretagne</t>
+  </si>
+  <si>
+    <t>4174.0</t>
+  </si>
+  <si>
+    <t>2843.0</t>
+  </si>
+  <si>
+    <t>1331.0</t>
+  </si>
+  <si>
+    <t>4084.0</t>
+  </si>
+  <si>
+    <t>82625.0</t>
+  </si>
+  <si>
+    <t>75004.0</t>
+  </si>
+  <si>
+    <t>2520.0</t>
+  </si>
+  <si>
+    <t>5000.0</t>
+  </si>
+  <si>
+    <t>2440000.0</t>
+  </si>
+  <si>
+    <t>1240000.0</t>
+  </si>
+  <si>
+    <t>1200000.0</t>
+  </si>
+  <si>
+    <t>97.0</t>
+  </si>
+  <si>
+    <t>3290000.0</t>
+  </si>
+  <si>
+    <t>59.0</t>
+  </si>
+  <si>
+    <t>67.0</t>
+  </si>
+  <si>
+    <t>305.0</t>
+  </si>
+  <si>
+    <t>111.0</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>Nouvelle-Aquitaine</t>
+  </si>
+  <si>
+    <t>7112.0</t>
+  </si>
+  <si>
+    <t>5548.0</t>
+  </si>
+  <si>
+    <t>1564.0</t>
+  </si>
+  <si>
+    <t>7424.0</t>
+  </si>
+  <si>
+    <t>136917.0</t>
+  </si>
+  <si>
+    <t>134372.0</t>
+  </si>
+  <si>
+    <t>4798.0</t>
+  </si>
+  <si>
+    <t>8958.0</t>
+  </si>
+  <si>
+    <t>3660000.0</t>
+  </si>
+  <si>
+    <t>2050000.0</t>
+  </si>
+  <si>
+    <t>1610000.0</t>
+  </si>
+  <si>
+    <t>79.0</t>
+  </si>
+  <si>
+    <t>5900000.0</t>
+  </si>
+  <si>
+    <t>180.0</t>
+  </si>
+  <si>
+    <t>157.0</t>
+  </si>
+  <si>
+    <t>683.0</t>
+  </si>
+  <si>
+    <t>232.0</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>Occitanie</t>
+  </si>
+  <si>
+    <t>5211.0</t>
+  </si>
+  <si>
+    <t>3826.0</t>
+  </si>
+  <si>
+    <t>1385.0</t>
+  </si>
+  <si>
+    <t>5378.0</t>
+  </si>
+  <si>
+    <t>707740.0</t>
+  </si>
+  <si>
+    <t>147092.0</t>
+  </si>
+  <si>
+    <t>133170.0</t>
+  </si>
+  <si>
+    <t>4905.0</t>
+  </si>
+  <si>
+    <t>8878.0</t>
+  </si>
+  <si>
+    <t>55.0</t>
+  </si>
+  <si>
+    <t>3060000.0</t>
+  </si>
+  <si>
+    <t>1560000.0</t>
+  </si>
+  <si>
+    <t>1500000.0</t>
+  </si>
+  <si>
+    <t>5790000.0</t>
+  </si>
+  <si>
+    <t>35.0</t>
+  </si>
+  <si>
+    <t>84.0</t>
+  </si>
+  <si>
+    <t>1680.0</t>
+  </si>
+  <si>
+    <t>145.0</t>
+  </si>
+  <si>
+    <t>60.0</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>Auvergne-Rhône-Alpes</t>
+  </si>
+  <si>
+    <t>4995.0</t>
+  </si>
+  <si>
+    <t>3809.0</t>
+  </si>
+  <si>
+    <t>1186.0</t>
+  </si>
+  <si>
+    <t>5103.0</t>
+  </si>
+  <si>
+    <t>92.0</t>
+  </si>
+  <si>
+    <t>1197526.0</t>
+  </si>
+  <si>
+    <t>1030199.0</t>
+  </si>
+  <si>
+    <t>166928.0</t>
+  </si>
+  <si>
+    <t>180043.0</t>
+  </si>
+  <si>
+    <t>5669.0</t>
+  </si>
+  <si>
+    <t>12003.0</t>
+  </si>
+  <si>
+    <t>3780000.0</t>
+  </si>
+  <si>
+    <t>790000.0</t>
+  </si>
+  <si>
+    <t>2990000.0</t>
+  </si>
+  <si>
+    <t>378.0</t>
+  </si>
+  <si>
+    <t>7870000.0</t>
+  </si>
+  <si>
+    <t>99.0</t>
+  </si>
+  <si>
+    <t>248.0</t>
+  </si>
+  <si>
+    <t>189.0</t>
+  </si>
+  <si>
+    <t>66.0</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>Provence-Alpes-Côte d'Azur</t>
+  </si>
+  <si>
+    <t>1893.0</t>
+  </si>
+  <si>
+    <t>1322.0</t>
+  </si>
+  <si>
+    <t>571.0</t>
   </si>
   <si>
     <t>43.0</t>
   </si>
   <si>
-    <t>2704.0</t>
-  </si>
-  <si>
-    <t>44533.0</t>
-  </si>
-  <si>
-    <t>57009.0</t>
-  </si>
-  <si>
-    <t>78.0</t>
-  </si>
-  <si>
-    <t>1825.0</t>
-  </si>
-  <si>
-    <t>3801.0</t>
-  </si>
-  <si>
-    <t>190000.0</t>
-  </si>
-  <si>
-    <t>120000.0</t>
-  </si>
-  <si>
-    <t>70000.0</t>
-  </si>
-  <si>
-    <t>2560000.0</t>
-  </si>
-  <si>
-    <t>Plan de soutien aux petites lignes ferroviaires</t>
-  </si>
-  <si>
-    <t>Nombre de kilomètres de lignes rénovées</t>
-  </si>
-  <si>
-    <t>nb-km-lignes-regenerees</t>
-  </si>
-  <si>
-    <t>21.0</t>
-  </si>
-  <si>
-    <t>93.0</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>Bourgogne-Franche-Comté</t>
-  </si>
-  <si>
-    <t>3346.0</t>
-  </si>
-  <si>
-    <t>2992.0</t>
-  </si>
-  <si>
-    <t>354.0</t>
-  </si>
-  <si>
-    <t>12.0</t>
-  </si>
-  <si>
-    <t>3577.0</t>
-  </si>
-  <si>
-    <t>47673.0</t>
-  </si>
-  <si>
-    <t>61987.0</t>
-  </si>
-  <si>
-    <t>1727.0</t>
-  </si>
-  <si>
-    <t>4132.0</t>
-  </si>
-  <si>
-    <t>1430000.0</t>
-  </si>
-  <si>
-    <t>1030000.0</t>
-  </si>
-  <si>
-    <t>39.0</t>
-  </si>
-  <si>
-    <t>2820000.0</t>
-  </si>
-  <si>
-    <t>629.0</t>
-  </si>
-  <si>
-    <t>47.0</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>Normandie</t>
-  </si>
-  <si>
-    <t>3207.0</t>
-  </si>
-  <si>
-    <t>2579.0</t>
-  </si>
-  <si>
-    <t>628.0</t>
-  </si>
-  <si>
-    <t>24.0</t>
-  </si>
-  <si>
-    <t>3405.0</t>
-  </si>
-  <si>
-    <t>76.0</t>
-  </si>
-  <si>
-    <t>228894.0</t>
-  </si>
-  <si>
-    <t>63783.0</t>
-  </si>
-  <si>
-    <t>73553.0</t>
-  </si>
-  <si>
-    <t>87.0</t>
-  </si>
-  <si>
-    <t>2496.0</t>
-  </si>
-  <si>
-    <t>4904.0</t>
-  </si>
-  <si>
-    <t>1990000.0</t>
-  </si>
-  <si>
-    <t>1310000.0</t>
-  </si>
-  <si>
-    <t>680000.0</t>
-  </si>
-  <si>
-    <t>52.0</t>
-  </si>
-  <si>
-    <t>3340000.0</t>
-  </si>
-  <si>
-    <t>33.0</t>
-  </si>
-  <si>
-    <t>28.0</t>
+    <t>1906.0</t>
+  </si>
+  <si>
+    <t>98.0</t>
+  </si>
+  <si>
+    <t>1524680.0</t>
+  </si>
+  <si>
+    <t>107997.0</t>
+  </si>
+  <si>
+    <t>113234.0</t>
+  </si>
+  <si>
+    <t>95.0</t>
+  </si>
+  <si>
+    <t>4805.0</t>
+  </si>
+  <si>
+    <t>7549.0</t>
+  </si>
+  <si>
+    <t>2660000.0</t>
+  </si>
+  <si>
+    <t>1140000.0</t>
+  </si>
+  <si>
+    <t>1520000.0</t>
+  </si>
+  <si>
+    <t>133.0</t>
+  </si>
+  <si>
+    <t>5010000.0</t>
   </si>
   <si>
     <t>46.0</t>
   </si>
   <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>Hauts-de-France</t>
-  </si>
-  <si>
-    <t>4484.0</t>
-  </si>
-  <si>
-    <t>3515.0</t>
-  </si>
-  <si>
-    <t>969.0</t>
-  </si>
-  <si>
-    <t>4778.0</t>
-  </si>
-  <si>
-    <t>100981.0</t>
-  </si>
-  <si>
-    <t>132986.0</t>
-  </si>
-  <si>
-    <t>3934.0</t>
-  </si>
-  <si>
-    <t>8866.0</t>
-  </si>
-  <si>
-    <t>1810000.0</t>
-  </si>
-  <si>
-    <t>940000.0</t>
-  </si>
-  <si>
-    <t>870000.0</t>
-  </si>
-  <si>
-    <t>6010000.0</t>
-  </si>
-  <si>
-    <t>120.0</t>
-  </si>
-  <si>
-    <t>119.0</t>
-  </si>
-  <si>
-    <t>11900.0</t>
-  </si>
-  <si>
-    <t>170.0</t>
+    <t>511.0</t>
+  </si>
+  <si>
+    <t>81.0</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>Corse</t>
+  </si>
+  <si>
+    <t>184.0</t>
   </si>
   <si>
     <t>70.0</t>
   </si>
   <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>Grand Est</t>
-  </si>
-  <si>
-    <t>6513.0</t>
-  </si>
-  <si>
-    <t>5340.0</t>
-  </si>
-  <si>
-    <t>1173.0</t>
-  </si>
-  <si>
-    <t>6856.0</t>
-  </si>
-  <si>
-    <t>228826.0</t>
-  </si>
-  <si>
-    <t>88529.0</t>
-  </si>
-  <si>
-    <t>122915.0</t>
-  </si>
-  <si>
-    <t>72.0</t>
-  </si>
-  <si>
-    <t>3023.0</t>
-  </si>
-  <si>
-    <t>8194.0</t>
-  </si>
-  <si>
-    <t>37.0</t>
-  </si>
-  <si>
-    <t>1760000.0</t>
-  </si>
-  <si>
-    <t>830000.0</t>
-  </si>
-  <si>
-    <t>930000.0</t>
-  </si>
-  <si>
-    <t>112.0</t>
-  </si>
-  <si>
-    <t>5550000.0</t>
-  </si>
-  <si>
-    <t>20.0</t>
-  </si>
-  <si>
-    <t>115.0</t>
-  </si>
-  <si>
-    <t>18.0</t>
-  </si>
-  <si>
-    <t>97.0</t>
-  </si>
-  <si>
-    <t>539.0</t>
-  </si>
-  <si>
-    <t>192.0</t>
-  </si>
-  <si>
-    <t>56.0</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>Pays de la Loire</t>
-  </si>
-  <si>
-    <t>4601.0</t>
-  </si>
-  <si>
-    <t>3359.0</t>
-  </si>
-  <si>
-    <t>1242.0</t>
-  </si>
-  <si>
-    <t>4840.0</t>
-  </si>
-  <si>
-    <t>84.0</t>
-  </si>
-  <si>
-    <t>81356.0</t>
-  </si>
-  <si>
-    <t>85389.0</t>
-  </si>
-  <si>
-    <t>95.0</t>
-  </si>
-  <si>
-    <t>1954.0</t>
-  </si>
-  <si>
-    <t>5693.0</t>
-  </si>
-  <si>
-    <t>3030000.0</t>
-  </si>
-  <si>
-    <t>1260000.0</t>
-  </si>
-  <si>
-    <t>1770000.0</t>
-  </si>
-  <si>
-    <t>140.0</t>
-  </si>
-  <si>
-    <t>3730000.0</t>
-  </si>
-  <si>
-    <t>130.0</t>
-  </si>
-  <si>
-    <t>107.0</t>
-  </si>
-  <si>
-    <t>465.0</t>
-  </si>
-  <si>
-    <t>144.0</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>Bretagne</t>
-  </si>
-  <si>
-    <t>4003.0</t>
-  </si>
-  <si>
-    <t>2843.0</t>
-  </si>
-  <si>
-    <t>1160.0</t>
-  </si>
-  <si>
-    <t>41.0</t>
-  </si>
-  <si>
-    <t>4084.0</t>
-  </si>
-  <si>
-    <t>73918.0</t>
-  </si>
-  <si>
-    <t>75004.0</t>
-  </si>
-  <si>
-    <t>99.0</t>
-  </si>
-  <si>
-    <t>2051.0</t>
-  </si>
-  <si>
-    <t>5000.0</t>
-  </si>
-  <si>
-    <t>2440000.0</t>
-  </si>
-  <si>
-    <t>1240000.0</t>
-  </si>
-  <si>
-    <t>1200000.0</t>
-  </si>
-  <si>
-    <t>3290000.0</t>
-  </si>
-  <si>
-    <t>59.0</t>
-  </si>
-  <si>
-    <t>62.0</t>
-  </si>
-  <si>
-    <t>282.0</t>
-  </si>
-  <si>
-    <t>111.0</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>Nouvelle-Aquitaine</t>
-  </si>
-  <si>
-    <t>6943.0</t>
-  </si>
-  <si>
-    <t>5548.0</t>
-  </si>
-  <si>
-    <t>1395.0</t>
-  </si>
-  <si>
-    <t>25.0</t>
-  </si>
-  <si>
-    <t>7424.0</t>
-  </si>
-  <si>
-    <t>74.0</t>
-  </si>
-  <si>
-    <t>118185.0</t>
-  </si>
-  <si>
-    <t>134372.0</t>
-  </si>
-  <si>
-    <t>3929.0</t>
-  </si>
-  <si>
-    <t>8958.0</t>
-  </si>
-  <si>
-    <t>3370000.0</t>
-  </si>
-  <si>
-    <t>2050000.0</t>
-  </si>
-  <si>
-    <t>1320000.0</t>
-  </si>
-  <si>
-    <t>64.0</t>
-  </si>
-  <si>
-    <t>5900000.0</t>
-  </si>
-  <si>
-    <t>160.0</t>
-  </si>
-  <si>
-    <t>137.0</t>
-  </si>
-  <si>
-    <t>596.0</t>
-  </si>
-  <si>
-    <t>232.0</t>
-  </si>
-  <si>
-    <t>66.0</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>Occitanie</t>
-  </si>
-  <si>
-    <t>5038.0</t>
-  </si>
-  <si>
-    <t>3826.0</t>
-  </si>
-  <si>
-    <t>1212.0</t>
-  </si>
-  <si>
-    <t>32.0</t>
-  </si>
-  <si>
-    <t>5378.0</t>
-  </si>
-  <si>
-    <t>707740.0</t>
-  </si>
-  <si>
-    <t>127142.0</t>
-  </si>
-  <si>
-    <t>133170.0</t>
-  </si>
-  <si>
-    <t>5948.0</t>
-  </si>
-  <si>
-    <t>8878.0</t>
-  </si>
-  <si>
-    <t>67.0</t>
-  </si>
-  <si>
-    <t>2950000.0</t>
-  </si>
-  <si>
-    <t>1560000.0</t>
-  </si>
-  <si>
-    <t>1390000.0</t>
-  </si>
-  <si>
-    <t>89.0</t>
-  </si>
-  <si>
-    <t>5790000.0</t>
-  </si>
-  <si>
-    <t>63.0</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>145.0</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>Auvergne-Rhône-Alpes</t>
-  </si>
-  <si>
-    <t>4827.0</t>
-  </si>
-  <si>
-    <t>3809.0</t>
-  </si>
-  <si>
-    <t>1018.0</t>
-  </si>
-  <si>
-    <t>27.0</t>
-  </si>
-  <si>
-    <t>5103.0</t>
-  </si>
-  <si>
-    <t>79.0</t>
-  </si>
-  <si>
-    <t>1197526.0</t>
-  </si>
-  <si>
-    <t>1030199.0</t>
-  </si>
-  <si>
-    <t>141207.0</t>
-  </si>
-  <si>
-    <t>180043.0</t>
-  </si>
-  <si>
-    <t>4404.0</t>
-  </si>
-  <si>
-    <t>12003.0</t>
-  </si>
-  <si>
-    <t>3010000.0</t>
-  </si>
-  <si>
-    <t>790000.0</t>
-  </si>
-  <si>
-    <t>2220000.0</t>
-  </si>
-  <si>
-    <t>281.0</t>
-  </si>
-  <si>
-    <t>7870000.0</t>
-  </si>
-  <si>
-    <t>31.0</t>
-  </si>
-  <si>
-    <t>40.0</t>
-  </si>
-  <si>
-    <t>188.0</t>
-  </si>
-  <si>
-    <t>189.0</t>
-  </si>
-  <si>
-    <t>50.0</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>Provence-Alpes-Côte d'Azur</t>
-  </si>
-  <si>
-    <t>1867.0</t>
-  </si>
-  <si>
-    <t>1322.0</t>
-  </si>
-  <si>
-    <t>545.0</t>
-  </si>
-  <si>
-    <t>1906.0</t>
-  </si>
-  <si>
-    <t>1524680.0</t>
-  </si>
-  <si>
-    <t>89301.0</t>
-  </si>
-  <si>
-    <t>113234.0</t>
-  </si>
-  <si>
-    <t>3888.0</t>
-  </si>
-  <si>
-    <t>7549.0</t>
-  </si>
-  <si>
-    <t>2480000.0</t>
-  </si>
-  <si>
-    <t>1140000.0</t>
-  </si>
-  <si>
-    <t>1340000.0</t>
-  </si>
-  <si>
-    <t>118.0</t>
-  </si>
-  <si>
-    <t>5010000.0</t>
-  </si>
-  <si>
-    <t>35.0</t>
-  </si>
-  <si>
-    <t>9.0</t>
-  </si>
-  <si>
-    <t>38.0</t>
-  </si>
-  <si>
-    <t>422.0</t>
-  </si>
-  <si>
-    <t>81.0</t>
-  </si>
-  <si>
-    <t>53.0</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>Corse</t>
-  </si>
-  <si>
-    <t>19.0</t>
-  </si>
-  <si>
-    <t>4884.0</t>
+    <t>7104.0</t>
   </si>
   <si>
     <t>7771.0</t>
   </si>
   <si>
-    <t>224.0</t>
+    <t>292.0</t>
   </si>
   <si>
     <t>518.0</t>
@@ -1621,7 +1651,7 @@
         <v>40</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
@@ -1630,10 +1660,10 @@
         <v>40</v>
       </c>
       <c r="L4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" t="s">
         <v>42</v>
-      </c>
-      <c r="M4" t="s">
-        <v>25</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
@@ -1757,34 +1787,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="E2" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="F2" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="K2" t="s">
-        <v>182</v>
+        <v>107</v>
       </c>
       <c r="L2" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="M2" t="s">
-        <v>68</v>
+        <v>200</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -1804,13 +1834,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="E3" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="F3" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -1822,13 +1852,13 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="L3" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="M3" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="N3" t="s">
         <v>36</v>
@@ -1848,28 +1878,28 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="E4" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="F4" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
       <c r="J4" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="L4" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="M4" t="s">
-        <v>63</v>
+        <v>205</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
@@ -1889,34 +1919,34 @@
         <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="E5" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="F5" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="G5" t="s">
         <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="I5" t="s">
         <v>48</v>
       </c>
       <c r="J5" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="K5" t="s">
-        <v>144</v>
+        <v>209</v>
       </c>
       <c r="L5" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="M5" t="s">
-        <v>75</v>
+        <v>211</v>
       </c>
       <c r="N5" t="s">
         <v>50</v>
@@ -1927,22 +1957,22 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="C6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="D6" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="E6" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="F6" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
@@ -1954,16 +1984,16 @@
         <v>23</v>
       </c>
       <c r="J6" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="K6" t="s">
+        <v>214</v>
+      </c>
+      <c r="L6" t="s">
+        <v>215</v>
+      </c>
+      <c r="M6" t="s">
         <v>200</v>
-      </c>
-      <c r="L6" t="s">
-        <v>201</v>
-      </c>
-      <c r="M6" t="s">
-        <v>202</v>
       </c>
       <c r="N6" t="s">
         <v>50</v>
@@ -2043,34 +2073,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="E2" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="F2" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="K2" t="s">
-        <v>35</v>
+        <v>148</v>
       </c>
       <c r="L2" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="M2" t="s">
-        <v>68</v>
+        <v>222</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -2081,25 +2111,25 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D3" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="E3" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>223</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="H3" t="s">
         <v>22</v>
@@ -2108,13 +2138,13 @@
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>223</v>
       </c>
       <c r="L3" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>225</v>
       </c>
       <c r="N3" t="s">
         <v>50</v>
@@ -2134,13 +2164,13 @@
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="E4" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="F4" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
@@ -2152,13 +2182,13 @@
         <v>33</v>
       </c>
       <c r="J4" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="L4" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="M4" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="N4" t="s">
         <v>36</v>
@@ -2178,28 +2208,28 @@
         <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="E5" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="F5" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H5" t="s">
         <v>22</v>
       </c>
       <c r="J5" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="L5" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="M5" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="N5" t="s">
         <v>26</v>
@@ -2219,34 +2249,34 @@
         <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="E6" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="F6" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="G6" t="s">
         <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="I6" t="s">
         <v>48</v>
       </c>
       <c r="J6" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="K6" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="L6" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="M6" t="s">
-        <v>221</v>
+        <v>62</v>
       </c>
       <c r="N6" t="s">
         <v>50</v>
@@ -2257,43 +2287,43 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="B7" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="C7" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="D7" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="E7" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="F7" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="G7" t="s">
         <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>223</v>
+        <v>160</v>
       </c>
       <c r="I7" t="s">
         <v>23</v>
       </c>
       <c r="J7" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="K7" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="L7" t="s">
-        <v>226</v>
+        <v>72</v>
       </c>
       <c r="M7" t="s">
-        <v>227</v>
+        <v>73</v>
       </c>
       <c r="N7" t="s">
         <v>50</v>
@@ -2373,34 +2403,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="E2" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="F2" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="K2" t="s">
-        <v>215</v>
+        <v>245</v>
       </c>
       <c r="L2" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="M2" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -2420,13 +2450,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="E3" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="F3" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -2438,13 +2468,13 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="L3" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="M3" t="s">
-        <v>237</v>
+        <v>74</v>
       </c>
       <c r="N3" t="s">
         <v>36</v>
@@ -2464,28 +2494,28 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="E4" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="F4" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
       <c r="J4" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="L4" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="M4" t="s">
-        <v>88</v>
+        <v>252</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
@@ -2505,34 +2535,34 @@
         <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="E5" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="F5" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="G5" t="s">
         <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="I5" t="s">
         <v>48</v>
       </c>
       <c r="J5" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="K5" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="L5" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="M5" t="s">
-        <v>212</v>
+        <v>258</v>
       </c>
       <c r="N5" t="s">
         <v>50</v>
@@ -2543,43 +2573,43 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="C6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="D6" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="E6" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="F6" t="s">
-        <v>245</v>
+        <v>213</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>40</v>
+        <v>259</v>
       </c>
       <c r="I6" t="s">
         <v>23</v>
       </c>
       <c r="J6" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="K6" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="L6" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="M6" t="s">
-        <v>89</v>
+        <v>263</v>
       </c>
       <c r="N6" t="s">
         <v>50</v>
@@ -2659,34 +2689,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="E2" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="F2" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="K2" t="s">
-        <v>254</v>
+        <v>205</v>
       </c>
       <c r="L2" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="M2" t="s">
-        <v>144</v>
+        <v>74</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -2706,13 +2736,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="E3" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="F3" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -2724,13 +2754,13 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="L3" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="M3" t="s">
-        <v>258</v>
+        <v>74</v>
       </c>
       <c r="N3" t="s">
         <v>36</v>
@@ -2750,28 +2780,28 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="E4" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="F4" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
       <c r="J4" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="L4" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="M4" t="s">
-        <v>254</v>
+        <v>71</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
@@ -2791,34 +2821,34 @@
         <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="E5" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="F5" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="G5" t="s">
         <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="I5" t="s">
         <v>48</v>
       </c>
       <c r="J5" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="K5" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="L5" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="M5" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="N5" t="s">
         <v>50</v>
@@ -2829,43 +2859,43 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="C6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="D6" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="E6" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="F6" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="I6" t="s">
         <v>23</v>
       </c>
       <c r="J6" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="K6" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="L6" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="M6" t="s">
-        <v>202</v>
+        <v>24</v>
       </c>
       <c r="N6" t="s">
         <v>50</v>
@@ -2945,34 +2975,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="E2" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="F2" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="K2" t="s">
-        <v>274</v>
+        <v>35</v>
       </c>
       <c r="L2" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="M2" t="s">
-        <v>276</v>
+        <v>178</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -2992,13 +3022,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="E3" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="F3" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -3010,13 +3040,13 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="L3" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="M3" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="N3" t="s">
         <v>36</v>
@@ -3036,28 +3066,28 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="E4" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="F4" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
       <c r="J4" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="L4" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="M4" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
@@ -3077,34 +3107,34 @@
         <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="E5" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="F5" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="G5" t="s">
         <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="I5" t="s">
         <v>48</v>
       </c>
       <c r="J5" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="K5" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="L5" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="M5" t="s">
-        <v>88</v>
+        <v>193</v>
       </c>
       <c r="N5" t="s">
         <v>50</v>
@@ -3115,43 +3145,43 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="C6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="D6" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="E6" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="F6" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>40</v>
+        <v>259</v>
       </c>
       <c r="I6" t="s">
         <v>23</v>
       </c>
       <c r="J6" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="K6" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="L6" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="M6" t="s">
-        <v>290</v>
+        <v>24</v>
       </c>
       <c r="N6" t="s">
         <v>50</v>
@@ -3231,34 +3261,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="E2" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="F2" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="K2" t="s">
-        <v>296</v>
+        <v>152</v>
       </c>
       <c r="L2" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="M2" t="s">
-        <v>133</v>
+        <v>258</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -3269,25 +3299,25 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D3" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="E3" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="F3" t="s">
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="H3" t="s">
         <v>22</v>
@@ -3299,7 +3329,7 @@
         <v>22</v>
       </c>
       <c r="L3" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="M3" t="s">
         <v>22</v>
@@ -3322,13 +3352,13 @@
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="E4" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="F4" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
@@ -3340,13 +3370,13 @@
         <v>33</v>
       </c>
       <c r="J4" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="L4" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="M4" t="s">
-        <v>237</v>
+        <v>74</v>
       </c>
       <c r="N4" t="s">
         <v>36</v>
@@ -3366,28 +3396,28 @@
         <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="E5" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="F5" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H5" t="s">
         <v>22</v>
       </c>
       <c r="J5" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="L5" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="M5" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="N5" t="s">
         <v>26</v>
@@ -3407,34 +3437,34 @@
         <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="E6" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="F6" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="G6" t="s">
         <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="I6" t="s">
         <v>48</v>
       </c>
       <c r="J6" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="K6" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
       <c r="L6" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="M6" t="s">
-        <v>181</v>
+        <v>318</v>
       </c>
       <c r="N6" t="s">
         <v>50</v>
@@ -3445,43 +3475,43 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="B7" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="C7" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="D7" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="E7" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="F7" t="s">
-        <v>309</v>
+        <v>258</v>
       </c>
       <c r="G7" t="s">
         <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>310</v>
+        <v>25</v>
       </c>
       <c r="I7" t="s">
         <v>23</v>
       </c>
       <c r="J7" t="s">
-        <v>95</v>
+        <v>319</v>
       </c>
       <c r="K7" t="s">
-        <v>253</v>
+        <v>320</v>
       </c>
       <c r="L7" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="M7" t="s">
-        <v>254</v>
+        <v>322</v>
       </c>
       <c r="N7" t="s">
         <v>50</v>
@@ -3561,34 +3591,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="E2" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="F2" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="K2" t="s">
-        <v>317</v>
+        <v>62</v>
       </c>
       <c r="L2" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="M2" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -3599,25 +3629,25 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D3" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="E3" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="F3" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="H3" t="s">
         <v>22</v>
@@ -3626,13 +3656,13 @@
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="L3" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="M3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N3" t="s">
         <v>50</v>
@@ -3652,13 +3682,13 @@
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="E4" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="F4" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
@@ -3670,13 +3700,13 @@
         <v>33</v>
       </c>
       <c r="J4" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="L4" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="M4" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="N4" t="s">
         <v>36</v>
@@ -3696,28 +3726,28 @@
         <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="E5" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="F5" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H5" t="s">
         <v>22</v>
       </c>
       <c r="J5" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="L5" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="M5" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="N5" t="s">
         <v>26</v>
@@ -3737,34 +3767,34 @@
         <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="E6" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="F6" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="G6" t="s">
         <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="I6" t="s">
         <v>48</v>
       </c>
       <c r="J6" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="K6" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="L6" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="M6" t="s">
-        <v>331</v>
+        <v>193</v>
       </c>
       <c r="N6" t="s">
         <v>50</v>
@@ -3775,43 +3805,43 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="B7" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="C7" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="D7" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="E7" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="F7" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="G7" t="s">
         <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>332</v>
+        <v>245</v>
       </c>
       <c r="I7" t="s">
         <v>23</v>
       </c>
       <c r="J7" t="s">
-        <v>24</v>
+        <v>341</v>
       </c>
       <c r="K7" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="L7" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="M7" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="N7" t="s">
         <v>50</v>
@@ -3891,34 +3921,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="E2" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="F2" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="K2" t="s">
-        <v>254</v>
+        <v>350</v>
       </c>
       <c r="L2" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="M2" t="s">
-        <v>144</v>
+        <v>352</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -3929,25 +3959,25 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D3" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="E3" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="F3" t="s">
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="H3" t="s">
         <v>22</v>
@@ -3959,7 +3989,7 @@
         <v>22</v>
       </c>
       <c r="L3" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="M3" t="s">
         <v>22</v>
@@ -3982,13 +4012,13 @@
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="E4" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="F4" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
@@ -4000,13 +4030,13 @@
         <v>33</v>
       </c>
       <c r="J4" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="L4" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="M4" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
       <c r="N4" t="s">
         <v>36</v>
@@ -4026,28 +4056,28 @@
         <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="E5" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="F5" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H5" t="s">
         <v>22</v>
       </c>
       <c r="J5" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="L5" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="M5" t="s">
-        <v>179</v>
+        <v>63</v>
       </c>
       <c r="N5" t="s">
         <v>26</v>
@@ -4067,34 +4097,34 @@
         <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="E6" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="F6" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="G6" t="s">
         <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="I6" t="s">
         <v>48</v>
       </c>
       <c r="J6" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="K6" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="L6" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="M6" t="s">
-        <v>352</v>
+        <v>154</v>
       </c>
       <c r="N6" t="s">
         <v>50</v>
@@ -4105,43 +4135,43 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="B7" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="C7" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="D7" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="E7" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="F7" t="s">
-        <v>161</v>
+        <v>313</v>
       </c>
       <c r="G7" t="s">
         <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>353</v>
+        <v>93</v>
       </c>
       <c r="I7" t="s">
         <v>23</v>
       </c>
       <c r="J7" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="K7" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="L7" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="M7" t="s">
-        <v>357</v>
+        <v>63</v>
       </c>
       <c r="N7" t="s">
         <v>50</v>
@@ -4221,34 +4251,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="E2" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="F2" t="s">
-        <v>360</v>
+        <v>118</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>360</v>
+        <v>211</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>318</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>369</v>
       </c>
       <c r="L2" t="s">
-        <v>202</v>
+        <v>370</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -4268,13 +4298,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="E3" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="F3" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -4286,13 +4316,13 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="L3" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="M3" t="s">
-        <v>309</v>
+        <v>247</v>
       </c>
       <c r="N3" t="s">
         <v>36</v>
@@ -4312,28 +4342,28 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="E4" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="F4" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
       <c r="J4" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="L4" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="M4" t="s">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
@@ -4353,13 +4383,13 @@
         <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="E5" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="F5" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="G5" t="s">
         <v>47</v>
@@ -4371,13 +4401,13 @@
         <v>48</v>
       </c>
       <c r="J5" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="L5" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="M5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N5" t="s">
         <v>50</v>
@@ -4557,7 +4587,7 @@
         <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
@@ -4569,7 +4599,7 @@
         <v>64</v>
       </c>
       <c r="M4" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
@@ -4610,7 +4640,7 @@
         <v>22</v>
       </c>
       <c r="L5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M5" t="s">
         <v>22</v>
@@ -4693,34 +4723,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -4740,13 +4770,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -4758,13 +4788,13 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M3" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="N3" t="s">
         <v>36</v>
@@ -4784,28 +4814,28 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
       <c r="J4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M4" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
@@ -4825,10 +4855,10 @@
         <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
@@ -4846,7 +4876,7 @@
         <v>22</v>
       </c>
       <c r="L5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M5" t="s">
         <v>22</v>
@@ -4929,34 +4959,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -4976,13 +5006,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -4994,13 +5024,13 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N3" t="s">
         <v>36</v>
@@ -5020,28 +5050,28 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
       <c r="J4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M4" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
@@ -5061,10 +5091,10 @@
         <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
@@ -5082,7 +5112,7 @@
         <v>22</v>
       </c>
       <c r="L5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M5" t="s">
         <v>22</v>
@@ -5101,7 +5131,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5165,13 +5195,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F2" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -5183,13 +5213,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="L2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -5209,13 +5239,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -5227,10 +5257,10 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M3" t="s">
         <v>22</v>
@@ -5244,42 +5274,83 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" t="s">
+        <v>101</v>
+      </c>
+      <c r="M4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
         <v>44</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>45</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>46</v>
       </c>
-      <c r="D4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="D5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
         <v>47</v>
       </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" t="s">
         <v>48</v>
       </c>
-      <c r="J4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" t="s">
         <v>50</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O5" t="s">
         <v>51</v>
       </c>
     </row>
@@ -5354,34 +5425,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="K2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="L2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -5392,43 +5463,43 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="H3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="K3" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="L3" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="M3" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="N3" t="s">
         <v>50</v>
@@ -5448,13 +5519,13 @@
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F4" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
@@ -5466,13 +5537,13 @@
         <v>33</v>
       </c>
       <c r="J4" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="L4" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="M4" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="N4" t="s">
         <v>36</v>
@@ -5492,28 +5563,28 @@
         <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F5" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H5" t="s">
         <v>22</v>
       </c>
       <c r="J5" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="L5" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="M5" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="N5" t="s">
         <v>26</v>
@@ -5533,34 +5604,34 @@
         <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E6" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F6" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="G6" t="s">
         <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="I6" t="s">
         <v>48</v>
       </c>
       <c r="J6" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="K6" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="L6" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="M6" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="N6" t="s">
         <v>50</v>
@@ -5640,34 +5711,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="F2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="K2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="L2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="M2" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -5687,13 +5758,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E3" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="F3" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -5705,13 +5776,13 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="L3" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="M3" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="N3" t="s">
         <v>36</v>
@@ -5731,28 +5802,28 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E4" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="F4" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
       <c r="J4" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="L4" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="M4" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
@@ -5772,34 +5843,34 @@
         <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E5" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="F5" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="G5" t="s">
         <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="I5" t="s">
         <v>48</v>
       </c>
       <c r="J5" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="K5" t="s">
-        <v>95</v>
+        <v>146</v>
       </c>
       <c r="L5" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="M5" t="s">
-        <v>20</v>
+        <v>148</v>
       </c>
       <c r="N5" t="s">
         <v>50</v>
@@ -5810,22 +5881,22 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="C6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="D6" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E6" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="F6" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
@@ -5837,13 +5908,13 @@
         <v>23</v>
       </c>
       <c r="J6" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="L6" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="M6" t="s">
-        <v>40</v>
+        <v>154</v>
       </c>
       <c r="N6" t="s">
         <v>50</v>
@@ -5923,34 +5994,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="E2" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="F2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="K2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="L2" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="M2" t="s">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -5970,13 +6041,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="E3" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="F3" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -5988,13 +6059,13 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="L3" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="M3" t="s">
-        <v>68</v>
+        <v>164</v>
       </c>
       <c r="N3" t="s">
         <v>36</v>
@@ -6014,28 +6085,28 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="E4" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="F4" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
       <c r="J4" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="L4" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="M4" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
@@ -6055,19 +6126,19 @@
         <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="E5" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="F5" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="G5" t="s">
         <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="I5" t="s">
         <v>48</v>
@@ -6076,13 +6147,13 @@
         <v>49</v>
       </c>
       <c r="K5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="L5" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="M5" t="s">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="N5" t="s">
         <v>50</v>
@@ -6093,22 +6164,22 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="C6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="D6" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="E6" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="F6" t="s">
-        <v>69</v>
+        <v>130</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
@@ -6120,16 +6191,16 @@
         <v>23</v>
       </c>
       <c r="J6" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="K6" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="L6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M6" t="s">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="N6" t="s">
         <v>50</v>
@@ -6209,34 +6280,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="E2" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="F2" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="K2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="L2" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="M2" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -6247,25 +6318,25 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D3" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="E3" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>179</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="H3" t="s">
         <v>22</v>
@@ -6274,13 +6345,13 @@
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>179</v>
       </c>
       <c r="L3" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>181</v>
       </c>
       <c r="N3" t="s">
         <v>50</v>
@@ -6300,13 +6371,13 @@
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="E4" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="F4" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
@@ -6318,13 +6389,13 @@
         <v>33</v>
       </c>
       <c r="J4" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="L4" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="M4" t="s">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="N4" t="s">
         <v>36</v>
@@ -6344,28 +6415,28 @@
         <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="E5" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="F5" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H5" t="s">
         <v>22</v>
       </c>
       <c r="J5" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="L5" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="M5" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="N5" t="s">
         <v>26</v>
@@ -6385,34 +6456,34 @@
         <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="E6" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="F6" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="G6" t="s">
         <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="I6" t="s">
         <v>48</v>
       </c>
       <c r="J6" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="K6" t="s">
-        <v>179</v>
+        <v>69</v>
       </c>
       <c r="L6" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="M6" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="N6" t="s">
         <v>50</v>
@@ -6423,43 +6494,43 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="B7" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="C7" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="D7" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="E7" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="F7" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="G7" t="s">
         <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>97</v>
+        <v>192</v>
       </c>
       <c r="I7" t="s">
         <v>23</v>
       </c>
       <c r="J7" t="s">
-        <v>150</v>
+        <v>57</v>
       </c>
       <c r="K7" t="s">
-        <v>24</v>
+        <v>164</v>
       </c>
       <c r="L7" t="s">
-        <v>82</v>
+        <v>193</v>
       </c>
       <c r="M7" t="s">
-        <v>183</v>
+        <v>118</v>
       </c>
       <c r="N7" t="s">
         <v>50</v>

--- a/secteur-action-publique/transition-ecologique/regions/barometre-resultats-transition-ecologique-regions-synthese.xlsx
+++ b/secteur-action-publique/transition-ecologique/regions/barometre-resultats-transition-ecologique-regions-synthese.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="397">
   <si>
     <t>mesure</t>
   </si>
@@ -126,1036 +126,1099 @@
     <t>nb-primes-conversion</t>
   </si>
   <si>
-    <t>2334.0</t>
+    <t>2425.0</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>8362.0</t>
+  </si>
+  <si>
+    <t>29.0</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>primes et bonus</t>
+  </si>
+  <si>
+    <t>Nombre de bornes de recharge pour véhicules électriques déployées</t>
+  </si>
+  <si>
+    <t>nb-points-recharge</t>
+  </si>
+  <si>
+    <t>32.0</t>
   </si>
   <si>
     <t>2021-11-30</t>
   </si>
   <si>
-    <t>2018-03-31</t>
-  </si>
-  <si>
-    <t>8362.0</t>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>25.0</t>
+  </si>
+  <si>
+    <t>357.0</t>
+  </si>
+  <si>
+    <t>557.0</t>
+  </si>
+  <si>
+    <t>bornes de recharge</t>
+  </si>
+  <si>
+    <t>Mettre en œuvre la sortie du plastique à usage unique et lutter contre le gaspillage</t>
+  </si>
+  <si>
+    <t>Nombre de Français qui peuvent mettre tous les emballages dans le bac jaune</t>
+  </si>
+  <si>
+    <t>nb-francais-emballages-bac-jaune</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>400000.0</t>
+  </si>
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>habitants</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>14.0</t>
+  </si>
+  <si>
+    <t>71.0</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>2585.0</t>
+  </si>
+  <si>
+    <t>7900.0</t>
+  </si>
+  <si>
+    <t>33.0</t>
+  </si>
+  <si>
+    <t>64.0</t>
+  </si>
+  <si>
+    <t>63.0</t>
+  </si>
+  <si>
+    <t>6300.0</t>
+  </si>
+  <si>
+    <t>527.0</t>
+  </si>
+  <si>
+    <t>12.0</t>
+  </si>
+  <si>
+    <t>380000.0</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>Guyane</t>
+  </si>
+  <si>
+    <t>76.0</t>
+  </si>
+  <si>
+    <t>26.0</t>
+  </si>
+  <si>
+    <t>50.0</t>
+  </si>
+  <si>
+    <t>192.0</t>
+  </si>
+  <si>
+    <t>69.0</t>
+  </si>
+  <si>
+    <t>100.0</t>
+  </si>
+  <si>
+    <t>289.0</t>
+  </si>
+  <si>
+    <t>6542.0</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>31.0</t>
+  </si>
+  <si>
+    <t>1550.0</t>
+  </si>
+  <si>
+    <t>436.0</t>
+  </si>
+  <si>
+    <t>260000.0</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>La Réunion</t>
+  </si>
+  <si>
+    <t>388.0</t>
+  </si>
+  <si>
+    <t>332.0</t>
+  </si>
+  <si>
+    <t>56.0</t>
+  </si>
+  <si>
+    <t>17.0</t>
+  </si>
+  <si>
+    <t>410.0</t>
+  </si>
+  <si>
+    <t>72.0</t>
+  </si>
+  <si>
+    <t>8812.0</t>
+  </si>
+  <si>
+    <t>19099.0</t>
+  </si>
+  <si>
+    <t>46.0</t>
+  </si>
+  <si>
+    <t>113.0</t>
+  </si>
+  <si>
+    <t>67.0</t>
+  </si>
+  <si>
+    <t>1273.0</t>
+  </si>
+  <si>
+    <t>850000.0</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>58.0</t>
+  </si>
+  <si>
+    <t>21.0</t>
+  </si>
+  <si>
+    <t>23.0</t>
+  </si>
+  <si>
+    <t>6428.0</t>
+  </si>
+  <si>
+    <t>429.0</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Île-de-France</t>
+  </si>
+  <si>
+    <t>4695.0</t>
+  </si>
+  <si>
+    <t>3651.0</t>
+  </si>
+  <si>
+    <t>1044.0</t>
+  </si>
+  <si>
+    <t>5104.0</t>
+  </si>
+  <si>
+    <t>Instaurer des zones à faibles émissions</t>
+  </si>
+  <si>
+    <t>Nombre d'habitants vivant à l'intérieur d'une zone à faibles émissions</t>
+  </si>
+  <si>
+    <t>nb-habitants-zfe</t>
+  </si>
+  <si>
+    <t>3872191.0</t>
+  </si>
+  <si>
+    <t>2187526.0</t>
+  </si>
+  <si>
+    <t>1684665.0</t>
+  </si>
+  <si>
+    <t>77.0</t>
+  </si>
+  <si>
+    <t>5279661.0</t>
+  </si>
+  <si>
+    <t>54.0</t>
+  </si>
+  <si>
+    <t>179844.0</t>
+  </si>
+  <si>
+    <t>274237.0</t>
+  </si>
+  <si>
+    <t>66.0</t>
+  </si>
+  <si>
+    <t>9297.0</t>
+  </si>
+  <si>
+    <t>3936.0</t>
+  </si>
+  <si>
+    <t>5361.0</t>
+  </si>
+  <si>
+    <t>136.0</t>
+  </si>
+  <si>
+    <t>18282.0</t>
+  </si>
+  <si>
+    <t>37.0</t>
+  </si>
+  <si>
+    <t>8970000.0</t>
+  </si>
+  <si>
+    <t>3270000.0</t>
+  </si>
+  <si>
+    <t>5700000.0</t>
+  </si>
+  <si>
+    <t>174.0</t>
+  </si>
+  <si>
+    <t>12090000.0</t>
+  </si>
+  <si>
+    <t>65.0</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Centre-Val de Loire</t>
+  </si>
+  <si>
+    <t>2779.0</t>
+  </si>
+  <si>
+    <t>1816.0</t>
+  </si>
+  <si>
+    <t>963.0</t>
+  </si>
+  <si>
+    <t>53.0</t>
+  </si>
+  <si>
+    <t>2704.0</t>
+  </si>
+  <si>
+    <t>52424.0</t>
+  </si>
+  <si>
+    <t>57009.0</t>
+  </si>
+  <si>
+    <t>92.0</t>
+  </si>
+  <si>
+    <t>2138.0</t>
+  </si>
+  <si>
+    <t>1493.0</t>
+  </si>
+  <si>
+    <t>645.0</t>
+  </si>
+  <si>
+    <t>43.0</t>
+  </si>
+  <si>
+    <t>3801.0</t>
   </si>
   <si>
     <t>28.0</t>
   </si>
   <si>
-    <t>2022-06-30</t>
-  </si>
-  <si>
-    <t>primes et bonus</t>
-  </si>
-  <si>
-    <t>Nombre de bornes de recharge pour véhicules électriques déployées</t>
-  </si>
-  <si>
-    <t>nb-points-recharge</t>
-  </si>
-  <si>
-    <t>32.0</t>
-  </si>
-  <si>
-    <t>557.0</t>
-  </si>
-  <si>
-    <t>6.0</t>
-  </si>
-  <si>
-    <t>bornes de recharge</t>
-  </si>
-  <si>
-    <t>Mettre en œuvre la sortie du plastique à usage unique et lutter contre le gaspillage</t>
-  </si>
-  <si>
-    <t>Nombre de Français qui peuvent mettre tous les emballages dans le bac jaune</t>
-  </si>
-  <si>
-    <t>nb-francais-emballages-bac-jaune</t>
-  </si>
-  <si>
-    <t>2021-06-30</t>
-  </si>
-  <si>
-    <t>2017-06-30</t>
-  </si>
-  <si>
-    <t>400000.0</t>
-  </si>
-  <si>
-    <t>2022-12-31</t>
-  </si>
-  <si>
-    <t>habitants</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>Martinique</t>
-  </si>
-  <si>
-    <t>8.0</t>
-  </si>
-  <si>
-    <t>7.0</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>14.0</t>
-  </si>
-  <si>
-    <t>71.0</t>
-  </si>
-  <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>2480.0</t>
-  </si>
-  <si>
-    <t>7900.0</t>
-  </si>
-  <si>
-    <t>31.0</t>
-  </si>
-  <si>
-    <t>64.0</t>
-  </si>
-  <si>
-    <t>527.0</t>
-  </si>
-  <si>
-    <t>12.0</t>
-  </si>
-  <si>
-    <t>380000.0</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>Guyane</t>
-  </si>
-  <si>
-    <t>76.0</t>
-  </si>
-  <si>
-    <t>26.0</t>
-  </si>
-  <si>
-    <t>50.0</t>
-  </si>
-  <si>
-    <t>192.0</t>
-  </si>
-  <si>
-    <t>69.0</t>
-  </si>
-  <si>
-    <t>100.0</t>
-  </si>
-  <si>
-    <t>269.0</t>
-  </si>
-  <si>
-    <t>6542.0</t>
-  </si>
-  <si>
-    <t>33.0</t>
-  </si>
-  <si>
-    <t>436.0</t>
-  </si>
-  <si>
-    <t>260000.0</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>La Réunion</t>
-  </si>
-  <si>
-    <t>388.0</t>
-  </si>
-  <si>
-    <t>332.0</t>
-  </si>
-  <si>
-    <t>56.0</t>
-  </si>
-  <si>
-    <t>17.0</t>
-  </si>
-  <si>
-    <t>410.0</t>
-  </si>
-  <si>
-    <t>72.0</t>
-  </si>
-  <si>
-    <t>8437.0</t>
-  </si>
-  <si>
-    <t>19099.0</t>
-  </si>
-  <si>
-    <t>44.0</t>
-  </si>
-  <si>
-    <t>113.0</t>
-  </si>
-  <si>
-    <t>1273.0</t>
-  </si>
-  <si>
-    <t>9.0</t>
-  </si>
-  <si>
-    <t>850000.0</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>Mayotte</t>
-  </si>
-  <si>
-    <t>58.0</t>
-  </si>
-  <si>
-    <t>21.0</t>
+    <t>730000.0</t>
+  </si>
+  <si>
+    <t>120000.0</t>
+  </si>
+  <si>
+    <t>610000.0</t>
+  </si>
+  <si>
+    <t>508.0</t>
+  </si>
+  <si>
+    <t>2560000.0</t>
+  </si>
+  <si>
+    <t>Plan de soutien aux petites lignes ferroviaires</t>
+  </si>
+  <si>
+    <t>Nombre de kilomètres de lignes rénovées</t>
+  </si>
+  <si>
+    <t>nb-km-lignes-regenerees</t>
+  </si>
+  <si>
+    <t>36.0</t>
+  </si>
+  <si>
+    <t>2017-01-31</t>
+  </si>
+  <si>
+    <t>93.0</t>
+  </si>
+  <si>
+    <t>39.0</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Bourgogne-Franche-Comté</t>
+  </si>
+  <si>
+    <t>3535.0</t>
+  </si>
+  <si>
+    <t>2992.0</t>
+  </si>
+  <si>
+    <t>543.0</t>
+  </si>
+  <si>
+    <t>18.0</t>
+  </si>
+  <si>
+    <t>3577.0</t>
+  </si>
+  <si>
+    <t>55511.0</t>
+  </si>
+  <si>
+    <t>61987.0</t>
+  </si>
+  <si>
+    <t>90.0</t>
+  </si>
+  <si>
+    <t>2096.0</t>
+  </si>
+  <si>
+    <t>1041.0</t>
+  </si>
+  <si>
+    <t>1055.0</t>
+  </si>
+  <si>
+    <t>101.0</t>
+  </si>
+  <si>
+    <t>4132.0</t>
+  </si>
+  <si>
+    <t>34.0</t>
+  </si>
+  <si>
+    <t>1430000.0</t>
+  </si>
+  <si>
+    <t>1030000.0</t>
+  </si>
+  <si>
+    <t>2820000.0</t>
   </si>
   <si>
     <t>22.0</t>
   </si>
   <si>
-    <t>6428.0</t>
-  </si>
-  <si>
-    <t>429.0</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Île-de-France</t>
-  </si>
-  <si>
-    <t>4695.0</t>
-  </si>
-  <si>
-    <t>3651.0</t>
-  </si>
-  <si>
-    <t>1044.0</t>
-  </si>
-  <si>
-    <t>29.0</t>
-  </si>
-  <si>
-    <t>5104.0</t>
-  </si>
-  <si>
-    <t>Instaurer des zones à faibles émissions</t>
-  </si>
-  <si>
-    <t>Nombre d'habitants vivant à l'intérieur d'une zone à faibles émissions</t>
-  </si>
-  <si>
-    <t>nb-habitants-zfe</t>
-  </si>
-  <si>
-    <t>3872191.0</t>
-  </si>
-  <si>
-    <t>2021-12-31</t>
-  </si>
-  <si>
-    <t>2187526.0</t>
-  </si>
-  <si>
-    <t>1684665.0</t>
-  </si>
-  <si>
-    <t>77.0</t>
-  </si>
-  <si>
-    <t>5279661.0</t>
-  </si>
-  <si>
-    <t>54.0</t>
-  </si>
-  <si>
-    <t>171026.0</t>
-  </si>
-  <si>
-    <t>274237.0</t>
-  </si>
-  <si>
-    <t>62.0</t>
-  </si>
-  <si>
-    <t>9297.0</t>
-  </si>
-  <si>
-    <t>18282.0</t>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Normandie</t>
+  </si>
+  <si>
+    <t>3267.0</t>
+  </si>
+  <si>
+    <t>2579.0</t>
+  </si>
+  <si>
+    <t>688.0</t>
+  </si>
+  <si>
+    <t>27.0</t>
+  </si>
+  <si>
+    <t>3405.0</t>
+  </si>
+  <si>
+    <t>83.0</t>
+  </si>
+  <si>
+    <t>33467.0</t>
+  </si>
+  <si>
+    <t>228894.0</t>
+  </si>
+  <si>
+    <t>15.0</t>
+  </si>
+  <si>
+    <t>75623.0</t>
+  </si>
+  <si>
+    <t>73553.0</t>
+  </si>
+  <si>
+    <t>2666.0</t>
+  </si>
+  <si>
+    <t>2166.0</t>
+  </si>
+  <si>
+    <t>500.0</t>
+  </si>
+  <si>
+    <t>4904.0</t>
+  </si>
+  <si>
+    <t>2300000.0</t>
+  </si>
+  <si>
+    <t>1310000.0</t>
+  </si>
+  <si>
+    <t>990000.0</t>
+  </si>
+  <si>
+    <t>3340000.0</t>
+  </si>
+  <si>
+    <t>49.0</t>
+  </si>
+  <si>
+    <t>30.0</t>
+  </si>
+  <si>
+    <t>42.0</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Hauts-de-France</t>
+  </si>
+  <si>
+    <t>4549.0</t>
+  </si>
+  <si>
+    <t>3515.0</t>
+  </si>
+  <si>
+    <t>1034.0</t>
+  </si>
+  <si>
+    <t>4778.0</t>
+  </si>
+  <si>
+    <t>82.0</t>
+  </si>
+  <si>
+    <t>120555.0</t>
+  </si>
+  <si>
+    <t>132986.0</t>
+  </si>
+  <si>
+    <t>91.0</t>
+  </si>
+  <si>
+    <t>4187.0</t>
+  </si>
+  <si>
+    <t>2335.0</t>
+  </si>
+  <si>
+    <t>1852.0</t>
+  </si>
+  <si>
+    <t>79.0</t>
+  </si>
+  <si>
+    <t>8866.0</t>
+  </si>
+  <si>
+    <t>1900000.0</t>
+  </si>
+  <si>
+    <t>940000.0</t>
+  </si>
+  <si>
+    <t>960000.0</t>
+  </si>
+  <si>
+    <t>102.0</t>
+  </si>
+  <si>
+    <t>6010000.0</t>
+  </si>
+  <si>
+    <t>19.0</t>
+  </si>
+  <si>
+    <t>140.0</t>
+  </si>
+  <si>
+    <t>170.0</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Grand Est</t>
+  </si>
+  <si>
+    <t>6658.0</t>
+  </si>
+  <si>
+    <t>5340.0</t>
+  </si>
+  <si>
+    <t>1318.0</t>
+  </si>
+  <si>
+    <t>6856.0</t>
+  </si>
+  <si>
+    <t>87.0</t>
+  </si>
+  <si>
+    <t>26000.0</t>
+  </si>
+  <si>
+    <t>228826.0</t>
+  </si>
+  <si>
+    <t>11.0</t>
+  </si>
+  <si>
+    <t>107052.0</t>
+  </si>
+  <si>
+    <t>122915.0</t>
+  </si>
+  <si>
+    <t>3954.0</t>
+  </si>
+  <si>
+    <t>1946.0</t>
+  </si>
+  <si>
+    <t>2008.0</t>
+  </si>
+  <si>
+    <t>103.0</t>
+  </si>
+  <si>
+    <t>8194.0</t>
+  </si>
+  <si>
+    <t>2290000.0</t>
+  </si>
+  <si>
+    <t>830000.0</t>
+  </si>
+  <si>
+    <t>1460000.0</t>
+  </si>
+  <si>
+    <t>176.0</t>
+  </si>
+  <si>
+    <t>5550000.0</t>
+  </si>
+  <si>
+    <t>138.0</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Pays de la Loire</t>
+  </si>
+  <si>
+    <t>4701.0</t>
+  </si>
+  <si>
+    <t>3359.0</t>
+  </si>
+  <si>
+    <t>1342.0</t>
+  </si>
+  <si>
+    <t>40.0</t>
+  </si>
+  <si>
+    <t>4840.0</t>
+  </si>
+  <si>
+    <t>93510.0</t>
+  </si>
+  <si>
+    <t>85389.0</t>
+  </si>
+  <si>
+    <t>2345.0</t>
+  </si>
+  <si>
+    <t>1461.0</t>
+  </si>
+  <si>
+    <t>884.0</t>
+  </si>
+  <si>
+    <t>61.0</t>
+  </si>
+  <si>
+    <t>5693.0</t>
+  </si>
+  <si>
+    <t>3460000.0</t>
+  </si>
+  <si>
+    <t>1270000.0</t>
+  </si>
+  <si>
+    <t>2190000.0</t>
+  </si>
+  <si>
+    <t>172.0</t>
+  </si>
+  <si>
+    <t>3730000.0</t>
+  </si>
+  <si>
+    <t>89.0</t>
+  </si>
+  <si>
+    <t>139.0</t>
+  </si>
+  <si>
+    <t>144.0</t>
+  </si>
+  <si>
+    <t>97.0</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>Bretagne</t>
+  </si>
+  <si>
+    <t>4174.0</t>
+  </si>
+  <si>
+    <t>2843.0</t>
+  </si>
+  <si>
+    <t>1331.0</t>
+  </si>
+  <si>
+    <t>47.0</t>
+  </si>
+  <si>
+    <t>4084.0</t>
+  </si>
+  <si>
+    <t>84402.0</t>
+  </si>
+  <si>
+    <t>75004.0</t>
+  </si>
+  <si>
+    <t>2520.0</t>
+  </si>
+  <si>
+    <t>1736.0</t>
+  </si>
+  <si>
+    <t>784.0</t>
+  </si>
+  <si>
+    <t>45.0</t>
+  </si>
+  <si>
+    <t>5000.0</t>
+  </si>
+  <si>
+    <t>24.0</t>
+  </si>
+  <si>
+    <t>2440000.0</t>
+  </si>
+  <si>
+    <t>1240000.0</t>
+  </si>
+  <si>
+    <t>1200000.0</t>
+  </si>
+  <si>
+    <t>3290000.0</t>
+  </si>
+  <si>
+    <t>59.0</t>
+  </si>
+  <si>
+    <t>111.0</t>
+  </si>
+  <si>
+    <t>80.0</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>Nouvelle-Aquitaine</t>
+  </si>
+  <si>
+    <t>7112.0</t>
+  </si>
+  <si>
+    <t>5548.0</t>
+  </si>
+  <si>
+    <t>1564.0</t>
+  </si>
+  <si>
+    <t>7424.0</t>
+  </si>
+  <si>
+    <t>140736.0</t>
+  </si>
+  <si>
+    <t>134372.0</t>
+  </si>
+  <si>
+    <t>4798.0</t>
+  </si>
+  <si>
+    <t>3084.0</t>
+  </si>
+  <si>
+    <t>1714.0</t>
+  </si>
+  <si>
+    <t>8958.0</t>
+  </si>
+  <si>
+    <t>3660000.0</t>
+  </si>
+  <si>
+    <t>2050000.0</t>
+  </si>
+  <si>
+    <t>1610000.0</t>
+  </si>
+  <si>
+    <t>5900000.0</t>
+  </si>
+  <si>
+    <t>180.0</t>
+  </si>
+  <si>
+    <t>232.0</t>
+  </si>
+  <si>
+    <t>78.0</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>Occitanie</t>
+  </si>
+  <si>
+    <t>5211.0</t>
+  </si>
+  <si>
+    <t>3826.0</t>
+  </si>
+  <si>
+    <t>1385.0</t>
+  </si>
+  <si>
+    <t>5378.0</t>
+  </si>
+  <si>
+    <t>707740.0</t>
+  </si>
+  <si>
+    <t>150553.0</t>
+  </si>
+  <si>
+    <t>133170.0</t>
+  </si>
+  <si>
+    <t>4905.0</t>
+  </si>
+  <si>
+    <t>3374.0</t>
+  </si>
+  <si>
+    <t>1531.0</t>
+  </si>
+  <si>
+    <t>8878.0</t>
+  </si>
+  <si>
+    <t>3060000.0</t>
+  </si>
+  <si>
+    <t>1560000.0</t>
+  </si>
+  <si>
+    <t>1500000.0</t>
+  </si>
+  <si>
+    <t>96.0</t>
+  </si>
+  <si>
+    <t>5790000.0</t>
+  </si>
+  <si>
+    <t>35.0</t>
+  </si>
+  <si>
+    <t>145.0</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>Auvergne-Rhône-Alpes</t>
+  </si>
+  <si>
+    <t>4995.0</t>
+  </si>
+  <si>
+    <t>3809.0</t>
+  </si>
+  <si>
+    <t>1186.0</t>
+  </si>
+  <si>
+    <t>5103.0</t>
+  </si>
+  <si>
+    <t>1197526.0</t>
+  </si>
+  <si>
+    <t>1030199.0</t>
+  </si>
+  <si>
+    <t>171948.0</t>
+  </si>
+  <si>
+    <t>180043.0</t>
+  </si>
+  <si>
+    <t>5669.0</t>
+  </si>
+  <si>
+    <t>84.0</t>
+  </si>
+  <si>
+    <t>12003.0</t>
+  </si>
+  <si>
+    <t>3780000.0</t>
+  </si>
+  <si>
+    <t>790000.0</t>
+  </si>
+  <si>
+    <t>2990000.0</t>
+  </si>
+  <si>
+    <t>378.0</t>
+  </si>
+  <si>
+    <t>7870000.0</t>
+  </si>
+  <si>
+    <t>189.0</t>
+  </si>
+  <si>
+    <t>74.0</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>Provence-Alpes-Côte d'Azur</t>
+  </si>
+  <si>
+    <t>1893.0</t>
+  </si>
+  <si>
+    <t>1322.0</t>
+  </si>
+  <si>
+    <t>571.0</t>
+  </si>
+  <si>
+    <t>1906.0</t>
+  </si>
+  <si>
+    <t>98.0</t>
+  </si>
+  <si>
+    <t>1524680.0</t>
+  </si>
+  <si>
+    <t>111870.0</t>
+  </si>
+  <si>
+    <t>113234.0</t>
+  </si>
+  <si>
+    <t>99.0</t>
+  </si>
+  <si>
+    <t>4805.0</t>
+  </si>
+  <si>
+    <t>1966.0</t>
+  </si>
+  <si>
+    <t>2839.0</t>
+  </si>
+  <si>
+    <t>7549.0</t>
   </si>
   <si>
     <t>51.0</t>
   </si>
   <si>
-    <t>8970000.0</t>
-  </si>
-  <si>
-    <t>3270000.0</t>
-  </si>
-  <si>
-    <t>5700000.0</t>
-  </si>
-  <si>
-    <t>174.0</t>
-  </si>
-  <si>
-    <t>12090000.0</t>
-  </si>
-  <si>
-    <t>65.0</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>Centre-Val de Loire</t>
-  </si>
-  <si>
-    <t>2779.0</t>
-  </si>
-  <si>
-    <t>1816.0</t>
-  </si>
-  <si>
-    <t>963.0</t>
-  </si>
-  <si>
-    <t>53.0</t>
-  </si>
-  <si>
-    <t>2704.0</t>
-  </si>
-  <si>
-    <t>51094.0</t>
-  </si>
-  <si>
-    <t>57009.0</t>
-  </si>
-  <si>
-    <t>90.0</t>
-  </si>
-  <si>
-    <t>2138.0</t>
-  </si>
-  <si>
-    <t>3801.0</t>
-  </si>
-  <si>
-    <t>730000.0</t>
-  </si>
-  <si>
-    <t>120000.0</t>
-  </si>
-  <si>
-    <t>610000.0</t>
-  </si>
-  <si>
-    <t>508.0</t>
-  </si>
-  <si>
-    <t>2560000.0</t>
-  </si>
-  <si>
-    <t>25.0</t>
-  </si>
-  <si>
-    <t>Plan de soutien aux petites lignes ferroviaires</t>
-  </si>
-  <si>
-    <t>Nombre de kilomètres de lignes rénovées</t>
-  </si>
-  <si>
-    <t>nb-km-lignes-regenerees</t>
-  </si>
-  <si>
-    <t>36.0</t>
-  </si>
-  <si>
-    <t>93.0</t>
-  </si>
-  <si>
-    <t>39.0</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>Bourgogne-Franche-Comté</t>
-  </si>
-  <si>
-    <t>3535.0</t>
-  </si>
-  <si>
-    <t>2992.0</t>
-  </si>
-  <si>
-    <t>543.0</t>
-  </si>
-  <si>
-    <t>18.0</t>
-  </si>
-  <si>
-    <t>3577.0</t>
-  </si>
-  <si>
-    <t>54288.0</t>
-  </si>
-  <si>
-    <t>61987.0</t>
-  </si>
-  <si>
-    <t>88.0</t>
-  </si>
-  <si>
-    <t>2096.0</t>
-  </si>
-  <si>
-    <t>4132.0</t>
-  </si>
-  <si>
-    <t>1430000.0</t>
-  </si>
-  <si>
-    <t>1030000.0</t>
-  </si>
-  <si>
-    <t>2820000.0</t>
-  </si>
-  <si>
-    <t>829.0</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>Normandie</t>
-  </si>
-  <si>
-    <t>3267.0</t>
-  </si>
-  <si>
-    <t>2579.0</t>
-  </si>
-  <si>
-    <t>688.0</t>
-  </si>
-  <si>
-    <t>27.0</t>
-  </si>
-  <si>
-    <t>3405.0</t>
-  </si>
-  <si>
-    <t>83.0</t>
-  </si>
-  <si>
-    <t>33467.0</t>
-  </si>
-  <si>
-    <t>228894.0</t>
-  </si>
-  <si>
-    <t>15.0</t>
-  </si>
-  <si>
-    <t>73423.0</t>
-  </si>
-  <si>
-    <t>73553.0</t>
-  </si>
-  <si>
-    <t>2666.0</t>
-  </si>
-  <si>
-    <t>4904.0</t>
-  </si>
-  <si>
-    <t>2300000.0</t>
-  </si>
-  <si>
-    <t>1310000.0</t>
-  </si>
-  <si>
-    <t>990000.0</t>
-  </si>
-  <si>
-    <t>3340000.0</t>
-  </si>
-  <si>
-    <t>49.0</t>
-  </si>
-  <si>
-    <t>30.0</t>
-  </si>
-  <si>
-    <t>16.0</t>
-  </si>
-  <si>
-    <t>42.0</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>Hauts-de-France</t>
-  </si>
-  <si>
-    <t>4549.0</t>
-  </si>
-  <si>
-    <t>3515.0</t>
-  </si>
-  <si>
-    <t>1034.0</t>
-  </si>
-  <si>
-    <t>4778.0</t>
-  </si>
-  <si>
-    <t>82.0</t>
-  </si>
-  <si>
-    <t>117450.0</t>
-  </si>
-  <si>
-    <t>132986.0</t>
-  </si>
-  <si>
-    <t>4187.0</t>
-  </si>
-  <si>
-    <t>8866.0</t>
-  </si>
-  <si>
-    <t>47.0</t>
-  </si>
-  <si>
-    <t>1900000.0</t>
-  </si>
-  <si>
-    <t>940000.0</t>
-  </si>
-  <si>
-    <t>960000.0</t>
-  </si>
-  <si>
-    <t>102.0</t>
-  </si>
-  <si>
-    <t>6010000.0</t>
-  </si>
-  <si>
-    <t>19.0</t>
-  </si>
-  <si>
-    <t>140.0</t>
-  </si>
-  <si>
-    <t>139.0</t>
-  </si>
-  <si>
-    <t>13900.0</t>
-  </si>
-  <si>
-    <t>170.0</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>Grand Est</t>
-  </si>
-  <si>
-    <t>6658.0</t>
-  </si>
-  <si>
-    <t>5340.0</t>
-  </si>
-  <si>
-    <t>1318.0</t>
-  </si>
-  <si>
-    <t>6856.0</t>
-  </si>
-  <si>
-    <t>87.0</t>
-  </si>
-  <si>
-    <t>26000.0</t>
-  </si>
-  <si>
-    <t>228826.0</t>
-  </si>
-  <si>
-    <t>11.0</t>
-  </si>
-  <si>
-    <t>103994.0</t>
-  </si>
-  <si>
-    <t>122915.0</t>
-  </si>
-  <si>
-    <t>85.0</t>
-  </si>
-  <si>
-    <t>3954.0</t>
-  </si>
-  <si>
-    <t>8194.0</t>
+    <t>2660000.0</t>
+  </si>
+  <si>
+    <t>1140000.0</t>
+  </si>
+  <si>
+    <t>1520000.0</t>
+  </si>
+  <si>
+    <t>133.0</t>
+  </si>
+  <si>
+    <t>5010000.0</t>
+  </si>
+  <si>
+    <t>55.0</t>
+  </si>
+  <si>
+    <t>81.0</t>
+  </si>
+  <si>
+    <t>68.0</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>Corse</t>
+  </si>
+  <si>
+    <t>184.0</t>
+  </si>
+  <si>
+    <t>70.0</t>
+  </si>
+  <si>
+    <t>7226.0</t>
+  </si>
+  <si>
+    <t>7771.0</t>
+  </si>
+  <si>
+    <t>292.0</t>
   </si>
   <si>
     <t>48.0</t>
   </si>
   <si>
-    <t>2290000.0</t>
-  </si>
-  <si>
-    <t>830000.0</t>
-  </si>
-  <si>
-    <t>1460000.0</t>
-  </si>
-  <si>
-    <t>176.0</t>
-  </si>
-  <si>
-    <t>5550000.0</t>
-  </si>
-  <si>
-    <t>138.0</t>
-  </si>
-  <si>
-    <t>120.0</t>
-  </si>
-  <si>
-    <t>667.0</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>Pays de la Loire</t>
-  </si>
-  <si>
-    <t>4701.0</t>
-  </si>
-  <si>
-    <t>3359.0</t>
-  </si>
-  <si>
-    <t>1342.0</t>
-  </si>
-  <si>
-    <t>40.0</t>
-  </si>
-  <si>
-    <t>4840.0</t>
-  </si>
-  <si>
-    <t>91.0</t>
-  </si>
-  <si>
-    <t>91607.0</t>
-  </si>
-  <si>
-    <t>85389.0</t>
-  </si>
-  <si>
-    <t>2345.0</t>
-  </si>
-  <si>
-    <t>5693.0</t>
-  </si>
-  <si>
-    <t>41.0</t>
-  </si>
-  <si>
-    <t>3460000.0</t>
-  </si>
-  <si>
-    <t>1270000.0</t>
-  </si>
-  <si>
-    <t>2190000.0</t>
-  </si>
-  <si>
-    <t>172.0</t>
-  </si>
-  <si>
-    <t>3730000.0</t>
-  </si>
-  <si>
-    <t>89.0</t>
-  </si>
-  <si>
-    <t>23.0</t>
-  </si>
-  <si>
-    <t>116.0</t>
-  </si>
-  <si>
-    <t>504.0</t>
-  </si>
-  <si>
-    <t>144.0</t>
-  </si>
-  <si>
-    <t>96.0</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>Bretagne</t>
-  </si>
-  <si>
-    <t>4174.0</t>
-  </si>
-  <si>
-    <t>2843.0</t>
-  </si>
-  <si>
-    <t>1331.0</t>
-  </si>
-  <si>
-    <t>4084.0</t>
-  </si>
-  <si>
-    <t>82625.0</t>
-  </si>
-  <si>
-    <t>75004.0</t>
-  </si>
-  <si>
-    <t>2520.0</t>
-  </si>
-  <si>
-    <t>5000.0</t>
-  </si>
-  <si>
-    <t>2440000.0</t>
-  </si>
-  <si>
-    <t>1240000.0</t>
-  </si>
-  <si>
-    <t>1200000.0</t>
-  </si>
-  <si>
-    <t>97.0</t>
-  </si>
-  <si>
-    <t>3290000.0</t>
-  </si>
-  <si>
-    <t>59.0</t>
-  </si>
-  <si>
-    <t>67.0</t>
-  </si>
-  <si>
-    <t>305.0</t>
-  </si>
-  <si>
-    <t>111.0</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>Nouvelle-Aquitaine</t>
-  </si>
-  <si>
-    <t>7112.0</t>
-  </si>
-  <si>
-    <t>5548.0</t>
-  </si>
-  <si>
-    <t>1564.0</t>
-  </si>
-  <si>
-    <t>7424.0</t>
-  </si>
-  <si>
-    <t>136917.0</t>
-  </si>
-  <si>
-    <t>134372.0</t>
-  </si>
-  <si>
-    <t>4798.0</t>
-  </si>
-  <si>
-    <t>8958.0</t>
-  </si>
-  <si>
-    <t>3660000.0</t>
-  </si>
-  <si>
-    <t>2050000.0</t>
-  </si>
-  <si>
-    <t>1610000.0</t>
-  </si>
-  <si>
-    <t>79.0</t>
-  </si>
-  <si>
-    <t>5900000.0</t>
-  </si>
-  <si>
-    <t>180.0</t>
-  </si>
-  <si>
-    <t>157.0</t>
-  </si>
-  <si>
-    <t>683.0</t>
-  </si>
-  <si>
-    <t>232.0</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>Occitanie</t>
-  </si>
-  <si>
-    <t>5211.0</t>
-  </si>
-  <si>
-    <t>3826.0</t>
-  </si>
-  <si>
-    <t>1385.0</t>
-  </si>
-  <si>
-    <t>5378.0</t>
-  </si>
-  <si>
-    <t>707740.0</t>
-  </si>
-  <si>
-    <t>147092.0</t>
-  </si>
-  <si>
-    <t>133170.0</t>
-  </si>
-  <si>
-    <t>4905.0</t>
-  </si>
-  <si>
-    <t>8878.0</t>
-  </si>
-  <si>
-    <t>55.0</t>
-  </si>
-  <si>
-    <t>3060000.0</t>
-  </si>
-  <si>
-    <t>1560000.0</t>
-  </si>
-  <si>
-    <t>1500000.0</t>
-  </si>
-  <si>
-    <t>5790000.0</t>
-  </si>
-  <si>
-    <t>35.0</t>
-  </si>
-  <si>
-    <t>84.0</t>
-  </si>
-  <si>
-    <t>1680.0</t>
-  </si>
-  <si>
-    <t>145.0</t>
-  </si>
-  <si>
-    <t>60.0</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>Auvergne-Rhône-Alpes</t>
-  </si>
-  <si>
-    <t>4995.0</t>
-  </si>
-  <si>
-    <t>3809.0</t>
-  </si>
-  <si>
-    <t>1186.0</t>
-  </si>
-  <si>
-    <t>5103.0</t>
-  </si>
-  <si>
-    <t>92.0</t>
-  </si>
-  <si>
-    <t>1197526.0</t>
-  </si>
-  <si>
-    <t>1030199.0</t>
-  </si>
-  <si>
-    <t>166928.0</t>
-  </si>
-  <si>
-    <t>180043.0</t>
-  </si>
-  <si>
-    <t>5669.0</t>
-  </si>
-  <si>
-    <t>12003.0</t>
-  </si>
-  <si>
-    <t>3780000.0</t>
-  </si>
-  <si>
-    <t>790000.0</t>
-  </si>
-  <si>
-    <t>2990000.0</t>
-  </si>
-  <si>
-    <t>378.0</t>
-  </si>
-  <si>
-    <t>7870000.0</t>
-  </si>
-  <si>
-    <t>99.0</t>
-  </si>
-  <si>
-    <t>248.0</t>
-  </si>
-  <si>
-    <t>189.0</t>
-  </si>
-  <si>
-    <t>66.0</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>Provence-Alpes-Côte d'Azur</t>
-  </si>
-  <si>
-    <t>1893.0</t>
-  </si>
-  <si>
-    <t>1322.0</t>
-  </si>
-  <si>
-    <t>571.0</t>
-  </si>
-  <si>
-    <t>43.0</t>
-  </si>
-  <si>
-    <t>1906.0</t>
-  </si>
-  <si>
-    <t>98.0</t>
-  </si>
-  <si>
-    <t>1524680.0</t>
-  </si>
-  <si>
-    <t>107997.0</t>
-  </si>
-  <si>
-    <t>113234.0</t>
-  </si>
-  <si>
-    <t>95.0</t>
-  </si>
-  <si>
-    <t>4805.0</t>
-  </si>
-  <si>
-    <t>7549.0</t>
-  </si>
-  <si>
-    <t>2660000.0</t>
-  </si>
-  <si>
-    <t>1140000.0</t>
-  </si>
-  <si>
-    <t>1520000.0</t>
-  </si>
-  <si>
-    <t>133.0</t>
-  </si>
-  <si>
-    <t>5010000.0</t>
-  </si>
-  <si>
-    <t>46.0</t>
-  </si>
-  <si>
-    <t>511.0</t>
-  </si>
-  <si>
-    <t>81.0</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>Corse</t>
-  </si>
-  <si>
-    <t>184.0</t>
-  </si>
-  <si>
-    <t>70.0</t>
-  </si>
-  <si>
-    <t>7104.0</t>
-  </si>
-  <si>
-    <t>7771.0</t>
-  </si>
-  <si>
-    <t>292.0</t>
+    <t>244.0</t>
   </si>
   <si>
     <t>518.0</t>
+  </si>
+  <si>
+    <t>52.0</t>
   </si>
   <si>
     <t>320000.0</t>
@@ -1651,36 +1714,42 @@
         <v>40</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>42</v>
+      </c>
+      <c r="I4" t="s">
+        <v>43</v>
       </c>
       <c r="J4" t="s">
-        <v>40</v>
+        <v>44</v>
+      </c>
+      <c r="K4" t="s">
+        <v>45</v>
       </c>
       <c r="L4" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="M4" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -1692,28 +1761,28 @@
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H5" t="s">
         <v>22</v>
       </c>
       <c r="I5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J5" t="s">
         <v>22</v>
       </c>
       <c r="L5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M5" t="s">
         <v>22</v>
       </c>
       <c r="N5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1787,34 +1856,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="E2" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="F2" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="K2" t="s">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="L2" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="M2" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -1834,13 +1903,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="E3" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="F3" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -1852,13 +1921,13 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="L3" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="M3" t="s">
-        <v>164</v>
+        <v>220</v>
       </c>
       <c r="N3" t="s">
         <v>36</v>
@@ -1878,125 +1947,128 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="E4" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="F4" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>222</v>
+      </c>
+      <c r="I4" t="s">
+        <v>43</v>
       </c>
       <c r="J4" t="s">
-        <v>203</v>
+        <v>223</v>
+      </c>
+      <c r="K4" t="s">
+        <v>224</v>
       </c>
       <c r="L4" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="M4" t="s">
-        <v>205</v>
+        <v>154</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="E5" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="F5" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H5" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="I5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J5" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="K5" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="L5" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="M5" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="N5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="B6" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="C6" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D6" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="E6" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="F6" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H6" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="I6" t="s">
-        <v>23</v>
+        <v>164</v>
       </c>
       <c r="J6" t="s">
-        <v>213</v>
-      </c>
-      <c r="K6" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="L6" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="M6" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="N6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O6" t="s">
         <v>27</v>
@@ -2073,34 +2145,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="E2" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="F2" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="K2" t="s">
-        <v>148</v>
+        <v>44</v>
       </c>
       <c r="L2" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="M2" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -2111,25 +2183,25 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D3" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="E3" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="F3" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="G3" t="s">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
         <v>22</v>
@@ -2138,19 +2210,19 @@
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="L3" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="M3" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="N3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -2164,13 +2236,13 @@
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="E4" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="F4" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
@@ -2182,13 +2254,13 @@
         <v>33</v>
       </c>
       <c r="J4" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="L4" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="M4" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="N4" t="s">
         <v>36</v>
@@ -2208,125 +2280,128 @@
         <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="E5" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="F5" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>247</v>
+      </c>
+      <c r="I5" t="s">
+        <v>43</v>
       </c>
       <c r="J5" t="s">
-        <v>229</v>
+        <v>248</v>
+      </c>
+      <c r="K5" t="s">
+        <v>249</v>
       </c>
       <c r="L5" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="M5" t="s">
-        <v>231</v>
+        <v>40</v>
       </c>
       <c r="N5" t="s">
         <v>26</v>
       </c>
       <c r="O5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="E6" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="F6" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H6" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J6" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="K6" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="L6" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="M6" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="N6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O6" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="B7" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="C7" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D7" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="E7" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="F7" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H7" t="s">
-        <v>160</v>
+        <v>22</v>
       </c>
       <c r="I7" t="s">
-        <v>23</v>
+        <v>164</v>
       </c>
       <c r="J7" t="s">
-        <v>238</v>
-      </c>
-      <c r="K7" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="L7" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="M7" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="N7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O7" t="s">
         <v>27</v>
@@ -2403,34 +2478,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="E2" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="F2" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="K2" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="L2" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="M2" t="s">
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -2450,13 +2525,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="E3" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="F3" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -2468,13 +2543,13 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="L3" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="M3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="N3" t="s">
         <v>36</v>
@@ -2494,125 +2569,128 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="E4" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="F4" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>267</v>
+      </c>
+      <c r="I4" t="s">
+        <v>43</v>
       </c>
       <c r="J4" t="s">
-        <v>250</v>
+        <v>268</v>
+      </c>
+      <c r="K4" t="s">
+        <v>269</v>
       </c>
       <c r="L4" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="M4" t="s">
-        <v>252</v>
+        <v>105</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="E5" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="F5" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H5" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="I5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J5" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="K5" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="L5" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="M5" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="N5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="B6" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="C6" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D6" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="E6" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="F6" t="s">
-        <v>213</v>
+        <v>277</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H6" t="s">
-        <v>259</v>
+        <v>22</v>
       </c>
       <c r="I6" t="s">
-        <v>23</v>
+        <v>164</v>
       </c>
       <c r="J6" t="s">
-        <v>260</v>
-      </c>
-      <c r="K6" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="L6" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="M6" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="N6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O6" t="s">
         <v>27</v>
@@ -2689,34 +2767,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="E2" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="F2" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="K2" t="s">
-        <v>205</v>
+        <v>285</v>
       </c>
       <c r="L2" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="M2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -2736,13 +2814,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="E3" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="F3" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -2754,13 +2832,13 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="L3" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="M3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="N3" t="s">
         <v>36</v>
@@ -2780,125 +2858,128 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="E4" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="F4" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>290</v>
+      </c>
+      <c r="I4" t="s">
+        <v>43</v>
       </c>
       <c r="J4" t="s">
-        <v>272</v>
+        <v>291</v>
+      </c>
+      <c r="K4" t="s">
+        <v>292</v>
       </c>
       <c r="L4" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="M4" t="s">
-        <v>71</v>
+        <v>294</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="E5" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="F5" t="s">
-        <v>274</v>
+        <v>295</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H5" t="s">
-        <v>275</v>
+        <v>296</v>
       </c>
       <c r="I5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J5" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="K5" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="L5" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="M5" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="N5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="B6" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="C6" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D6" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="E6" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="F6" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H6" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="I6" t="s">
-        <v>23</v>
+        <v>164</v>
       </c>
       <c r="J6" t="s">
-        <v>280</v>
-      </c>
-      <c r="K6" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L6" t="s">
-        <v>282</v>
+        <v>300</v>
       </c>
       <c r="M6" t="s">
-        <v>24</v>
+        <v>301</v>
       </c>
       <c r="N6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O6" t="s">
         <v>27</v>
@@ -2975,34 +3056,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="E2" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="F2" t="s">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="K2" t="s">
-        <v>35</v>
+        <v>154</v>
       </c>
       <c r="L2" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="M2" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -3022,13 +3103,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="E3" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="F3" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -3040,13 +3121,13 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="L3" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="M3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="N3" t="s">
         <v>36</v>
@@ -3066,125 +3147,128 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="E4" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="F4" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>311</v>
+      </c>
+      <c r="I4" t="s">
+        <v>43</v>
       </c>
       <c r="J4" t="s">
-        <v>291</v>
+        <v>312</v>
+      </c>
+      <c r="K4" t="s">
+        <v>91</v>
       </c>
       <c r="L4" t="s">
-        <v>292</v>
+        <v>313</v>
       </c>
       <c r="M4" t="s">
-        <v>118</v>
+        <v>35</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="E5" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="F5" t="s">
-        <v>293</v>
+        <v>314</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H5" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="I5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J5" t="s">
-        <v>295</v>
+        <v>316</v>
       </c>
       <c r="K5" t="s">
-        <v>296</v>
+        <v>224</v>
       </c>
       <c r="L5" t="s">
-        <v>297</v>
+        <v>317</v>
       </c>
       <c r="M5" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="N5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="B6" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="C6" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D6" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="E6" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="F6" t="s">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H6" t="s">
-        <v>259</v>
+        <v>22</v>
       </c>
       <c r="I6" t="s">
-        <v>23</v>
+        <v>164</v>
       </c>
       <c r="J6" t="s">
-        <v>299</v>
-      </c>
-      <c r="K6" t="s">
-        <v>300</v>
+        <v>318</v>
       </c>
       <c r="L6" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="M6" t="s">
-        <v>24</v>
+        <v>320</v>
       </c>
       <c r="N6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O6" t="s">
         <v>27</v>
@@ -3261,34 +3345,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="E2" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="F2" t="s">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>306</v>
+        <v>325</v>
       </c>
       <c r="K2" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="L2" t="s">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="M2" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -3299,25 +3383,25 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D3" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="E3" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="F3" t="s">
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
         <v>22</v>
@@ -3329,16 +3413,16 @@
         <v>22</v>
       </c>
       <c r="L3" t="s">
-        <v>308</v>
+        <v>327</v>
       </c>
       <c r="M3" t="s">
         <v>22</v>
       </c>
       <c r="N3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -3352,13 +3436,13 @@
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="E4" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="F4" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
@@ -3370,13 +3454,13 @@
         <v>33</v>
       </c>
       <c r="J4" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
       <c r="L4" t="s">
-        <v>310</v>
+        <v>329</v>
       </c>
       <c r="M4" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="N4" t="s">
         <v>36</v>
@@ -3396,125 +3480,128 @@
         <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="E5" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="F5" t="s">
-        <v>311</v>
+        <v>330</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>331</v>
+      </c>
+      <c r="I5" t="s">
+        <v>43</v>
       </c>
       <c r="J5" t="s">
-        <v>311</v>
+        <v>332</v>
+      </c>
+      <c r="K5" t="s">
+        <v>292</v>
       </c>
       <c r="L5" t="s">
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="M5" t="s">
-        <v>313</v>
+        <v>154</v>
       </c>
       <c r="N5" t="s">
         <v>26</v>
       </c>
       <c r="O5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="E6" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="F6" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H6" t="s">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J6" t="s">
-        <v>316</v>
+        <v>336</v>
       </c>
       <c r="K6" t="s">
-        <v>263</v>
+        <v>337</v>
       </c>
       <c r="L6" t="s">
-        <v>317</v>
+        <v>338</v>
       </c>
       <c r="M6" t="s">
-        <v>318</v>
+        <v>339</v>
       </c>
       <c r="N6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O6" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="B7" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="C7" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D7" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="E7" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="F7" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I7" t="s">
-        <v>23</v>
+        <v>164</v>
       </c>
       <c r="J7" t="s">
-        <v>319</v>
-      </c>
-      <c r="K7" t="s">
-        <v>320</v>
+        <v>276</v>
       </c>
       <c r="L7" t="s">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="M7" t="s">
-        <v>322</v>
+        <v>269</v>
       </c>
       <c r="N7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O7" t="s">
         <v>27</v>
@@ -3591,34 +3678,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>323</v>
+        <v>341</v>
       </c>
       <c r="E2" t="s">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="F2" t="s">
-        <v>325</v>
+        <v>343</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>327</v>
+        <v>345</v>
       </c>
       <c r="K2" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="L2" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
       <c r="M2" t="s">
-        <v>329</v>
+        <v>148</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -3629,25 +3716,25 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D3" t="s">
-        <v>323</v>
+        <v>341</v>
       </c>
       <c r="E3" t="s">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="F3" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="G3" t="s">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
         <v>22</v>
@@ -3656,19 +3743,19 @@
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="L3" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="M3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="N3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -3682,13 +3769,13 @@
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>323</v>
+        <v>341</v>
       </c>
       <c r="E4" t="s">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="F4" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
@@ -3700,13 +3787,13 @@
         <v>33</v>
       </c>
       <c r="J4" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="L4" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="M4" t="s">
-        <v>153</v>
+        <v>337</v>
       </c>
       <c r="N4" t="s">
         <v>36</v>
@@ -3726,125 +3813,128 @@
         <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>323</v>
+        <v>341</v>
       </c>
       <c r="E5" t="s">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="F5" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>311</v>
+      </c>
+      <c r="I5" t="s">
+        <v>43</v>
       </c>
       <c r="J5" t="s">
-        <v>334</v>
+        <v>63</v>
+      </c>
+      <c r="K5" t="s">
+        <v>352</v>
       </c>
       <c r="L5" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="M5" t="s">
-        <v>205</v>
+        <v>35</v>
       </c>
       <c r="N5" t="s">
         <v>26</v>
       </c>
       <c r="O5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>323</v>
+        <v>341</v>
       </c>
       <c r="E6" t="s">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="F6" t="s">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H6" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J6" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="K6" t="s">
-        <v>339</v>
+        <v>357</v>
       </c>
       <c r="L6" t="s">
-        <v>340</v>
+        <v>358</v>
       </c>
       <c r="M6" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="N6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O6" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="B7" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="C7" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D7" t="s">
-        <v>323</v>
+        <v>341</v>
       </c>
       <c r="E7" t="s">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="F7" t="s">
-        <v>213</v>
+        <v>277</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H7" t="s">
-        <v>245</v>
+        <v>22</v>
       </c>
       <c r="I7" t="s">
-        <v>23</v>
+        <v>164</v>
       </c>
       <c r="J7" t="s">
-        <v>341</v>
-      </c>
-      <c r="K7" t="s">
-        <v>342</v>
+        <v>277</v>
       </c>
       <c r="L7" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="M7" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="N7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O7" t="s">
         <v>27</v>
@@ -3921,34 +4011,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="E2" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="F2" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="K2" t="s">
-        <v>350</v>
+        <v>152</v>
       </c>
       <c r="L2" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="M2" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -3959,25 +4049,25 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D3" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="E3" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="F3" t="s">
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
         <v>22</v>
@@ -3989,16 +4079,16 @@
         <v>22</v>
       </c>
       <c r="L3" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="M3" t="s">
         <v>22</v>
       </c>
       <c r="N3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -4012,13 +4102,13 @@
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="E4" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="F4" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
@@ -4030,13 +4120,13 @@
         <v>33</v>
       </c>
       <c r="J4" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="L4" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="M4" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="N4" t="s">
         <v>36</v>
@@ -4056,125 +4146,128 @@
         <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="E5" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="F5" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>373</v>
+      </c>
+      <c r="I5" t="s">
+        <v>43</v>
       </c>
       <c r="J5" t="s">
-        <v>357</v>
+        <v>374</v>
+      </c>
+      <c r="K5" t="s">
+        <v>278</v>
       </c>
       <c r="L5" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="M5" t="s">
-        <v>63</v>
+        <v>376</v>
       </c>
       <c r="N5" t="s">
         <v>26</v>
       </c>
       <c r="O5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="E6" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="F6" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H6" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J6" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="K6" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="L6" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="M6" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="N6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O6" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="B7" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="C7" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D7" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="E7" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="F7" t="s">
-        <v>313</v>
+        <v>382</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H7" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="I7" t="s">
-        <v>23</v>
+        <v>164</v>
       </c>
       <c r="J7" t="s">
-        <v>364</v>
-      </c>
-      <c r="K7" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="L7" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="M7" t="s">
-        <v>63</v>
+        <v>384</v>
       </c>
       <c r="N7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O7" t="s">
         <v>27</v>
@@ -4251,34 +4344,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="E2" t="s">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="F2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>318</v>
+        <v>339</v>
       </c>
       <c r="K2" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
       <c r="L2" t="s">
-        <v>370</v>
+        <v>388</v>
       </c>
       <c r="M2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -4298,13 +4391,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="E3" t="s">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="F3" t="s">
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -4316,13 +4409,13 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="L3" t="s">
-        <v>372</v>
+        <v>390</v>
       </c>
       <c r="M3" t="s">
-        <v>247</v>
+        <v>165</v>
       </c>
       <c r="N3" t="s">
         <v>36</v>
@@ -4342,78 +4435,84 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="E4" t="s">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="F4" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>392</v>
+      </c>
+      <c r="I4" t="s">
+        <v>43</v>
       </c>
       <c r="J4" t="s">
-        <v>373</v>
+        <v>393</v>
+      </c>
+      <c r="K4" t="s">
+        <v>158</v>
       </c>
       <c r="L4" t="s">
-        <v>374</v>
+        <v>394</v>
       </c>
       <c r="M4" t="s">
-        <v>84</v>
+        <v>395</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="E5" t="s">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="F5" t="s">
-        <v>375</v>
+        <v>396</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H5" t="s">
         <v>22</v>
       </c>
       <c r="I5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J5" t="s">
-        <v>375</v>
+        <v>396</v>
       </c>
       <c r="L5" t="s">
-        <v>375</v>
+        <v>396</v>
       </c>
       <c r="M5" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="N5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -4487,34 +4586,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -4534,13 +4633,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -4552,13 +4651,13 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="N3" t="s">
         <v>36</v>
@@ -4578,78 +4677,84 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>59</v>
+      </c>
+      <c r="I4" t="s">
+        <v>43</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="M4" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" t="s">
         <v>52</v>
       </c>
-      <c r="E5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" t="s">
-        <v>48</v>
-      </c>
       <c r="J5" t="s">
         <v>22</v>
       </c>
       <c r="L5" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="M5" t="s">
         <v>22</v>
       </c>
       <c r="N5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -4723,34 +4828,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="L2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -4770,13 +4875,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -4788,10 +4893,10 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="M3" t="s">
         <v>20</v>
@@ -4814,78 +4919,84 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>62</v>
+      </c>
+      <c r="I4" t="s">
+        <v>82</v>
       </c>
       <c r="J4" t="s">
-        <v>77</v>
+        <v>83</v>
+      </c>
+      <c r="K4" t="s">
+        <v>84</v>
       </c>
       <c r="L4" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="M4" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H5" t="s">
         <v>22</v>
       </c>
       <c r="I5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J5" t="s">
         <v>22</v>
       </c>
       <c r="L5" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="M5" t="s">
         <v>22</v>
       </c>
       <c r="N5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -4959,34 +5070,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="K2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="L2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="M2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -5006,13 +5117,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -5024,13 +5135,13 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="L3" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="M3" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="N3" t="s">
         <v>36</v>
@@ -5050,78 +5161,84 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E4" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="F4" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>99</v>
+      </c>
+      <c r="I4" t="s">
+        <v>43</v>
       </c>
       <c r="J4" t="s">
-        <v>91</v>
+        <v>97</v>
+      </c>
+      <c r="K4" t="s">
+        <v>78</v>
       </c>
       <c r="L4" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="M4" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E5" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H5" t="s">
         <v>22</v>
       </c>
       <c r="I5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J5" t="s">
         <v>22</v>
       </c>
       <c r="L5" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="M5" t="s">
         <v>22</v>
       </c>
       <c r="N5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -5195,13 +5312,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="E2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -5213,13 +5330,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="L2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="M2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -5239,13 +5356,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="E3" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="F3" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -5257,10 +5374,10 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="L3" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="M3" t="s">
         <v>22</v>
@@ -5283,25 +5400,28 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="E4" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="F4" t="s">
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
+      <c r="I4" t="s">
+        <v>41</v>
+      </c>
       <c r="J4" t="s">
         <v>22</v>
       </c>
       <c r="L4" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="M4" t="s">
         <v>22</v>
@@ -5310,36 +5430,36 @@
         <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="E5" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H5" t="s">
         <v>22</v>
       </c>
       <c r="I5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J5" t="s">
         <v>22</v>
@@ -5348,10 +5468,10 @@
         <v>22</v>
       </c>
       <c r="N5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -5425,34 +5545,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="E2" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="F2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="K2" t="s">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="L2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="M2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -5463,49 +5583,49 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" t="s">
         <v>109</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3" t="s">
         <v>110</v>
       </c>
-      <c r="C3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E3" t="s">
-        <v>103</v>
-      </c>
       <c r="F3" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="G3" t="s">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K3" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L3" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="M3" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="N3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -5519,13 +5639,13 @@
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="E4" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="F4" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
@@ -5537,13 +5657,13 @@
         <v>33</v>
       </c>
       <c r="J4" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="L4" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="M4" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="N4" t="s">
         <v>36</v>
@@ -5563,81 +5683,87 @@
         <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="E5" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="F5" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>128</v>
+      </c>
+      <c r="I5" t="s">
+        <v>43</v>
       </c>
       <c r="J5" t="s">
-        <v>122</v>
+        <v>129</v>
+      </c>
+      <c r="K5" t="s">
+        <v>130</v>
       </c>
       <c r="L5" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="M5" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="N5" t="s">
         <v>26</v>
       </c>
       <c r="O5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="E6" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="F6" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H6" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J6" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="K6" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="L6" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="M6" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="N6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O6" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -5711,34 +5837,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="E2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="F2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="K2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="L2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="M2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -5758,13 +5884,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="E3" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="F3" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -5776,13 +5902,13 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="L3" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="M3" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="N3" t="s">
         <v>36</v>
@@ -5802,122 +5928,128 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="E4" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="F4" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>150</v>
+      </c>
+      <c r="I4" t="s">
+        <v>43</v>
       </c>
       <c r="J4" t="s">
-        <v>141</v>
+        <v>151</v>
+      </c>
+      <c r="K4" t="s">
+        <v>152</v>
       </c>
       <c r="L4" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="M4" t="s">
-        <v>84</v>
+        <v>154</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" t="s">
+        <v>156</v>
+      </c>
+      <c r="I5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" t="s">
+        <v>157</v>
+      </c>
+      <c r="K5" t="s">
+        <v>158</v>
+      </c>
+      <c r="L5" t="s">
+        <v>159</v>
+      </c>
+      <c r="M5" t="s">
         <v>44</v>
       </c>
-      <c r="B5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" t="s">
-        <v>131</v>
-      </c>
-      <c r="E5" t="s">
-        <v>132</v>
-      </c>
-      <c r="F5" t="s">
-        <v>143</v>
-      </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>144</v>
-      </c>
-      <c r="I5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J5" t="s">
-        <v>145</v>
-      </c>
-      <c r="K5" t="s">
-        <v>146</v>
-      </c>
-      <c r="L5" t="s">
-        <v>147</v>
-      </c>
-      <c r="M5" t="s">
-        <v>148</v>
-      </c>
       <c r="N5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="B6" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="C6" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D6" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="E6" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="F6" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H6" t="s">
         <v>22</v>
       </c>
       <c r="I6" t="s">
-        <v>23</v>
+        <v>164</v>
       </c>
       <c r="J6" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="L6" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="M6" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="N6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O6" t="s">
         <v>27</v>
@@ -5994,34 +6126,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="E2" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="F2" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="K2" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="L2" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="M2" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -6041,13 +6173,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="E3" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="F3" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -6059,13 +6191,13 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="L3" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="M3" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="N3" t="s">
         <v>36</v>
@@ -6085,125 +6217,128 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="E4" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="F4" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>178</v>
+      </c>
+      <c r="I4" t="s">
+        <v>43</v>
       </c>
       <c r="J4" t="s">
-        <v>165</v>
+        <v>179</v>
+      </c>
+      <c r="K4" t="s">
+        <v>180</v>
       </c>
       <c r="L4" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="M4" t="s">
-        <v>124</v>
+        <v>182</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="E5" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="F5" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H5" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="I5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K5" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="L5" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="M5" t="s">
-        <v>99</v>
+        <v>186</v>
       </c>
       <c r="N5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="B6" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="C6" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D6" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="E6" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="F6" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H6" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="I6" t="s">
-        <v>23</v>
+        <v>164</v>
       </c>
       <c r="J6" t="s">
-        <v>97</v>
-      </c>
-      <c r="K6" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="L6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="M6" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="N6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O6" t="s">
         <v>27</v>
@@ -6280,34 +6415,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="E2" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="F2" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="K2" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="L2" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="M2" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -6318,25 +6453,25 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D3" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="E3" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="F3" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="G3" t="s">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
         <v>22</v>
@@ -6345,19 +6480,19 @@
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="L3" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="M3" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="N3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -6371,13 +6506,13 @@
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="E4" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="F4" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
@@ -6389,13 +6524,13 @@
         <v>33</v>
       </c>
       <c r="J4" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="L4" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="M4" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="N4" t="s">
         <v>36</v>
@@ -6415,125 +6550,128 @@
         <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="E5" t="s">
+        <v>188</v>
+      </c>
+      <c r="F5" t="s">
+        <v>200</v>
+      </c>
+      <c r="G5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" t="s">
+        <v>201</v>
+      </c>
+      <c r="I5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" t="s">
+        <v>202</v>
+      </c>
+      <c r="K5" t="s">
+        <v>106</v>
+      </c>
+      <c r="L5" t="s">
+        <v>203</v>
+      </c>
+      <c r="M5" t="s">
         <v>172</v>
-      </c>
-      <c r="F5" t="s">
-        <v>184</v>
-      </c>
-      <c r="G5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" t="s">
-        <v>184</v>
-      </c>
-      <c r="L5" t="s">
-        <v>185</v>
-      </c>
-      <c r="M5" t="s">
-        <v>118</v>
       </c>
       <c r="N5" t="s">
         <v>26</v>
       </c>
       <c r="O5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="E6" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="F6" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H6" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J6" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="K6" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L6" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="M6" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="N6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O6" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="B7" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="C7" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D7" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="E7" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="F7" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H7" t="s">
-        <v>192</v>
+        <v>22</v>
       </c>
       <c r="I7" t="s">
-        <v>23</v>
+        <v>164</v>
       </c>
       <c r="J7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K7" t="s">
-        <v>164</v>
+        <v>209</v>
       </c>
       <c r="L7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="M7" t="s">
-        <v>118</v>
+        <v>61</v>
       </c>
       <c r="N7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O7" t="s">
         <v>27</v>

--- a/secteur-action-publique/transition-ecologique/regions/barometre-resultats-transition-ecologique-regions-synthese.xlsx
+++ b/secteur-action-publique/transition-ecologique/regions/barometre-resultats-transition-ecologique-regions-synthese.xlsx
@@ -132,7 +132,7 @@
     <t>2021-12-31</t>
   </si>
   <si>
-    <t>2018-03-31</t>
+    <t>2018-01-31</t>
   </si>
   <si>
     <t>8362.0</t>

--- a/secteur-action-publique/transition-ecologique/regions/barometre-resultats-transition-ecologique-regions-synthese.xlsx
+++ b/secteur-action-publique/transition-ecologique/regions/barometre-resultats-transition-ecologique-regions-synthese.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="402">
   <si>
     <t>mesure</t>
   </si>
@@ -99,198 +99,210 @@
     <t>2021-09-30</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>75.0</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>kilomètres</t>
+  </si>
+  <si>
+    <t>Verdir le parc automobile</t>
+  </si>
+  <si>
+    <t>Nombre de primes à la conversion et de bonus écologiques</t>
+  </si>
+  <si>
+    <t>nb-primes-conversion</t>
+  </si>
+  <si>
+    <t>2425.0</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2018-01-31</t>
+  </si>
+  <si>
+    <t>8362.0</t>
+  </si>
+  <si>
+    <t>29.0</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>primes et bonus</t>
+  </si>
+  <si>
+    <t>Nombre de bornes de recharge pour véhicules électriques déployées</t>
+  </si>
+  <si>
+    <t>nb-points-recharge</t>
+  </si>
+  <si>
+    <t>32.0</t>
+  </si>
+  <si>
+    <t>2021-11-30</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>25.0</t>
+  </si>
+  <si>
+    <t>357.0</t>
+  </si>
+  <si>
+    <t>557.0</t>
+  </si>
+  <si>
+    <t>bornes de recharge</t>
+  </si>
+  <si>
+    <t>Mettre en œuvre la sortie du plastique à usage unique et lutter contre le gaspillage</t>
+  </si>
+  <si>
+    <t>Nombre de Français qui peuvent mettre tous les emballages dans le bac jaune</t>
+  </si>
+  <si>
+    <t>nb-francais-emballages-bac-jaune</t>
+  </si>
+  <si>
     <t>0.0</t>
   </si>
   <si>
-    <t>2017-12-31</t>
-  </si>
-  <si>
-    <t>75.0</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>2022-03-31</t>
-  </si>
-  <si>
-    <t>kilomètres</t>
-  </si>
-  <si>
-    <t>Verdir le parc automobile</t>
-  </si>
-  <si>
-    <t>Nombre de primes à la conversion et de bonus écologiques</t>
-  </si>
-  <si>
-    <t>nb-primes-conversion</t>
-  </si>
-  <si>
-    <t>2425.0</t>
-  </si>
-  <si>
-    <t>2021-12-31</t>
-  </si>
-  <si>
-    <t>2018-01-31</t>
-  </si>
-  <si>
-    <t>8362.0</t>
-  </si>
-  <si>
-    <t>29.0</t>
-  </si>
-  <si>
-    <t>2022-06-30</t>
-  </si>
-  <si>
-    <t>primes et bonus</t>
-  </si>
-  <si>
-    <t>Nombre de bornes de recharge pour véhicules électriques déployées</t>
-  </si>
-  <si>
-    <t>nb-points-recharge</t>
-  </si>
-  <si>
-    <t>32.0</t>
-  </si>
-  <si>
-    <t>2021-11-30</t>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>400000.0</t>
+  </si>
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>habitants</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>14.0</t>
+  </si>
+  <si>
+    <t>71.0</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>2585.0</t>
+  </si>
+  <si>
+    <t>7900.0</t>
+  </si>
+  <si>
+    <t>33.0</t>
+  </si>
+  <si>
+    <t>64.0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>63.0</t>
+  </si>
+  <si>
+    <t>6300.0</t>
+  </si>
+  <si>
+    <t>527.0</t>
+  </si>
+  <si>
+    <t>12.0</t>
+  </si>
+  <si>
+    <t>380000.0</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>Guyane</t>
+  </si>
+  <si>
+    <t>76.0</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>50.0</t>
+  </si>
+  <si>
+    <t>192.0</t>
+  </si>
+  <si>
+    <t>69.0</t>
+  </si>
+  <si>
+    <t>100.0</t>
+  </si>
+  <si>
+    <t>289.0</t>
+  </si>
+  <si>
+    <t>6542.0</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>31.0</t>
+  </si>
+  <si>
+    <t>1550.0</t>
+  </si>
+  <si>
+    <t>436.0</t>
   </si>
   <si>
     <t>7.0</t>
   </si>
   <si>
-    <t>2019-09-30</t>
-  </si>
-  <si>
-    <t>25.0</t>
-  </si>
-  <si>
-    <t>357.0</t>
-  </si>
-  <si>
-    <t>557.0</t>
-  </si>
-  <si>
-    <t>bornes de recharge</t>
-  </si>
-  <si>
-    <t>Mettre en œuvre la sortie du plastique à usage unique et lutter contre le gaspillage</t>
-  </si>
-  <si>
-    <t>Nombre de Français qui peuvent mettre tous les emballages dans le bac jaune</t>
-  </si>
-  <si>
-    <t>nb-francais-emballages-bac-jaune</t>
-  </si>
-  <si>
-    <t>2021-06-30</t>
-  </si>
-  <si>
-    <t>2017-06-30</t>
-  </si>
-  <si>
-    <t>400000.0</t>
-  </si>
-  <si>
-    <t>2022-12-31</t>
-  </si>
-  <si>
-    <t>habitants</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>Martinique</t>
-  </si>
-  <si>
-    <t>8.0</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>14.0</t>
-  </si>
-  <si>
-    <t>71.0</t>
-  </si>
-  <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>2585.0</t>
-  </si>
-  <si>
-    <t>7900.0</t>
-  </si>
-  <si>
-    <t>33.0</t>
-  </si>
-  <si>
-    <t>64.0</t>
-  </si>
-  <si>
-    <t>63.0</t>
-  </si>
-  <si>
-    <t>6300.0</t>
-  </si>
-  <si>
-    <t>527.0</t>
-  </si>
-  <si>
-    <t>12.0</t>
-  </si>
-  <si>
-    <t>380000.0</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>Guyane</t>
-  </si>
-  <si>
-    <t>76.0</t>
-  </si>
-  <si>
-    <t>26.0</t>
-  </si>
-  <si>
-    <t>50.0</t>
-  </si>
-  <si>
-    <t>192.0</t>
-  </si>
-  <si>
-    <t>69.0</t>
-  </si>
-  <si>
-    <t>100.0</t>
-  </si>
-  <si>
-    <t>289.0</t>
-  </si>
-  <si>
-    <t>6542.0</t>
-  </si>
-  <si>
-    <t>2020-06-30</t>
-  </si>
-  <si>
-    <t>31.0</t>
-  </si>
-  <si>
-    <t>1550.0</t>
-  </si>
-  <si>
-    <t>436.0</t>
-  </si>
-  <si>
     <t>260000.0</t>
   </si>
   <si>
@@ -303,7 +315,7 @@
     <t>388.0</t>
   </si>
   <si>
-    <t>332.0</t>
+    <t>332</t>
   </si>
   <si>
     <t>56.0</t>
@@ -330,7 +342,7 @@
     <t>113.0</t>
   </si>
   <si>
-    <t>67.0</t>
+    <t>67</t>
   </si>
   <si>
     <t>1273.0</t>
@@ -1194,6 +1206,9 @@
     <t>Corse</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>184.0</t>
   </si>
   <si>
@@ -1209,7 +1224,7 @@
     <t>292.0</t>
   </si>
   <si>
-    <t>48.0</t>
+    <t>48</t>
   </si>
   <si>
     <t>244.0</t>
@@ -1758,31 +1773,31 @@
         <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="G5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H5" t="s">
         <v>22</v>
       </c>
       <c r="I5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J5" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="L5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M5" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="N5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1856,34 +1871,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="E2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F2" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="K2" t="s">
         <v>35</v>
       </c>
       <c r="L2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="M2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -1903,31 +1918,31 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="E3" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F3" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="I3" t="s">
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="L3" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="M3" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N3" t="s">
         <v>36</v>
@@ -1947,34 +1962,34 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="E4" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F4" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="G4" t="s">
         <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="I4" t="s">
         <v>43</v>
       </c>
       <c r="J4" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="K4" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="L4" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="M4" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
@@ -1994,81 +2009,81 @@
         <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="E5" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F5" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="G5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H5" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="I5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J5" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="K5" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="L5" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="M5" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="N5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B6" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C6" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D6" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="E6" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F6" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="G6" t="s">
         <v>41</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="I6" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="J6" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L6" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="M6" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="N6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O6" t="s">
         <v>27</v>
@@ -2145,34 +2160,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E2" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="K2" t="s">
         <v>44</v>
       </c>
       <c r="L2" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="M2" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -2183,46 +2198,46 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C3" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D3" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E3" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F3" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L3" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="M3" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="N3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -2236,31 +2251,31 @@
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E4" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F4" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="I4" t="s">
         <v>33</v>
       </c>
       <c r="J4" t="s">
+        <v>248</v>
+      </c>
+      <c r="L4" t="s">
+        <v>249</v>
+      </c>
+      <c r="M4" t="s">
         <v>244</v>
-      </c>
-      <c r="L4" t="s">
-        <v>245</v>
-      </c>
-      <c r="M4" t="s">
-        <v>240</v>
       </c>
       <c r="N4" t="s">
         <v>36</v>
@@ -2280,31 +2295,31 @@
         <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E5" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F5" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="G5" t="s">
         <v>41</v>
       </c>
       <c r="H5" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="I5" t="s">
         <v>43</v>
       </c>
       <c r="J5" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="K5" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="L5" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="M5" t="s">
         <v>40</v>
@@ -2327,81 +2342,81 @@
         <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E6" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F6" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="G6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H6" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="I6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J6" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="K6" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="L6" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="M6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="N6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="G7" t="s">
         <v>41</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="I7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="J7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="L7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="N7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O7" t="s">
         <v>27</v>
@@ -2478,34 +2493,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E2" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F2" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K2" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="L2" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="M2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -2525,31 +2540,31 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E3" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F3" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="I3" t="s">
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L3" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="M3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N3" t="s">
         <v>36</v>
@@ -2569,34 +2584,34 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E4" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F4" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="G4" t="s">
         <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="I4" t="s">
         <v>43</v>
       </c>
       <c r="J4" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="K4" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="L4" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="M4" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
@@ -2616,81 +2631,81 @@
         <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E5" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F5" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H5" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="I5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J5" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="K5" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="L5" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="M5" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="N5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B6" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C6" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D6" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E6" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F6" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="G6" t="s">
         <v>41</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="I6" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="J6" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="L6" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="M6" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="N6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O6" t="s">
         <v>27</v>
@@ -2767,34 +2782,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="E2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F2" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="K2" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="L2" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="M2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -2814,31 +2829,31 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="E3" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F3" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="I3" t="s">
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="L3" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="M3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N3" t="s">
         <v>36</v>
@@ -2858,34 +2873,34 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="E4" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F4" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G4" t="s">
         <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="I4" t="s">
         <v>43</v>
       </c>
       <c r="J4" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="K4" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="L4" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="M4" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
@@ -2905,81 +2920,81 @@
         <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="E5" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F5" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H5" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="I5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J5" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="K5" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="L5" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="M5" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="N5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B6" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C6" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D6" t="s">
+        <v>284</v>
+      </c>
+      <c r="E6" t="s">
+        <v>285</v>
+      </c>
+      <c r="F6" t="s">
         <v>280</v>
-      </c>
-      <c r="E6" t="s">
-        <v>281</v>
-      </c>
-      <c r="F6" t="s">
-        <v>276</v>
       </c>
       <c r="G6" t="s">
         <v>41</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="I6" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="J6" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="L6" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="M6" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="N6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O6" t="s">
         <v>27</v>
@@ -3056,34 +3071,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="E2" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="F2" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="K2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="L2" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="M2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -3103,31 +3118,31 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="E3" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="F3" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="I3" t="s">
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="L3" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="M3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N3" t="s">
         <v>36</v>
@@ -3147,31 +3162,31 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="E4" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="F4" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="G4" t="s">
         <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="I4" t="s">
         <v>43</v>
       </c>
       <c r="J4" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="K4" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="L4" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="M4" t="s">
         <v>35</v>
@@ -3194,81 +3209,81 @@
         <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="E5" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="F5" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="G5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H5" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="I5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J5" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="K5" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="L5" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="M5" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="N5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B6" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C6" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D6" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="E6" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="F6" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="G6" t="s">
         <v>41</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="I6" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="J6" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="L6" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="M6" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="N6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O6" t="s">
         <v>27</v>
@@ -3345,34 +3360,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="E2" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="F2" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="K2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="L2" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="M2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -3383,46 +3398,46 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C3" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D3" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="E3" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="L3" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="N3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -3436,31 +3451,31 @@
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="E4" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="F4" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="I4" t="s">
         <v>33</v>
       </c>
       <c r="J4" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="L4" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="M4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N4" t="s">
         <v>36</v>
@@ -3480,34 +3495,34 @@
         <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="E5" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="F5" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="G5" t="s">
         <v>41</v>
       </c>
       <c r="H5" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="I5" t="s">
         <v>43</v>
       </c>
       <c r="J5" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="K5" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="L5" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="M5" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="N5" t="s">
         <v>26</v>
@@ -3527,81 +3542,81 @@
         <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="E6" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="F6" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="G6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H6" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="I6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J6" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="K6" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="L6" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="M6" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="N6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="E7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="F7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="G7" t="s">
         <v>41</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="I7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="J7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="L7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="M7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="N7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O7" t="s">
         <v>27</v>
@@ -3678,34 +3693,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="E2" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="F2" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="K2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="L2" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="M2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -3716,46 +3731,46 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C3" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D3" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="E3" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="F3" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="L3" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="M3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -3769,31 +3784,31 @@
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="E4" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="F4" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="I4" t="s">
         <v>33</v>
       </c>
       <c r="J4" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="L4" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="M4" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="N4" t="s">
         <v>36</v>
@@ -3813,31 +3828,31 @@
         <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="E5" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="F5" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="G5" t="s">
         <v>41</v>
       </c>
       <c r="H5" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="I5" t="s">
         <v>43</v>
       </c>
       <c r="J5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K5" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="L5" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="M5" t="s">
         <v>35</v>
@@ -3860,81 +3875,81 @@
         <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="E6" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="F6" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="G6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H6" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="I6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J6" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="K6" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="L6" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="M6" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="N6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="E7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="F7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="G7" t="s">
         <v>41</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="I7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="J7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="L7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="M7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="N7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O7" t="s">
         <v>27</v>
@@ -4011,34 +4026,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="E2" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="F2" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="K2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="L2" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="M2" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -4049,46 +4064,46 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C3" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D3" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="E3" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="L3" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="N3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -4102,31 +4117,31 @@
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="E4" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="F4" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="I4" t="s">
         <v>33</v>
       </c>
       <c r="J4" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="L4" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="M4" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="N4" t="s">
         <v>36</v>
@@ -4146,34 +4161,34 @@
         <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="E5" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="F5" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="G5" t="s">
         <v>41</v>
       </c>
       <c r="H5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="I5" t="s">
         <v>43</v>
       </c>
       <c r="J5" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="K5" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="L5" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="M5" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="N5" t="s">
         <v>26</v>
@@ -4193,81 +4208,81 @@
         <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="E6" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="F6" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="G6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H6" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="I6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J6" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="K6" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="L6" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="M6" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="N6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="E7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="F7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="G7" t="s">
         <v>41</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="I7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="J7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="L7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="M7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="N7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O7" t="s">
         <v>27</v>
@@ -4344,34 +4359,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="E2" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="F2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>231</v>
+        <v>391</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="K2" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="L2" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="M2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -4391,13 +4406,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="E3" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="F3" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -4409,13 +4424,13 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="L3" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="M3" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="N3" t="s">
         <v>36</v>
@@ -4435,34 +4450,34 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="E4" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="F4" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="G4" t="s">
         <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="I4" t="s">
         <v>43</v>
       </c>
       <c r="J4" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="K4" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="L4" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="M4" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
@@ -4482,37 +4497,37 @@
         <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="E5" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="F5" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="G5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H5" t="s">
         <v>22</v>
       </c>
       <c r="I5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J5" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="L5" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="M5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -4586,13 +4601,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -4604,16 +4619,16 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -4633,13 +4648,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -4651,13 +4666,13 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N3" t="s">
         <v>36</v>
@@ -4677,34 +4692,34 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
         <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="I4" t="s">
         <v>43</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
@@ -4724,37 +4739,37 @@
         <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="G5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H5" t="s">
         <v>22</v>
       </c>
       <c r="I5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J5" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M5" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="N5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -4828,34 +4843,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -4875,13 +4890,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -4893,10 +4908,10 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M3" t="s">
         <v>20</v>
@@ -4919,34 +4934,34 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
         <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="I4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M4" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
@@ -4966,37 +4981,37 @@
         <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="G5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H5" t="s">
         <v>22</v>
       </c>
       <c r="I5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J5" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="L5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="M5" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="N5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -5070,34 +5085,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="K2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="L2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="M2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -5117,13 +5132,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -5135,13 +5150,13 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="L3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="N3" t="s">
         <v>36</v>
@@ -5161,31 +5176,31 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E4" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G4" t="s">
         <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="I4" t="s">
         <v>43</v>
       </c>
       <c r="J4" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="M4" t="s">
         <v>20</v>
@@ -5208,37 +5223,37 @@
         <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="G5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H5" t="s">
         <v>22</v>
       </c>
       <c r="I5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J5" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="L5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M5" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="N5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -5312,13 +5327,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -5330,13 +5345,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="M2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -5356,13 +5371,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -5374,13 +5389,13 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="L3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="N3" t="s">
         <v>36</v>
@@ -5400,13 +5415,13 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E4" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="G4" t="s">
         <v>41</v>
@@ -5418,13 +5433,13 @@
         <v>41</v>
       </c>
       <c r="J4" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="L4" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="M4" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
@@ -5444,34 +5459,34 @@
         <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E5" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="G5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H5" t="s">
         <v>22</v>
       </c>
       <c r="I5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J5" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="L5" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="N5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -5545,34 +5560,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="K2" t="s">
         <v>35</v>
       </c>
       <c r="L2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="M2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -5583,49 +5598,49 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C3" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F3" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="K3" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="L3" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="M3" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="N3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -5639,31 +5654,31 @@
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E4" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F4" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="I4" t="s">
         <v>33</v>
       </c>
       <c r="J4" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="L4" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="M4" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="N4" t="s">
         <v>36</v>
@@ -5683,34 +5698,34 @@
         <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E5" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F5" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G5" t="s">
         <v>41</v>
       </c>
       <c r="H5" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I5" t="s">
         <v>43</v>
       </c>
       <c r="J5" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="K5" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="L5" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="M5" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="N5" t="s">
         <v>26</v>
@@ -5730,40 +5745,40 @@
         <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E6" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F6" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H6" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="I6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J6" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K6" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="L6" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="M6" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="N6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -5837,34 +5852,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="K2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="L2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="M2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -5884,31 +5899,31 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E3" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F3" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="I3" t="s">
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="L3" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="M3" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="N3" t="s">
         <v>36</v>
@@ -5928,34 +5943,34 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E4" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F4" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G4" t="s">
         <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="I4" t="s">
         <v>43</v>
       </c>
       <c r="J4" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="K4" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="L4" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="M4" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
@@ -5975,81 +5990,81 @@
         <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E5" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F5" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H5" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="I5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J5" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K5" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="L5" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="M5" t="s">
         <v>44</v>
       </c>
       <c r="N5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B6" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C6" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D6" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E6" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F6" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G6" t="s">
         <v>41</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="I6" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="J6" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="L6" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="M6" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="N6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O6" t="s">
         <v>27</v>
@@ -6126,34 +6141,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="K2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="L2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="M2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -6173,31 +6188,31 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E3" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F3" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="I3" t="s">
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="L3" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="M3" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="N3" t="s">
         <v>36</v>
@@ -6217,34 +6232,34 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E4" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F4" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G4" t="s">
         <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="I4" t="s">
         <v>43</v>
       </c>
       <c r="J4" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="K4" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L4" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="M4" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
@@ -6264,81 +6279,81 @@
         <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E5" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F5" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H5" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="I5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K5" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="L5" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="M5" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="N5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B6" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C6" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D6" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E6" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F6" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G6" t="s">
         <v>41</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="I6" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="J6" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="L6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M6" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="N6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O6" t="s">
         <v>27</v>
@@ -6415,34 +6430,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="K2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="L2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="M2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -6453,46 +6468,46 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C3" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D3" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E3" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F3" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L3" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="M3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="N3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -6506,31 +6521,31 @@
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E4" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F4" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="I4" t="s">
         <v>33</v>
       </c>
       <c r="J4" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="L4" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="M4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N4" t="s">
         <v>36</v>
@@ -6550,34 +6565,34 @@
         <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E5" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F5" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G5" t="s">
         <v>41</v>
       </c>
       <c r="H5" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="I5" t="s">
         <v>43</v>
       </c>
       <c r="J5" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="K5" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="L5" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="M5" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="N5" t="s">
         <v>26</v>
@@ -6597,81 +6612,81 @@
         <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E6" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F6" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H6" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="I6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J6" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="K6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L6" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="M6" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="N6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="G7" t="s">
         <v>41</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="I7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="J7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="L7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="M7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O7" t="s">
         <v>27</v>

--- a/secteur-action-publique/transition-ecologique/regions/barometre-resultats-transition-ecologique-regions-synthese.xlsx
+++ b/secteur-action-publique/transition-ecologique/regions/barometre-resultats-transition-ecologique-regions-synthese.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="397">
   <si>
     <t>mesure</t>
   </si>
@@ -96,10 +96,10 @@
     <t>4.0</t>
   </si>
   <si>
-    <t>2021-09-30</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>0.0</t>
   </si>
   <si>
     <t>2017-12-31</t>
@@ -126,10 +126,10 @@
     <t>nb-primes-conversion</t>
   </si>
   <si>
-    <t>2425.0</t>
-  </si>
-  <si>
-    <t>2021-12-31</t>
+    <t>2591.0</t>
+  </si>
+  <si>
+    <t>2022-01-31</t>
   </si>
   <si>
     <t>2018-01-31</t>
@@ -138,1102 +138,1087 @@
     <t>8362.0</t>
   </si>
   <si>
+    <t>31.0</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>primes et bonus</t>
+  </si>
+  <si>
+    <t>Nombre de bornes de recharge pour véhicules électriques déployées</t>
+  </si>
+  <si>
+    <t>nb-points-recharge</t>
+  </si>
+  <si>
+    <t>33.0</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>26.0</t>
+  </si>
+  <si>
+    <t>371.0</t>
+  </si>
+  <si>
+    <t>557.0</t>
+  </si>
+  <si>
+    <t>bornes de recharge</t>
+  </si>
+  <si>
+    <t>Mettre en œuvre la sortie du plastique à usage unique et lutter contre le gaspillage</t>
+  </si>
+  <si>
+    <t>Nombre de Français qui peuvent mettre tous les emballages dans le bac jaune</t>
+  </si>
+  <si>
+    <t>nb-francais-emballages-bac-jaune</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>400000.0</t>
+  </si>
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>habitants</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>14.0</t>
+  </si>
+  <si>
+    <t>71.0</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>2620.0</t>
+  </si>
+  <si>
+    <t>7900.0</t>
+  </si>
+  <si>
+    <t>73.0</t>
+  </si>
+  <si>
+    <t>72.0</t>
+  </si>
+  <si>
+    <t>7200.0</t>
+  </si>
+  <si>
+    <t>527.0</t>
+  </si>
+  <si>
+    <t>380000.0</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>Guyane</t>
+  </si>
+  <si>
+    <t>76.0</t>
+  </si>
+  <si>
+    <t>50.0</t>
+  </si>
+  <si>
+    <t>192.0</t>
+  </si>
+  <si>
+    <t>69.0</t>
+  </si>
+  <si>
+    <t>100.0</t>
+  </si>
+  <si>
+    <t>307.0</t>
+  </si>
+  <si>
+    <t>6542.0</t>
+  </si>
+  <si>
     <t>29.0</t>
   </si>
   <si>
-    <t>2022-06-30</t>
-  </si>
-  <si>
-    <t>primes et bonus</t>
-  </si>
-  <si>
-    <t>Nombre de bornes de recharge pour véhicules électriques déployées</t>
-  </si>
-  <si>
-    <t>nb-points-recharge</t>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>27.0</t>
+  </si>
+  <si>
+    <t>1350.0</t>
+  </si>
+  <si>
+    <t>436.0</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>260000.0</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>La Réunion</t>
+  </si>
+  <si>
+    <t>392.0</t>
+  </si>
+  <si>
+    <t>332.0</t>
+  </si>
+  <si>
+    <t>60.0</t>
+  </si>
+  <si>
+    <t>18.0</t>
+  </si>
+  <si>
+    <t>410.0</t>
+  </si>
+  <si>
+    <t>77.0</t>
+  </si>
+  <si>
+    <t>9150.0</t>
+  </si>
+  <si>
+    <t>19099.0</t>
+  </si>
+  <si>
+    <t>48.0</t>
+  </si>
+  <si>
+    <t>124.0</t>
+  </si>
+  <si>
+    <t>67.0</t>
+  </si>
+  <si>
+    <t>57.0</t>
+  </si>
+  <si>
+    <t>85.0</t>
+  </si>
+  <si>
+    <t>1273.0</t>
+  </si>
+  <si>
+    <t>850000.0</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>23.0</t>
+  </si>
+  <si>
+    <t>58.0</t>
+  </si>
+  <si>
+    <t>40.0</t>
+  </si>
+  <si>
+    <t>6428.0</t>
+  </si>
+  <si>
+    <t>2021-11-30</t>
+  </si>
+  <si>
+    <t>429.0</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Île-de-France</t>
+  </si>
+  <si>
+    <t>4640.0</t>
+  </si>
+  <si>
+    <t>3651.0</t>
+  </si>
+  <si>
+    <t>989.0</t>
+  </si>
+  <si>
+    <t>5104.0</t>
+  </si>
+  <si>
+    <t>68.0</t>
+  </si>
+  <si>
+    <t>Instaurer des zones à faibles émissions</t>
+  </si>
+  <si>
+    <t>Nombre d'habitants vivant à l'intérieur d'une zone à faibles émissions</t>
+  </si>
+  <si>
+    <t>nb-habitants-zfe</t>
+  </si>
+  <si>
+    <t>4754793.0</t>
+  </si>
+  <si>
+    <t>2022-02-28</t>
+  </si>
+  <si>
+    <t>2187526.0</t>
+  </si>
+  <si>
+    <t>2567267.0</t>
+  </si>
+  <si>
+    <t>117.0</t>
+  </si>
+  <si>
+    <t>5279661.0</t>
+  </si>
+  <si>
+    <t>83.0</t>
+  </si>
+  <si>
+    <t>186833.0</t>
+  </si>
+  <si>
+    <t>274237.0</t>
+  </si>
+  <si>
+    <t>10113.0</t>
+  </si>
+  <si>
+    <t>3936.0</t>
+  </si>
+  <si>
+    <t>6177.0</t>
+  </si>
+  <si>
+    <t>157.0</t>
+  </si>
+  <si>
+    <t>18282.0</t>
+  </si>
+  <si>
+    <t>43.0</t>
+  </si>
+  <si>
+    <t>9850000.0</t>
+  </si>
+  <si>
+    <t>3270000.0</t>
+  </si>
+  <si>
+    <t>6580000.0</t>
+  </si>
+  <si>
+    <t>201.0</t>
+  </si>
+  <si>
+    <t>12090000.0</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Centre-Val de Loire</t>
+  </si>
+  <si>
+    <t>2740.0</t>
+  </si>
+  <si>
+    <t>1816.0</t>
+  </si>
+  <si>
+    <t>924.0</t>
+  </si>
+  <si>
+    <t>51.0</t>
+  </si>
+  <si>
+    <t>2704.0</t>
+  </si>
+  <si>
+    <t>53578.0</t>
+  </si>
+  <si>
+    <t>57009.0</t>
+  </si>
+  <si>
+    <t>94.0</t>
+  </si>
+  <si>
+    <t>2345.0</t>
+  </si>
+  <si>
+    <t>1493.0</t>
+  </si>
+  <si>
+    <t>852.0</t>
+  </si>
+  <si>
+    <t>3801.0</t>
+  </si>
+  <si>
+    <t>37.0</t>
+  </si>
+  <si>
+    <t>1000000.0</t>
+  </si>
+  <si>
+    <t>120000.0</t>
+  </si>
+  <si>
+    <t>880000.0</t>
+  </si>
+  <si>
+    <t>733.0</t>
+  </si>
+  <si>
+    <t>2560000.0</t>
+  </si>
+  <si>
+    <t>36.0</t>
+  </si>
+  <si>
+    <t>Plan de soutien aux petites lignes ferroviaires</t>
+  </si>
+  <si>
+    <t>Nombre de kilomètres de lignes rénovées</t>
+  </si>
+  <si>
+    <t>nb-km-lignes-regenerees</t>
+  </si>
+  <si>
+    <t>2017-01-31</t>
+  </si>
+  <si>
+    <t>93.0</t>
+  </si>
+  <si>
+    <t>39.0</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Bourgogne-Franche-Comté</t>
+  </si>
+  <si>
+    <t>3593.0</t>
+  </si>
+  <si>
+    <t>2992.0</t>
+  </si>
+  <si>
+    <t>601.0</t>
+  </si>
+  <si>
+    <t>20.0</t>
+  </si>
+  <si>
+    <t>3577.0</t>
+  </si>
+  <si>
+    <t>56704.0</t>
+  </si>
+  <si>
+    <t>61987.0</t>
+  </si>
+  <si>
+    <t>91.0</t>
+  </si>
+  <si>
+    <t>2330.0</t>
+  </si>
+  <si>
+    <t>1041.0</t>
+  </si>
+  <si>
+    <t>1289.0</t>
+  </si>
+  <si>
+    <t>4132.0</t>
+  </si>
+  <si>
+    <t>42.0</t>
+  </si>
+  <si>
+    <t>1570000.0</t>
+  </si>
+  <si>
+    <t>1030000.0</t>
+  </si>
+  <si>
+    <t>540000.0</t>
+  </si>
+  <si>
+    <t>52.0</t>
+  </si>
+  <si>
+    <t>2820000.0</t>
+  </si>
+  <si>
+    <t>30.0</t>
+  </si>
+  <si>
+    <t>65.0</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Normandie</t>
+  </si>
+  <si>
+    <t>3381.0</t>
+  </si>
+  <si>
+    <t>2579.0</t>
+  </si>
+  <si>
+    <t>802.0</t>
+  </si>
+  <si>
+    <t>3405.0</t>
+  </si>
+  <si>
+    <t>97.0</t>
+  </si>
+  <si>
+    <t>33467.0</t>
+  </si>
+  <si>
+    <t>228894.0</t>
+  </si>
+  <si>
+    <t>15.0</t>
+  </si>
+  <si>
+    <t>77218.0</t>
+  </si>
+  <si>
+    <t>73553.0</t>
+  </si>
+  <si>
+    <t>2868.0</t>
+  </si>
+  <si>
+    <t>2166.0</t>
+  </si>
+  <si>
+    <t>702.0</t>
   </si>
   <si>
     <t>32.0</t>
   </si>
   <si>
-    <t>2021-11-30</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>2019-09-30</t>
-  </si>
-  <si>
-    <t>25.0</t>
-  </si>
-  <si>
-    <t>357.0</t>
-  </si>
-  <si>
-    <t>557.0</t>
-  </si>
-  <si>
-    <t>bornes de recharge</t>
-  </si>
-  <si>
-    <t>Mettre en œuvre la sortie du plastique à usage unique et lutter contre le gaspillage</t>
-  </si>
-  <si>
-    <t>Nombre de Français qui peuvent mettre tous les emballages dans le bac jaune</t>
-  </si>
-  <si>
-    <t>nb-francais-emballages-bac-jaune</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>2021-06-30</t>
-  </si>
-  <si>
-    <t>2017-06-30</t>
-  </si>
-  <si>
-    <t>400000.0</t>
-  </si>
-  <si>
-    <t>2022-12-31</t>
-  </si>
-  <si>
-    <t>habitants</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>Martinique</t>
-  </si>
-  <si>
-    <t>8.0</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>14.0</t>
-  </si>
-  <si>
-    <t>71.0</t>
-  </si>
-  <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>2585.0</t>
-  </si>
-  <si>
-    <t>7900.0</t>
-  </si>
-  <si>
-    <t>33.0</t>
+    <t>4904.0</t>
+  </si>
+  <si>
+    <t>2710000.0</t>
+  </si>
+  <si>
+    <t>1310000.0</t>
+  </si>
+  <si>
+    <t>1400000.0</t>
+  </si>
+  <si>
+    <t>107.0</t>
+  </si>
+  <si>
+    <t>3340000.0</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Hauts-de-France</t>
+  </si>
+  <si>
+    <t>4615.0</t>
+  </si>
+  <si>
+    <t>3515.0</t>
+  </si>
+  <si>
+    <t>1100.0</t>
+  </si>
+  <si>
+    <t>4778.0</t>
+  </si>
+  <si>
+    <t>87.0</t>
+  </si>
+  <si>
+    <t>122997.0</t>
+  </si>
+  <si>
+    <t>132986.0</t>
+  </si>
+  <si>
+    <t>92.0</t>
+  </si>
+  <si>
+    <t>4590.0</t>
+  </si>
+  <si>
+    <t>2335.0</t>
+  </si>
+  <si>
+    <t>2255.0</t>
+  </si>
+  <si>
+    <t>8866.0</t>
+  </si>
+  <si>
+    <t>35.0</t>
+  </si>
+  <si>
+    <t>2400000.0</t>
+  </si>
+  <si>
+    <t>940000.0</t>
+  </si>
+  <si>
+    <t>1460000.0</t>
+  </si>
+  <si>
+    <t>155.0</t>
+  </si>
+  <si>
+    <t>6010000.0</t>
+  </si>
+  <si>
+    <t>140.0</t>
+  </si>
+  <si>
+    <t>170.0</t>
+  </si>
+  <si>
+    <t>82.0</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Grand Est</t>
+  </si>
+  <si>
+    <t>6739.0</t>
+  </si>
+  <si>
+    <t>5340.0</t>
+  </si>
+  <si>
+    <t>1399.0</t>
+  </si>
+  <si>
+    <t>6856.0</t>
+  </si>
+  <si>
+    <t>26000.0</t>
+  </si>
+  <si>
+    <t>228826.0</t>
+  </si>
+  <si>
+    <t>11.0</t>
+  </si>
+  <si>
+    <t>109671.0</t>
+  </si>
+  <si>
+    <t>122915.0</t>
+  </si>
+  <si>
+    <t>89.0</t>
+  </si>
+  <si>
+    <t>4337.0</t>
+  </si>
+  <si>
+    <t>1946.0</t>
+  </si>
+  <si>
+    <t>2391.0</t>
+  </si>
+  <si>
+    <t>123.0</t>
+  </si>
+  <si>
+    <t>8194.0</t>
+  </si>
+  <si>
+    <t>38.0</t>
+  </si>
+  <si>
+    <t>2350000.0</t>
+  </si>
+  <si>
+    <t>830000.0</t>
+  </si>
+  <si>
+    <t>1520000.0</t>
+  </si>
+  <si>
+    <t>183.0</t>
+  </si>
+  <si>
+    <t>5550000.0</t>
+  </si>
+  <si>
+    <t>138.0</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Pays de la Loire</t>
+  </si>
+  <si>
+    <t>4770.0</t>
+  </si>
+  <si>
+    <t>3359.0</t>
+  </si>
+  <si>
+    <t>1411.0</t>
+  </si>
+  <si>
+    <t>4840.0</t>
+  </si>
+  <si>
+    <t>95.0</t>
+  </si>
+  <si>
+    <t>95269.0</t>
+  </si>
+  <si>
+    <t>85389.0</t>
+  </si>
+  <si>
+    <t>2369.0</t>
+  </si>
+  <si>
+    <t>1461.0</t>
+  </si>
+  <si>
+    <t>908.0</t>
+  </si>
+  <si>
+    <t>62.0</t>
+  </si>
+  <si>
+    <t>5693.0</t>
+  </si>
+  <si>
+    <t>21.0</t>
+  </si>
+  <si>
+    <t>3700000.0</t>
+  </si>
+  <si>
+    <t>1270000.0</t>
+  </si>
+  <si>
+    <t>2430000.0</t>
+  </si>
+  <si>
+    <t>191.0</t>
+  </si>
+  <si>
+    <t>3730000.0</t>
+  </si>
+  <si>
+    <t>99.0</t>
+  </si>
+  <si>
+    <t>139.0</t>
+  </si>
+  <si>
+    <t>144.0</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>Bretagne</t>
+  </si>
+  <si>
+    <t>4252.0</t>
+  </si>
+  <si>
+    <t>2843.0</t>
+  </si>
+  <si>
+    <t>1409.0</t>
+  </si>
+  <si>
+    <t>4084.0</t>
+  </si>
+  <si>
+    <t>86036.0</t>
+  </si>
+  <si>
+    <t>75004.0</t>
+  </si>
+  <si>
+    <t>2697.0</t>
+  </si>
+  <si>
+    <t>1736.0</t>
+  </si>
+  <si>
+    <t>961.0</t>
+  </si>
+  <si>
+    <t>55.0</t>
+  </si>
+  <si>
+    <t>5000.0</t>
+  </si>
+  <si>
+    <t>2550000.0</t>
+  </si>
+  <si>
+    <t>1240000.0</t>
+  </si>
+  <si>
+    <t>106.0</t>
+  </si>
+  <si>
+    <t>3290000.0</t>
   </si>
   <si>
     <t>64.0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>63.0</t>
-  </si>
-  <si>
-    <t>6300.0</t>
-  </si>
-  <si>
-    <t>527.0</t>
-  </si>
-  <si>
-    <t>12.0</t>
-  </si>
-  <si>
-    <t>380000.0</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>Guyane</t>
-  </si>
-  <si>
-    <t>76.0</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>50.0</t>
-  </si>
-  <si>
-    <t>192.0</t>
-  </si>
-  <si>
-    <t>69.0</t>
-  </si>
-  <si>
-    <t>100.0</t>
-  </si>
-  <si>
-    <t>289.0</t>
-  </si>
-  <si>
-    <t>6542.0</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>2020-06-30</t>
-  </si>
-  <si>
-    <t>31.0</t>
-  </si>
-  <si>
-    <t>1550.0</t>
-  </si>
-  <si>
-    <t>436.0</t>
-  </si>
-  <si>
-    <t>7.0</t>
-  </si>
-  <si>
-    <t>260000.0</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>La Réunion</t>
-  </si>
-  <si>
-    <t>388.0</t>
-  </si>
-  <si>
-    <t>332</t>
-  </si>
-  <si>
-    <t>56.0</t>
-  </si>
-  <si>
-    <t>17.0</t>
-  </si>
-  <si>
-    <t>410.0</t>
-  </si>
-  <si>
-    <t>72.0</t>
-  </si>
-  <si>
-    <t>8812.0</t>
-  </si>
-  <si>
-    <t>19099.0</t>
-  </si>
-  <si>
-    <t>46.0</t>
-  </si>
-  <si>
-    <t>113.0</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>1273.0</t>
-  </si>
-  <si>
-    <t>850000.0</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>Mayotte</t>
-  </si>
-  <si>
-    <t>58.0</t>
-  </si>
-  <si>
-    <t>21.0</t>
-  </si>
-  <si>
-    <t>23.0</t>
-  </si>
-  <si>
-    <t>6428.0</t>
-  </si>
-  <si>
-    <t>429.0</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Île-de-France</t>
-  </si>
-  <si>
-    <t>4695.0</t>
-  </si>
-  <si>
-    <t>3651.0</t>
-  </si>
-  <si>
-    <t>1044.0</t>
-  </si>
-  <si>
-    <t>5104.0</t>
-  </si>
-  <si>
-    <t>Instaurer des zones à faibles émissions</t>
-  </si>
-  <si>
-    <t>Nombre d'habitants vivant à l'intérieur d'une zone à faibles émissions</t>
-  </si>
-  <si>
-    <t>nb-habitants-zfe</t>
-  </si>
-  <si>
-    <t>3872191.0</t>
-  </si>
-  <si>
-    <t>2187526.0</t>
-  </si>
-  <si>
-    <t>1684665.0</t>
-  </si>
-  <si>
-    <t>77.0</t>
-  </si>
-  <si>
-    <t>5279661.0</t>
+    <t>111.0</t>
+  </si>
+  <si>
+    <t>80.0</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>Nouvelle-Aquitaine</t>
+  </si>
+  <si>
+    <t>7190.0</t>
+  </si>
+  <si>
+    <t>5548.0</t>
+  </si>
+  <si>
+    <t>1642.0</t>
+  </si>
+  <si>
+    <t>7424.0</t>
+  </si>
+  <si>
+    <t>88.0</t>
+  </si>
+  <si>
+    <t>143764.0</t>
+  </si>
+  <si>
+    <t>134372.0</t>
+  </si>
+  <si>
+    <t>5453.0</t>
+  </si>
+  <si>
+    <t>3084.0</t>
+  </si>
+  <si>
+    <t>8958.0</t>
+  </si>
+  <si>
+    <t>2050000.0</t>
+  </si>
+  <si>
+    <t>1650000.0</t>
+  </si>
+  <si>
+    <t>5900000.0</t>
+  </si>
+  <si>
+    <t>180.0</t>
+  </si>
+  <si>
+    <t>232.0</t>
+  </si>
+  <si>
+    <t>78.0</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>Occitanie</t>
+  </si>
+  <si>
+    <t>5248.0</t>
+  </si>
+  <si>
+    <t>3826.0</t>
+  </si>
+  <si>
+    <t>1422.0</t>
+  </si>
+  <si>
+    <t>5378.0</t>
+  </si>
+  <si>
+    <t>430000.0</t>
+  </si>
+  <si>
+    <t>707740.0</t>
+  </si>
+  <si>
+    <t>61.0</t>
+  </si>
+  <si>
+    <t>153659.0</t>
+  </si>
+  <si>
+    <t>133170.0</t>
+  </si>
+  <si>
+    <t>5141.0</t>
+  </si>
+  <si>
+    <t>3374.0</t>
+  </si>
+  <si>
+    <t>1767.0</t>
+  </si>
+  <si>
+    <t>8878.0</t>
+  </si>
+  <si>
+    <t>3430000.0</t>
+  </si>
+  <si>
+    <t>1560000.0</t>
+  </si>
+  <si>
+    <t>1870000.0</t>
+  </si>
+  <si>
+    <t>120.0</t>
+  </si>
+  <si>
+    <t>5790000.0</t>
+  </si>
+  <si>
+    <t>44.0</t>
+  </si>
+  <si>
+    <t>145.0</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>Auvergne-Rhône-Alpes</t>
+  </si>
+  <si>
+    <t>5004.0</t>
+  </si>
+  <si>
+    <t>3809.0</t>
+  </si>
+  <si>
+    <t>1195.0</t>
+  </si>
+  <si>
+    <t>5103.0</t>
+  </si>
+  <si>
+    <t>1337272.0</t>
+  </si>
+  <si>
+    <t>1030199.0</t>
+  </si>
+  <si>
+    <t>176440.0</t>
+  </si>
+  <si>
+    <t>180043.0</t>
+  </si>
+  <si>
+    <t>98.0</t>
+  </si>
+  <si>
+    <t>5937.0</t>
+  </si>
+  <si>
+    <t>2853.0</t>
+  </si>
+  <si>
+    <t>12003.0</t>
+  </si>
+  <si>
+    <t>4550000.0</t>
+  </si>
+  <si>
+    <t>790000.0</t>
+  </si>
+  <si>
+    <t>3760000.0</t>
+  </si>
+  <si>
+    <t>476.0</t>
+  </si>
+  <si>
+    <t>7870000.0</t>
+  </si>
+  <si>
+    <t>53.0</t>
+  </si>
+  <si>
+    <t>189.0</t>
+  </si>
+  <si>
+    <t>74.0</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>Provence-Alpes-Côte d'Azur</t>
+  </si>
+  <si>
+    <t>1968.0</t>
+  </si>
+  <si>
+    <t>1322.0</t>
+  </si>
+  <si>
+    <t>646.0</t>
+  </si>
+  <si>
+    <t>49.0</t>
+  </si>
+  <si>
+    <t>1906.0</t>
+  </si>
+  <si>
+    <t>36000.0</t>
+  </si>
+  <si>
+    <t>1524680.0</t>
+  </si>
+  <si>
+    <t>115222.0</t>
+  </si>
+  <si>
+    <t>113234.0</t>
+  </si>
+  <si>
+    <t>4923.0</t>
+  </si>
+  <si>
+    <t>1966.0</t>
+  </si>
+  <si>
+    <t>2957.0</t>
+  </si>
+  <si>
+    <t>150.0</t>
+  </si>
+  <si>
+    <t>7549.0</t>
+  </si>
+  <si>
+    <t>3140000.0</t>
+  </si>
+  <si>
+    <t>1140000.0</t>
+  </si>
+  <si>
+    <t>2000000.0</t>
+  </si>
+  <si>
+    <t>175.0</t>
+  </si>
+  <si>
+    <t>5010000.0</t>
+  </si>
+  <si>
+    <t>81.0</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>Corse</t>
   </si>
   <si>
     <t>54.0</t>
   </si>
   <si>
-    <t>179844.0</t>
-  </si>
-  <si>
-    <t>274237.0</t>
-  </si>
-  <si>
-    <t>66.0</t>
-  </si>
-  <si>
-    <t>9297.0</t>
-  </si>
-  <si>
-    <t>3936.0</t>
-  </si>
-  <si>
-    <t>5361.0</t>
-  </si>
-  <si>
-    <t>136.0</t>
-  </si>
-  <si>
-    <t>18282.0</t>
-  </si>
-  <si>
-    <t>37.0</t>
-  </si>
-  <si>
-    <t>8970000.0</t>
-  </si>
-  <si>
-    <t>3270000.0</t>
-  </si>
-  <si>
-    <t>5700000.0</t>
-  </si>
-  <si>
-    <t>174.0</t>
-  </si>
-  <si>
-    <t>12090000.0</t>
-  </si>
-  <si>
-    <t>65.0</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>Centre-Val de Loire</t>
-  </si>
-  <si>
-    <t>2779.0</t>
-  </si>
-  <si>
-    <t>1816.0</t>
-  </si>
-  <si>
-    <t>963.0</t>
-  </si>
-  <si>
-    <t>53.0</t>
-  </si>
-  <si>
-    <t>2704.0</t>
-  </si>
-  <si>
-    <t>52424.0</t>
-  </si>
-  <si>
-    <t>57009.0</t>
-  </si>
-  <si>
-    <t>92.0</t>
-  </si>
-  <si>
-    <t>2138.0</t>
-  </si>
-  <si>
-    <t>1493.0</t>
-  </si>
-  <si>
-    <t>645.0</t>
-  </si>
-  <si>
-    <t>43.0</t>
-  </si>
-  <si>
-    <t>3801.0</t>
-  </si>
-  <si>
-    <t>28.0</t>
-  </si>
-  <si>
-    <t>730000.0</t>
-  </si>
-  <si>
-    <t>120000.0</t>
-  </si>
-  <si>
-    <t>610000.0</t>
-  </si>
-  <si>
-    <t>508.0</t>
-  </si>
-  <si>
-    <t>2560000.0</t>
-  </si>
-  <si>
-    <t>Plan de soutien aux petites lignes ferroviaires</t>
-  </si>
-  <si>
-    <t>Nombre de kilomètres de lignes rénovées</t>
-  </si>
-  <si>
-    <t>nb-km-lignes-regenerees</t>
-  </si>
-  <si>
-    <t>36.0</t>
-  </si>
-  <si>
-    <t>2017-01-31</t>
-  </si>
-  <si>
-    <t>93.0</t>
-  </si>
-  <si>
-    <t>39.0</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>Bourgogne-Franche-Comté</t>
-  </si>
-  <si>
-    <t>3535.0</t>
-  </si>
-  <si>
-    <t>2992.0</t>
-  </si>
-  <si>
-    <t>543.0</t>
-  </si>
-  <si>
-    <t>18.0</t>
-  </si>
-  <si>
-    <t>3577.0</t>
-  </si>
-  <si>
-    <t>55511.0</t>
-  </si>
-  <si>
-    <t>61987.0</t>
-  </si>
-  <si>
-    <t>90.0</t>
-  </si>
-  <si>
-    <t>2096.0</t>
-  </si>
-  <si>
-    <t>1041.0</t>
-  </si>
-  <si>
-    <t>1055.0</t>
-  </si>
-  <si>
-    <t>101.0</t>
-  </si>
-  <si>
-    <t>4132.0</t>
-  </si>
-  <si>
-    <t>34.0</t>
-  </si>
-  <si>
-    <t>1430000.0</t>
-  </si>
-  <si>
-    <t>1030000.0</t>
-  </si>
-  <si>
-    <t>2820000.0</t>
-  </si>
-  <si>
-    <t>22.0</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>Normandie</t>
-  </si>
-  <si>
-    <t>3267.0</t>
-  </si>
-  <si>
-    <t>2579.0</t>
-  </si>
-  <si>
-    <t>688.0</t>
-  </si>
-  <si>
-    <t>27.0</t>
-  </si>
-  <si>
-    <t>3405.0</t>
-  </si>
-  <si>
-    <t>83.0</t>
-  </si>
-  <si>
-    <t>33467.0</t>
-  </si>
-  <si>
-    <t>228894.0</t>
-  </si>
-  <si>
-    <t>15.0</t>
-  </si>
-  <si>
-    <t>75623.0</t>
-  </si>
-  <si>
-    <t>73553.0</t>
-  </si>
-  <si>
-    <t>2666.0</t>
-  </si>
-  <si>
-    <t>2166.0</t>
-  </si>
-  <si>
-    <t>500.0</t>
-  </si>
-  <si>
-    <t>4904.0</t>
-  </si>
-  <si>
-    <t>2300000.0</t>
-  </si>
-  <si>
-    <t>1310000.0</t>
-  </si>
-  <si>
-    <t>990000.0</t>
-  </si>
-  <si>
-    <t>3340000.0</t>
-  </si>
-  <si>
-    <t>49.0</t>
-  </si>
-  <si>
-    <t>30.0</t>
-  </si>
-  <si>
-    <t>42.0</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>Hauts-de-France</t>
-  </si>
-  <si>
-    <t>4549.0</t>
-  </si>
-  <si>
-    <t>3515.0</t>
-  </si>
-  <si>
-    <t>1034.0</t>
-  </si>
-  <si>
-    <t>4778.0</t>
-  </si>
-  <si>
-    <t>82.0</t>
-  </si>
-  <si>
-    <t>120555.0</t>
-  </si>
-  <si>
-    <t>132986.0</t>
-  </si>
-  <si>
-    <t>91.0</t>
-  </si>
-  <si>
-    <t>4187.0</t>
-  </si>
-  <si>
-    <t>2335.0</t>
-  </si>
-  <si>
-    <t>1852.0</t>
-  </si>
-  <si>
-    <t>79.0</t>
-  </si>
-  <si>
-    <t>8866.0</t>
-  </si>
-  <si>
-    <t>1900000.0</t>
-  </si>
-  <si>
-    <t>940000.0</t>
-  </si>
-  <si>
-    <t>960000.0</t>
-  </si>
-  <si>
-    <t>102.0</t>
-  </si>
-  <si>
-    <t>6010000.0</t>
-  </si>
-  <si>
     <t>19.0</t>
   </si>
   <si>
-    <t>140.0</t>
-  </si>
-  <si>
-    <t>170.0</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>Grand Est</t>
-  </si>
-  <si>
-    <t>6658.0</t>
-  </si>
-  <si>
-    <t>5340.0</t>
-  </si>
-  <si>
-    <t>1318.0</t>
-  </si>
-  <si>
-    <t>6856.0</t>
-  </si>
-  <si>
-    <t>87.0</t>
-  </si>
-  <si>
-    <t>26000.0</t>
-  </si>
-  <si>
-    <t>228826.0</t>
-  </si>
-  <si>
-    <t>11.0</t>
-  </si>
-  <si>
-    <t>107052.0</t>
-  </si>
-  <si>
-    <t>122915.0</t>
-  </si>
-  <si>
-    <t>3954.0</t>
-  </si>
-  <si>
-    <t>1946.0</t>
-  </si>
-  <si>
-    <t>2008.0</t>
-  </si>
-  <si>
-    <t>103.0</t>
-  </si>
-  <si>
-    <t>8194.0</t>
-  </si>
-  <si>
-    <t>2290000.0</t>
-  </si>
-  <si>
-    <t>830000.0</t>
-  </si>
-  <si>
-    <t>1460000.0</t>
-  </si>
-  <si>
-    <t>176.0</t>
-  </si>
-  <si>
-    <t>5550000.0</t>
-  </si>
-  <si>
-    <t>138.0</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>Pays de la Loire</t>
-  </si>
-  <si>
-    <t>4701.0</t>
-  </si>
-  <si>
-    <t>3359.0</t>
-  </si>
-  <si>
-    <t>1342.0</t>
-  </si>
-  <si>
-    <t>40.0</t>
-  </si>
-  <si>
-    <t>4840.0</t>
-  </si>
-  <si>
-    <t>93510.0</t>
-  </si>
-  <si>
-    <t>85389.0</t>
-  </si>
-  <si>
-    <t>2345.0</t>
-  </si>
-  <si>
-    <t>1461.0</t>
-  </si>
-  <si>
-    <t>884.0</t>
-  </si>
-  <si>
-    <t>61.0</t>
-  </si>
-  <si>
-    <t>5693.0</t>
-  </si>
-  <si>
-    <t>3460000.0</t>
-  </si>
-  <si>
-    <t>1270000.0</t>
-  </si>
-  <si>
-    <t>2190000.0</t>
-  </si>
-  <si>
-    <t>172.0</t>
-  </si>
-  <si>
-    <t>3730000.0</t>
-  </si>
-  <si>
-    <t>89.0</t>
-  </si>
-  <si>
-    <t>139.0</t>
-  </si>
-  <si>
-    <t>144.0</t>
-  </si>
-  <si>
-    <t>97.0</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>Bretagne</t>
-  </si>
-  <si>
-    <t>4174.0</t>
-  </si>
-  <si>
-    <t>2843.0</t>
-  </si>
-  <si>
-    <t>1331.0</t>
-  </si>
-  <si>
-    <t>47.0</t>
-  </si>
-  <si>
-    <t>4084.0</t>
-  </si>
-  <si>
-    <t>84402.0</t>
-  </si>
-  <si>
-    <t>75004.0</t>
-  </si>
-  <si>
-    <t>2520.0</t>
-  </si>
-  <si>
-    <t>1736.0</t>
-  </si>
-  <si>
-    <t>784.0</t>
-  </si>
-  <si>
-    <t>45.0</t>
-  </si>
-  <si>
-    <t>5000.0</t>
-  </si>
-  <si>
-    <t>24.0</t>
-  </si>
-  <si>
-    <t>2440000.0</t>
-  </si>
-  <si>
-    <t>1240000.0</t>
-  </si>
-  <si>
-    <t>1200000.0</t>
-  </si>
-  <si>
-    <t>3290000.0</t>
-  </si>
-  <si>
-    <t>59.0</t>
-  </si>
-  <si>
-    <t>111.0</t>
-  </si>
-  <si>
-    <t>80.0</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>Nouvelle-Aquitaine</t>
-  </si>
-  <si>
-    <t>7112.0</t>
-  </si>
-  <si>
-    <t>5548.0</t>
-  </si>
-  <si>
-    <t>1564.0</t>
-  </si>
-  <si>
-    <t>7424.0</t>
-  </si>
-  <si>
-    <t>140736.0</t>
-  </si>
-  <si>
-    <t>134372.0</t>
-  </si>
-  <si>
-    <t>4798.0</t>
-  </si>
-  <si>
-    <t>3084.0</t>
-  </si>
-  <si>
-    <t>1714.0</t>
-  </si>
-  <si>
-    <t>8958.0</t>
-  </si>
-  <si>
-    <t>3660000.0</t>
-  </si>
-  <si>
-    <t>2050000.0</t>
-  </si>
-  <si>
-    <t>1610000.0</t>
-  </si>
-  <si>
-    <t>5900000.0</t>
-  </si>
-  <si>
-    <t>180.0</t>
-  </si>
-  <si>
-    <t>232.0</t>
-  </si>
-  <si>
-    <t>78.0</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>Occitanie</t>
-  </si>
-  <si>
-    <t>5211.0</t>
-  </si>
-  <si>
-    <t>3826.0</t>
-  </si>
-  <si>
-    <t>1385.0</t>
-  </si>
-  <si>
-    <t>5378.0</t>
-  </si>
-  <si>
-    <t>707740.0</t>
-  </si>
-  <si>
-    <t>150553.0</t>
-  </si>
-  <si>
-    <t>133170.0</t>
-  </si>
-  <si>
-    <t>4905.0</t>
-  </si>
-  <si>
-    <t>3374.0</t>
-  </si>
-  <si>
-    <t>1531.0</t>
-  </si>
-  <si>
-    <t>8878.0</t>
-  </si>
-  <si>
-    <t>3060000.0</t>
-  </si>
-  <si>
-    <t>1560000.0</t>
-  </si>
-  <si>
-    <t>1500000.0</t>
-  </si>
-  <si>
-    <t>96.0</t>
-  </si>
-  <si>
-    <t>5790000.0</t>
-  </si>
-  <si>
-    <t>35.0</t>
-  </si>
-  <si>
-    <t>145.0</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>Auvergne-Rhône-Alpes</t>
-  </si>
-  <si>
-    <t>4995.0</t>
-  </si>
-  <si>
-    <t>3809.0</t>
-  </si>
-  <si>
-    <t>1186.0</t>
-  </si>
-  <si>
-    <t>5103.0</t>
-  </si>
-  <si>
-    <t>1197526.0</t>
-  </si>
-  <si>
-    <t>1030199.0</t>
-  </si>
-  <si>
-    <t>171948.0</t>
-  </si>
-  <si>
-    <t>180043.0</t>
-  </si>
-  <si>
-    <t>5669.0</t>
-  </si>
-  <si>
-    <t>84.0</t>
-  </si>
-  <si>
-    <t>12003.0</t>
-  </si>
-  <si>
-    <t>3780000.0</t>
-  </si>
-  <si>
-    <t>790000.0</t>
-  </si>
-  <si>
-    <t>2990000.0</t>
-  </si>
-  <si>
-    <t>378.0</t>
-  </si>
-  <si>
-    <t>7870000.0</t>
-  </si>
-  <si>
-    <t>189.0</t>
-  </si>
-  <si>
-    <t>74.0</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>Provence-Alpes-Côte d'Azur</t>
-  </si>
-  <si>
-    <t>1893.0</t>
-  </si>
-  <si>
-    <t>1322.0</t>
-  </si>
-  <si>
-    <t>571.0</t>
-  </si>
-  <si>
-    <t>1906.0</t>
-  </si>
-  <si>
-    <t>98.0</t>
-  </si>
-  <si>
-    <t>1524680.0</t>
-  </si>
-  <si>
-    <t>111870.0</t>
-  </si>
-  <si>
-    <t>113234.0</t>
-  </si>
-  <si>
-    <t>99.0</t>
-  </si>
-  <si>
-    <t>4805.0</t>
-  </si>
-  <si>
-    <t>1966.0</t>
-  </si>
-  <si>
-    <t>2839.0</t>
-  </si>
-  <si>
-    <t>7549.0</t>
-  </si>
-  <si>
-    <t>51.0</t>
-  </si>
-  <si>
-    <t>2660000.0</t>
-  </si>
-  <si>
-    <t>1140000.0</t>
-  </si>
-  <si>
-    <t>1520000.0</t>
-  </si>
-  <si>
-    <t>133.0</t>
-  </si>
-  <si>
-    <t>5010000.0</t>
-  </si>
-  <si>
-    <t>55.0</t>
-  </si>
-  <si>
-    <t>81.0</t>
-  </si>
-  <si>
-    <t>68.0</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>Corse</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>184.0</t>
   </si>
   <si>
     <t>70.0</t>
   </si>
   <si>
-    <t>7226.0</t>
+    <t>7333.0</t>
   </si>
   <si>
     <t>7771.0</t>
   </si>
   <si>
-    <t>292.0</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>244.0</t>
+    <t>305.0</t>
+  </si>
+  <si>
+    <t>257.0</t>
+  </si>
+  <si>
+    <t>535.0</t>
   </si>
   <si>
     <t>518.0</t>
-  </si>
-  <si>
-    <t>52.0</t>
   </si>
   <si>
     <t>320000.0</t>
@@ -1729,22 +1714,22 @@
         <v>40</v>
       </c>
       <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
         <v>41</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>42</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>43</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>44</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>45</v>
-      </c>
-      <c r="L4" t="s">
-        <v>46</v>
       </c>
       <c r="M4" t="s">
         <v>25</v>
@@ -1753,18 +1738,18 @@
         <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
         <v>48</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>49</v>
-      </c>
-      <c r="C5" t="s">
-        <v>50</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -1773,31 +1758,31 @@
         <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
         <v>22</v>
       </c>
       <c r="I5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" t="s">
         <v>53</v>
-      </c>
-      <c r="J5" t="s">
-        <v>51</v>
-      </c>
-      <c r="L5" t="s">
-        <v>54</v>
-      </c>
-      <c r="M5" t="s">
-        <v>51</v>
-      </c>
-      <c r="N5" t="s">
-        <v>55</v>
-      </c>
-      <c r="O5" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1871,34 +1856,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="K2" t="s">
         <v>35</v>
       </c>
       <c r="L2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="M2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -1918,31 +1903,31 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E3" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F3" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s">
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="L3" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="M3" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="N3" t="s">
         <v>36</v>
@@ -1962,128 +1947,128 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E4" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F4" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="I4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J4" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="K4" t="s">
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="L4" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="M4" t="s">
-        <v>158</v>
+        <v>224</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
         <v>48</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>49</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E5" t="s">
+        <v>211</v>
+      </c>
+      <c r="F5" t="s">
+        <v>225</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>226</v>
+      </c>
+      <c r="I5" t="s">
         <v>50</v>
       </c>
-      <c r="D5" t="s">
-        <v>215</v>
-      </c>
-      <c r="E5" t="s">
-        <v>216</v>
-      </c>
-      <c r="F5" t="s">
-        <v>230</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="J5" t="s">
+        <v>227</v>
+      </c>
+      <c r="K5" t="s">
+        <v>228</v>
+      </c>
+      <c r="L5" t="s">
+        <v>229</v>
+      </c>
+      <c r="M5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N5" t="s">
         <v>52</v>
       </c>
-      <c r="H5" t="s">
-        <v>231</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="O5" t="s">
         <v>53</v>
-      </c>
-      <c r="J5" t="s">
-        <v>232</v>
-      </c>
-      <c r="K5" t="s">
-        <v>233</v>
-      </c>
-      <c r="L5" t="s">
-        <v>234</v>
-      </c>
-      <c r="M5" t="s">
-        <v>235</v>
-      </c>
-      <c r="N5" t="s">
-        <v>55</v>
-      </c>
-      <c r="O5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B6" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C6" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D6" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E6" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F6" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="H6" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="I6" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="J6" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="L6" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="M6" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="N6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="O6" t="s">
         <v>27</v>
@@ -2160,34 +2145,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="K2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L2" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="M2" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -2198,46 +2183,46 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F3" t="s">
+        <v>239</v>
+      </c>
+      <c r="G3" t="s">
         <v>120</v>
       </c>
-      <c r="C3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E3" t="s">
-        <v>239</v>
-      </c>
-      <c r="F3" t="s">
-        <v>245</v>
-      </c>
-      <c r="G3" t="s">
-        <v>32</v>
-      </c>
       <c r="H3" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="L3" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="M3" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="N3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -2251,28 +2236,28 @@
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E4" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F4" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="I4" t="s">
         <v>33</v>
       </c>
       <c r="J4" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="L4" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="M4" t="s">
         <v>244</v>
@@ -2295,128 +2280,128 @@
         <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E5" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F5" t="s">
+        <v>245</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" t="s">
+        <v>246</v>
+      </c>
+      <c r="I5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" t="s">
+        <v>247</v>
+      </c>
+      <c r="K5" t="s">
+        <v>248</v>
+      </c>
+      <c r="L5" t="s">
+        <v>249</v>
+      </c>
+      <c r="M5" t="s">
         <v>250</v>
-      </c>
-      <c r="G5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" t="s">
-        <v>251</v>
-      </c>
-      <c r="I5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" t="s">
-        <v>252</v>
-      </c>
-      <c r="K5" t="s">
-        <v>253</v>
-      </c>
-      <c r="L5" t="s">
-        <v>254</v>
-      </c>
-      <c r="M5" t="s">
-        <v>40</v>
       </c>
       <c r="N5" t="s">
         <v>26</v>
       </c>
       <c r="O5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
         <v>48</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>49</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>233</v>
+      </c>
+      <c r="E6" t="s">
+        <v>234</v>
+      </c>
+      <c r="F6" t="s">
+        <v>251</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s">
+        <v>252</v>
+      </c>
+      <c r="I6" t="s">
         <v>50</v>
       </c>
-      <c r="D6" t="s">
-        <v>238</v>
-      </c>
-      <c r="E6" t="s">
-        <v>239</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="J6" t="s">
+        <v>253</v>
+      </c>
+      <c r="K6" t="s">
+        <v>254</v>
+      </c>
+      <c r="L6" t="s">
         <v>255</v>
       </c>
-      <c r="G6" t="s">
+      <c r="M6" t="s">
+        <v>203</v>
+      </c>
+      <c r="N6" t="s">
         <v>52</v>
       </c>
-      <c r="H6" t="s">
-        <v>256</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="O6" t="s">
         <v>53</v>
-      </c>
-      <c r="J6" t="s">
-        <v>257</v>
-      </c>
-      <c r="K6" t="s">
-        <v>258</v>
-      </c>
-      <c r="L6" t="s">
-        <v>259</v>
-      </c>
-      <c r="M6" t="s">
-        <v>86</v>
-      </c>
-      <c r="N6" t="s">
-        <v>55</v>
-      </c>
-      <c r="O6" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="H7" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="I7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="J7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="L7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="M7" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="N7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="O7" t="s">
         <v>27</v>
@@ -2493,34 +2478,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="K2" t="s">
-        <v>266</v>
+        <v>180</v>
       </c>
       <c r="L2" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="M2" t="s">
-        <v>224</v>
+        <v>263</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -2540,31 +2525,31 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s">
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="L3" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="M3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="N3" t="s">
         <v>36</v>
@@ -2584,128 +2569,128 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E4" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F4" t="s">
+        <v>266</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>267</v>
+      </c>
+      <c r="I4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" t="s">
+        <v>268</v>
+      </c>
+      <c r="K4" t="s">
+        <v>269</v>
+      </c>
+      <c r="L4" t="s">
         <v>270</v>
       </c>
-      <c r="G4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="M4" t="s">
         <v>271</v>
-      </c>
-      <c r="I4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" t="s">
-        <v>272</v>
-      </c>
-      <c r="K4" t="s">
-        <v>273</v>
-      </c>
-      <c r="L4" t="s">
-        <v>274</v>
-      </c>
-      <c r="M4" t="s">
-        <v>109</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
         <v>48</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>49</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E5" t="s">
+        <v>258</v>
+      </c>
+      <c r="F5" t="s">
+        <v>272</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>273</v>
+      </c>
+      <c r="I5" t="s">
         <v>50</v>
       </c>
-      <c r="D5" t="s">
-        <v>261</v>
-      </c>
-      <c r="E5" t="s">
-        <v>262</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="J5" t="s">
+        <v>274</v>
+      </c>
+      <c r="K5" t="s">
         <v>275</v>
       </c>
-      <c r="G5" t="s">
+      <c r="L5" t="s">
+        <v>276</v>
+      </c>
+      <c r="M5" t="s">
+        <v>277</v>
+      </c>
+      <c r="N5" t="s">
         <v>52</v>
       </c>
-      <c r="H5" t="s">
-        <v>276</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="O5" t="s">
         <v>53</v>
-      </c>
-      <c r="J5" t="s">
-        <v>277</v>
-      </c>
-      <c r="K5" t="s">
-        <v>278</v>
-      </c>
-      <c r="L5" t="s">
-        <v>279</v>
-      </c>
-      <c r="M5" t="s">
-        <v>280</v>
-      </c>
-      <c r="N5" t="s">
-        <v>55</v>
-      </c>
-      <c r="O5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B6" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C6" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D6" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E6" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F6" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="H6" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="I6" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="J6" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="L6" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="M6" t="s">
-        <v>283</v>
+        <v>194</v>
       </c>
       <c r="N6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="O6" t="s">
         <v>27</v>
@@ -2782,34 +2767,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E2" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F2" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K2" t="s">
-        <v>289</v>
+        <v>71</v>
       </c>
       <c r="L2" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="M2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -2829,31 +2814,31 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E3" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F3" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s">
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="L3" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="M3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="N3" t="s">
         <v>36</v>
@@ -2873,128 +2858,128 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E4" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F4" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="I4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J4" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="K4" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="L4" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="M4" t="s">
-        <v>298</v>
+        <v>77</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
         <v>48</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>49</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>280</v>
+      </c>
+      <c r="E5" t="s">
+        <v>281</v>
+      </c>
+      <c r="F5" t="s">
+        <v>293</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>294</v>
+      </c>
+      <c r="I5" t="s">
         <v>50</v>
       </c>
-      <c r="D5" t="s">
-        <v>284</v>
-      </c>
-      <c r="E5" t="s">
-        <v>285</v>
-      </c>
-      <c r="F5" t="s">
-        <v>299</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="J5" t="s">
+        <v>206</v>
+      </c>
+      <c r="K5" t="s">
+        <v>295</v>
+      </c>
+      <c r="L5" t="s">
+        <v>296</v>
+      </c>
+      <c r="M5" t="s">
+        <v>297</v>
+      </c>
+      <c r="N5" t="s">
         <v>52</v>
       </c>
-      <c r="H5" t="s">
-        <v>300</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="O5" t="s">
         <v>53</v>
-      </c>
-      <c r="J5" t="s">
-        <v>301</v>
-      </c>
-      <c r="K5" t="s">
-        <v>283</v>
-      </c>
-      <c r="L5" t="s">
-        <v>302</v>
-      </c>
-      <c r="M5" t="s">
-        <v>303</v>
-      </c>
-      <c r="N5" t="s">
-        <v>55</v>
-      </c>
-      <c r="O5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B6" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C6" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D6" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E6" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F6" t="s">
-        <v>280</v>
+        <v>244</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="H6" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="I6" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="J6" t="s">
-        <v>280</v>
+        <v>244</v>
       </c>
       <c r="L6" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="M6" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="N6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="O6" t="s">
         <v>27</v>
@@ -3071,34 +3056,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="E2" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="F2" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="K2" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="L2" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="M2" t="s">
-        <v>198</v>
+        <v>306</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -3118,31 +3103,31 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="E3" t="s">
+        <v>301</v>
+      </c>
+      <c r="F3" t="s">
         <v>307</v>
-      </c>
-      <c r="F3" t="s">
-        <v>312</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s">
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="L3" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="M3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="N3" t="s">
         <v>36</v>
@@ -3162,128 +3147,128 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="E4" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="F4" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="I4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J4" t="s">
-        <v>316</v>
+        <v>266</v>
       </c>
       <c r="K4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="L4" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="M4" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
         <v>48</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>49</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>300</v>
+      </c>
+      <c r="E5" t="s">
+        <v>301</v>
+      </c>
+      <c r="F5" t="s">
+        <v>272</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>312</v>
+      </c>
+      <c r="I5" t="s">
         <v>50</v>
       </c>
-      <c r="D5" t="s">
-        <v>306</v>
-      </c>
-      <c r="E5" t="s">
-        <v>307</v>
-      </c>
-      <c r="F5" t="s">
-        <v>318</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="J5" t="s">
+        <v>313</v>
+      </c>
+      <c r="K5" t="s">
+        <v>299</v>
+      </c>
+      <c r="L5" t="s">
+        <v>314</v>
+      </c>
+      <c r="M5" t="s">
+        <v>133</v>
+      </c>
+      <c r="N5" t="s">
         <v>52</v>
       </c>
-      <c r="H5" t="s">
-        <v>319</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="O5" t="s">
         <v>53</v>
-      </c>
-      <c r="J5" t="s">
-        <v>320</v>
-      </c>
-      <c r="K5" t="s">
-        <v>228</v>
-      </c>
-      <c r="L5" t="s">
-        <v>321</v>
-      </c>
-      <c r="M5" t="s">
-        <v>214</v>
-      </c>
-      <c r="N5" t="s">
-        <v>55</v>
-      </c>
-      <c r="O5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B6" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C6" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D6" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="E6" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="F6" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="H6" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="I6" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="J6" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="L6" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="M6" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="N6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="O6" t="s">
         <v>27</v>
@@ -3360,34 +3345,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E2" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="F2" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="K2" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="L2" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="M2" t="s">
-        <v>280</v>
+        <v>219</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -3398,46 +3383,46 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F3" t="s">
+        <v>324</v>
+      </c>
+      <c r="G3" t="s">
         <v>120</v>
       </c>
-      <c r="C3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D3" t="s">
-        <v>325</v>
-      </c>
-      <c r="E3" t="s">
-        <v>326</v>
-      </c>
-      <c r="F3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" t="s">
-        <v>32</v>
-      </c>
       <c r="H3" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>51</v>
+        <v>324</v>
       </c>
       <c r="L3" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="M3" t="s">
-        <v>51</v>
+        <v>326</v>
       </c>
       <c r="N3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -3451,31 +3436,31 @@
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E4" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="F4" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="I4" t="s">
         <v>33</v>
       </c>
       <c r="J4" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="L4" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="M4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="N4" t="s">
         <v>36</v>
@@ -3495,128 +3480,128 @@
         <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E5" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="F5" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="I5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J5" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="K5" t="s">
-        <v>296</v>
+        <v>184</v>
       </c>
       <c r="L5" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="M5" t="s">
-        <v>158</v>
+        <v>203</v>
       </c>
       <c r="N5" t="s">
         <v>26</v>
       </c>
       <c r="O5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
         <v>48</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>49</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>318</v>
+      </c>
+      <c r="E6" t="s">
+        <v>319</v>
+      </c>
+      <c r="F6" t="s">
+        <v>333</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s">
+        <v>334</v>
+      </c>
+      <c r="I6" t="s">
         <v>50</v>
       </c>
-      <c r="D6" t="s">
-        <v>325</v>
-      </c>
-      <c r="E6" t="s">
-        <v>326</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="J6" t="s">
+        <v>335</v>
+      </c>
+      <c r="K6" t="s">
+        <v>336</v>
+      </c>
+      <c r="L6" t="s">
+        <v>337</v>
+      </c>
+      <c r="M6" t="s">
         <v>338</v>
       </c>
-      <c r="G6" t="s">
+      <c r="N6" t="s">
         <v>52</v>
       </c>
-      <c r="H6" t="s">
-        <v>339</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="O6" t="s">
         <v>53</v>
-      </c>
-      <c r="J6" t="s">
-        <v>340</v>
-      </c>
-      <c r="K6" t="s">
-        <v>341</v>
-      </c>
-      <c r="L6" t="s">
-        <v>342</v>
-      </c>
-      <c r="M6" t="s">
-        <v>343</v>
-      </c>
-      <c r="N6" t="s">
-        <v>55</v>
-      </c>
-      <c r="O6" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D7" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" t="s">
+        <v>163</v>
+      </c>
+      <c r="J7" t="s">
+        <v>244</v>
+      </c>
+      <c r="L7" t="s">
+        <v>339</v>
+      </c>
+      <c r="M7" t="s">
         <v>326</v>
       </c>
-      <c r="F7" t="s">
-        <v>280</v>
-      </c>
-      <c r="G7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" t="s">
-        <v>168</v>
-      </c>
-      <c r="J7" t="s">
-        <v>280</v>
-      </c>
-      <c r="L7" t="s">
-        <v>344</v>
-      </c>
-      <c r="M7" t="s">
-        <v>273</v>
-      </c>
       <c r="N7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="O7" t="s">
         <v>27</v>
@@ -3693,34 +3678,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="E2" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F2" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="K2" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="L2" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="M2" t="s">
-        <v>152</v>
+        <v>219</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -3731,46 +3716,46 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" t="s">
+        <v>340</v>
+      </c>
+      <c r="E3" t="s">
+        <v>341</v>
+      </c>
+      <c r="F3" t="s">
+        <v>346</v>
+      </c>
+      <c r="G3" t="s">
         <v>120</v>
       </c>
-      <c r="C3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D3" t="s">
-        <v>345</v>
-      </c>
-      <c r="E3" t="s">
-        <v>346</v>
-      </c>
-      <c r="F3" t="s">
-        <v>351</v>
-      </c>
-      <c r="G3" t="s">
-        <v>32</v>
-      </c>
       <c r="H3" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="L3" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="M3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="N3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -3784,31 +3769,31 @@
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="E4" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F4" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="I4" t="s">
         <v>33</v>
       </c>
       <c r="J4" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="L4" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="M4" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="N4" t="s">
         <v>36</v>
@@ -3828,128 +3813,128 @@
         <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="E5" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F5" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="I5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J5" t="s">
-        <v>64</v>
+        <v>352</v>
       </c>
       <c r="K5" t="s">
-        <v>356</v>
+        <v>164</v>
       </c>
       <c r="L5" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="M5" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="N5" t="s">
         <v>26</v>
       </c>
       <c r="O5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
         <v>48</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>49</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>340</v>
+      </c>
+      <c r="E6" t="s">
+        <v>341</v>
+      </c>
+      <c r="F6" t="s">
+        <v>354</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s">
+        <v>355</v>
+      </c>
+      <c r="I6" t="s">
         <v>50</v>
       </c>
-      <c r="D6" t="s">
-        <v>345</v>
-      </c>
-      <c r="E6" t="s">
-        <v>346</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="J6" t="s">
+        <v>356</v>
+      </c>
+      <c r="K6" t="s">
+        <v>357</v>
+      </c>
+      <c r="L6" t="s">
         <v>358</v>
       </c>
-      <c r="G6" t="s">
+      <c r="M6" t="s">
+        <v>359</v>
+      </c>
+      <c r="N6" t="s">
         <v>52</v>
       </c>
-      <c r="H6" t="s">
-        <v>359</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="O6" t="s">
         <v>53</v>
-      </c>
-      <c r="J6" t="s">
-        <v>360</v>
-      </c>
-      <c r="K6" t="s">
-        <v>361</v>
-      </c>
-      <c r="L6" t="s">
-        <v>362</v>
-      </c>
-      <c r="M6" t="s">
-        <v>214</v>
-      </c>
-      <c r="N6" t="s">
-        <v>55</v>
-      </c>
-      <c r="O6" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="E7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="H7" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="I7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="J7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="L7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="M7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="N7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="O7" t="s">
         <v>27</v>
@@ -4026,34 +4011,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="K2" t="s">
-        <v>156</v>
+        <v>367</v>
       </c>
       <c r="L2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="M2" t="s">
-        <v>371</v>
+        <v>74</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -4064,46 +4049,46 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" t="s">
+        <v>362</v>
+      </c>
+      <c r="E3" t="s">
+        <v>363</v>
+      </c>
+      <c r="F3" t="s">
+        <v>369</v>
+      </c>
+      <c r="G3" t="s">
         <v>120</v>
       </c>
-      <c r="C3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D3" t="s">
-        <v>365</v>
-      </c>
-      <c r="E3" t="s">
-        <v>366</v>
-      </c>
-      <c r="F3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" t="s">
-        <v>32</v>
-      </c>
       <c r="H3" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>51</v>
+        <v>369</v>
       </c>
       <c r="L3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="M3" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="N3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -4117,31 +4102,31 @@
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E4" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F4" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="I4" t="s">
         <v>33</v>
       </c>
       <c r="J4" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="L4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="M4" t="s">
-        <v>375</v>
+        <v>74</v>
       </c>
       <c r="N4" t="s">
         <v>36</v>
@@ -4161,128 +4146,128 @@
         <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E5" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F5" t="s">
+        <v>373</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" t="s">
+        <v>374</v>
+      </c>
+      <c r="I5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" t="s">
+        <v>375</v>
+      </c>
+      <c r="K5" t="s">
         <v>376</v>
       </c>
-      <c r="G5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="L5" t="s">
         <v>377</v>
       </c>
-      <c r="I5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" t="s">
-        <v>378</v>
-      </c>
-      <c r="K5" t="s">
-        <v>282</v>
-      </c>
-      <c r="L5" t="s">
-        <v>379</v>
-      </c>
       <c r="M5" t="s">
-        <v>380</v>
+        <v>359</v>
       </c>
       <c r="N5" t="s">
         <v>26</v>
       </c>
       <c r="O5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
         <v>48</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>49</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>362</v>
+      </c>
+      <c r="E6" t="s">
+        <v>363</v>
+      </c>
+      <c r="F6" t="s">
+        <v>378</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s">
+        <v>379</v>
+      </c>
+      <c r="I6" t="s">
         <v>50</v>
       </c>
-      <c r="D6" t="s">
-        <v>365</v>
-      </c>
-      <c r="E6" t="s">
-        <v>366</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="J6" t="s">
+        <v>380</v>
+      </c>
+      <c r="K6" t="s">
         <v>381</v>
       </c>
-      <c r="G6" t="s">
+      <c r="L6" t="s">
+        <v>382</v>
+      </c>
+      <c r="M6" t="s">
+        <v>184</v>
+      </c>
+      <c r="N6" t="s">
         <v>52</v>
       </c>
-      <c r="H6" t="s">
-        <v>382</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="O6" t="s">
         <v>53</v>
-      </c>
-      <c r="J6" t="s">
-        <v>383</v>
-      </c>
-      <c r="K6" t="s">
-        <v>384</v>
-      </c>
-      <c r="L6" t="s">
-        <v>385</v>
-      </c>
-      <c r="M6" t="s">
-        <v>170</v>
-      </c>
-      <c r="N6" t="s">
-        <v>55</v>
-      </c>
-      <c r="O6" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F7" t="s">
-        <v>386</v>
+        <v>291</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="H7" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="I7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="J7" t="s">
-        <v>386</v>
+        <v>291</v>
       </c>
       <c r="L7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="M7" t="s">
-        <v>388</v>
+        <v>115</v>
       </c>
       <c r="N7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="O7" t="s">
         <v>27</v>
@@ -4359,34 +4344,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="E2" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="F2" t="s">
-        <v>127</v>
+        <v>386</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>343</v>
+        <v>224</v>
       </c>
       <c r="K2" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="L2" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="M2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -4406,13 +4391,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="E3" t="s">
+        <v>385</v>
+      </c>
+      <c r="F3" t="s">
         <v>390</v>
-      </c>
-      <c r="F3" t="s">
-        <v>394</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -4424,13 +4409,13 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="L3" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="M3" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="N3" t="s">
         <v>36</v>
@@ -4450,84 +4435,84 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="E4" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="F4" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>397</v>
+        <v>94</v>
       </c>
       <c r="I4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J4" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="K4" t="s">
-        <v>162</v>
+        <v>394</v>
       </c>
       <c r="L4" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="M4" t="s">
-        <v>400</v>
+        <v>291</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
         <v>48</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>49</v>
       </c>
-      <c r="C5" t="s">
-        <v>50</v>
-      </c>
       <c r="D5" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="E5" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="F5" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="G5" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
         <v>22</v>
       </c>
       <c r="I5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" t="s">
+        <v>396</v>
+      </c>
+      <c r="L5" t="s">
+        <v>396</v>
+      </c>
+      <c r="M5" t="s">
+        <v>74</v>
+      </c>
+      <c r="N5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" t="s">
         <v>53</v>
-      </c>
-      <c r="J5" t="s">
-        <v>401</v>
-      </c>
-      <c r="L5" t="s">
-        <v>401</v>
-      </c>
-      <c r="M5" t="s">
-        <v>81</v>
-      </c>
-      <c r="N5" t="s">
-        <v>55</v>
-      </c>
-      <c r="O5" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -4601,34 +4586,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M2" t="s">
         <v>60</v>
-      </c>
-      <c r="K2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L2" t="s">
-        <v>62</v>
-      </c>
-      <c r="M2" t="s">
-        <v>63</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -4648,13 +4633,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -4666,13 +4651,13 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M3" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="N3" t="s">
         <v>36</v>
@@ -4692,84 +4677,84 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
         <v>57</v>
       </c>
-      <c r="E4" t="s">
+      <c r="I4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="s">
         <v>58</v>
-      </c>
-      <c r="F4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" t="s">
-        <v>69</v>
-      </c>
-      <c r="K4" t="s">
-        <v>70</v>
-      </c>
-      <c r="L4" t="s">
-        <v>71</v>
-      </c>
-      <c r="M4" t="s">
-        <v>72</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
         <v>48</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>49</v>
       </c>
-      <c r="C5" t="s">
-        <v>50</v>
-      </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
         <v>22</v>
       </c>
       <c r="I5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" t="s">
         <v>53</v>
-      </c>
-      <c r="J5" t="s">
-        <v>51</v>
-      </c>
-      <c r="L5" t="s">
-        <v>73</v>
-      </c>
-      <c r="M5" t="s">
-        <v>51</v>
-      </c>
-      <c r="N5" t="s">
-        <v>55</v>
-      </c>
-      <c r="O5" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -4843,34 +4828,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="K2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="L2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="M2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -4890,13 +4875,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" t="s">
         <v>75</v>
-      </c>
-      <c r="F3" t="s">
-        <v>82</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -4908,13 +4893,13 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="L3" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="M3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N3" t="s">
         <v>36</v>
@@ -4934,84 +4919,84 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="I4" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="K4" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="L4" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="M4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
         <v>48</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>49</v>
       </c>
-      <c r="C5" t="s">
-        <v>50</v>
-      </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
         <v>22</v>
       </c>
       <c r="I5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" t="s">
+        <v>83</v>
+      </c>
+      <c r="M5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" t="s">
         <v>53</v>
-      </c>
-      <c r="J5" t="s">
-        <v>51</v>
-      </c>
-      <c r="L5" t="s">
-        <v>90</v>
-      </c>
-      <c r="M5" t="s">
-        <v>51</v>
-      </c>
-      <c r="N5" t="s">
-        <v>55</v>
-      </c>
-      <c r="O5" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -5085,34 +5070,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="K2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="L2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="M2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -5132,13 +5117,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" t="s">
         <v>92</v>
-      </c>
-      <c r="F3" t="s">
-        <v>99</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -5150,13 +5135,13 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="L3" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="M3" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="N3" t="s">
         <v>36</v>
@@ -5176,84 +5161,84 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="I4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K4" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="L4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="M4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
         <v>48</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>49</v>
       </c>
-      <c r="C5" t="s">
-        <v>50</v>
-      </c>
       <c r="D5" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E5" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
         <v>22</v>
       </c>
       <c r="I5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" t="s">
+        <v>100</v>
+      </c>
+      <c r="M5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" t="s">
         <v>53</v>
-      </c>
-      <c r="J5" t="s">
-        <v>51</v>
-      </c>
-      <c r="L5" t="s">
-        <v>105</v>
-      </c>
-      <c r="M5" t="s">
-        <v>51</v>
-      </c>
-      <c r="N5" t="s">
-        <v>55</v>
-      </c>
-      <c r="O5" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -5327,13 +5312,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F2" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -5345,13 +5330,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="L2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="M2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -5371,13 +5356,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F3" t="s">
-        <v>110</v>
+        <v>43</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -5389,13 +5374,13 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>110</v>
+        <v>43</v>
       </c>
       <c r="L3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="M3" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="N3" t="s">
         <v>36</v>
@@ -5415,78 +5400,78 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F4" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="J4" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="L4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="M4" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
         <v>48</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>49</v>
       </c>
-      <c r="C5" t="s">
-        <v>50</v>
-      </c>
       <c r="D5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
         <v>22</v>
       </c>
       <c r="I5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" t="s">
         <v>53</v>
-      </c>
-      <c r="J5" t="s">
-        <v>51</v>
-      </c>
-      <c r="L5" t="s">
-        <v>51</v>
-      </c>
-      <c r="N5" t="s">
-        <v>55</v>
-      </c>
-      <c r="O5" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -5560,34 +5545,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K2" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="M2" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -5598,49 +5583,49 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3" t="s">
         <v>119</v>
       </c>
-      <c r="B3" t="s">
+      <c r="G3" t="s">
         <v>120</v>
       </c>
-      <c r="C3" t="s">
+      <c r="H3" t="s">
         <v>121</v>
-      </c>
-      <c r="D3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F3" t="s">
-        <v>122</v>
-      </c>
-      <c r="G3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" t="s">
-        <v>123</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
+        <v>122</v>
+      </c>
+      <c r="K3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L3" t="s">
         <v>124</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>125</v>
       </c>
-      <c r="L3" t="s">
-        <v>126</v>
-      </c>
-      <c r="M3" t="s">
-        <v>127</v>
-      </c>
       <c r="N3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -5654,31 +5639,31 @@
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="I4" t="s">
         <v>33</v>
       </c>
       <c r="J4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M4" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="N4" t="s">
         <v>36</v>
@@ -5698,87 +5683,87 @@
         <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" t="s">
+        <v>129</v>
+      </c>
+      <c r="I5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" t="s">
+        <v>130</v>
+      </c>
+      <c r="K5" t="s">
         <v>131</v>
       </c>
-      <c r="G5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="L5" t="s">
         <v>132</v>
       </c>
-      <c r="I5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="M5" t="s">
         <v>133</v>
-      </c>
-      <c r="K5" t="s">
-        <v>134</v>
-      </c>
-      <c r="L5" t="s">
-        <v>135</v>
-      </c>
-      <c r="M5" t="s">
-        <v>136</v>
       </c>
       <c r="N5" t="s">
         <v>26</v>
       </c>
       <c r="O5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
         <v>48</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>49</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s">
+        <v>135</v>
+      </c>
+      <c r="I6" t="s">
         <v>50</v>
       </c>
-      <c r="D6" t="s">
-        <v>113</v>
-      </c>
-      <c r="E6" t="s">
-        <v>114</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="J6" t="s">
+        <v>136</v>
+      </c>
+      <c r="K6" t="s">
         <v>137</v>
       </c>
-      <c r="G6" t="s">
+      <c r="L6" t="s">
+        <v>138</v>
+      </c>
+      <c r="M6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" t="s">
         <v>52</v>
       </c>
-      <c r="H6" t="s">
-        <v>138</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="O6" t="s">
         <v>53</v>
-      </c>
-      <c r="J6" t="s">
-        <v>139</v>
-      </c>
-      <c r="K6" t="s">
-        <v>140</v>
-      </c>
-      <c r="L6" t="s">
-        <v>141</v>
-      </c>
-      <c r="M6" t="s">
-        <v>142</v>
-      </c>
-      <c r="N6" t="s">
-        <v>55</v>
-      </c>
-      <c r="O6" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -5852,34 +5837,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="K2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="L2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="M2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -5899,31 +5884,31 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s">
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="L3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="M3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="N3" t="s">
         <v>36</v>
@@ -5943,128 +5928,128 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>150</v>
+      </c>
+      <c r="I4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" t="s">
+        <v>151</v>
+      </c>
+      <c r="K4" t="s">
+        <v>97</v>
+      </c>
+      <c r="L4" t="s">
+        <v>152</v>
+      </c>
+      <c r="M4" t="s">
         <v>153</v>
-      </c>
-      <c r="G4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" t="s">
-        <v>154</v>
-      </c>
-      <c r="I4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" t="s">
-        <v>155</v>
-      </c>
-      <c r="K4" t="s">
-        <v>156</v>
-      </c>
-      <c r="L4" t="s">
-        <v>157</v>
-      </c>
-      <c r="M4" t="s">
-        <v>158</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
         <v>48</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>49</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I5" t="s">
         <v>50</v>
       </c>
-      <c r="D5" t="s">
-        <v>143</v>
-      </c>
-      <c r="E5" t="s">
-        <v>144</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="J5" t="s">
+        <v>156</v>
+      </c>
+      <c r="K5" t="s">
+        <v>157</v>
+      </c>
+      <c r="L5" t="s">
+        <v>158</v>
+      </c>
+      <c r="M5" t="s">
         <v>159</v>
       </c>
-      <c r="G5" t="s">
+      <c r="N5" t="s">
         <v>52</v>
       </c>
-      <c r="H5" t="s">
-        <v>160</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="O5" t="s">
         <v>53</v>
-      </c>
-      <c r="J5" t="s">
-        <v>161</v>
-      </c>
-      <c r="K5" t="s">
-        <v>162</v>
-      </c>
-      <c r="L5" t="s">
-        <v>163</v>
-      </c>
-      <c r="M5" t="s">
-        <v>44</v>
-      </c>
-      <c r="N5" t="s">
-        <v>55</v>
-      </c>
-      <c r="O5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E6" t="s">
+        <v>140</v>
+      </c>
+      <c r="F6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" t="s">
+        <v>163</v>
+      </c>
+      <c r="J6" t="s">
+        <v>159</v>
+      </c>
+      <c r="L6" t="s">
         <v>164</v>
       </c>
-      <c r="B6" t="s">
+      <c r="M6" t="s">
         <v>165</v>
       </c>
-      <c r="C6" t="s">
-        <v>166</v>
-      </c>
-      <c r="D6" t="s">
-        <v>143</v>
-      </c>
-      <c r="E6" t="s">
-        <v>144</v>
-      </c>
-      <c r="F6" t="s">
-        <v>167</v>
-      </c>
-      <c r="G6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I6" t="s">
-        <v>168</v>
-      </c>
-      <c r="J6" t="s">
-        <v>167</v>
-      </c>
-      <c r="L6" t="s">
-        <v>169</v>
-      </c>
-      <c r="M6" t="s">
-        <v>170</v>
-      </c>
       <c r="N6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="O6" t="s">
         <v>27</v>
@@ -6141,34 +6126,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="K2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="L2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="M2" t="s">
-        <v>169</v>
+        <v>74</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -6188,31 +6173,31 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F3" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s">
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L3" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="M3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="N3" t="s">
         <v>36</v>
@@ -6232,128 +6217,128 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E4" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="I4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J4" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="K4" t="s">
-        <v>184</v>
+        <v>95</v>
       </c>
       <c r="L4" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="M4" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
         <v>48</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>49</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E5" t="s">
+        <v>167</v>
+      </c>
+      <c r="F5" t="s">
+        <v>181</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>182</v>
+      </c>
+      <c r="I5" t="s">
         <v>50</v>
       </c>
-      <c r="D5" t="s">
-        <v>171</v>
-      </c>
-      <c r="E5" t="s">
-        <v>172</v>
-      </c>
-      <c r="F5" t="s">
-        <v>187</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="J5" t="s">
+        <v>183</v>
+      </c>
+      <c r="K5" t="s">
+        <v>184</v>
+      </c>
+      <c r="L5" t="s">
+        <v>185</v>
+      </c>
+      <c r="M5" t="s">
+        <v>186</v>
+      </c>
+      <c r="N5" t="s">
         <v>52</v>
       </c>
-      <c r="H5" t="s">
-        <v>188</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="O5" t="s">
         <v>53</v>
-      </c>
-      <c r="J5" t="s">
-        <v>54</v>
-      </c>
-      <c r="K5" t="s">
-        <v>170</v>
-      </c>
-      <c r="L5" t="s">
-        <v>189</v>
-      </c>
-      <c r="M5" t="s">
-        <v>190</v>
-      </c>
-      <c r="N5" t="s">
-        <v>55</v>
-      </c>
-      <c r="O5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B6" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D6" t="s">
         <v>166</v>
       </c>
-      <c r="D6" t="s">
-        <v>171</v>
-      </c>
       <c r="E6" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F6" t="s">
-        <v>142</v>
+        <v>187</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="H6" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="I6" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="J6" t="s">
-        <v>142</v>
+        <v>187</v>
       </c>
       <c r="L6" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M6" t="s">
-        <v>142</v>
+        <v>187</v>
       </c>
       <c r="N6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="O6" t="s">
         <v>27</v>
@@ -6430,34 +6415,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="K2" t="s">
-        <v>196</v>
+        <v>35</v>
       </c>
       <c r="L2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="M2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -6468,46 +6453,46 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G3" t="s">
         <v>120</v>
       </c>
-      <c r="C3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E3" t="s">
-        <v>192</v>
-      </c>
-      <c r="F3" t="s">
-        <v>199</v>
-      </c>
-      <c r="G3" t="s">
-        <v>32</v>
-      </c>
       <c r="H3" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="L3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="M3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="N3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -6521,31 +6506,31 @@
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="I4" t="s">
         <v>33</v>
       </c>
       <c r="J4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="L4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="M4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="N4" t="s">
         <v>36</v>
@@ -6565,128 +6550,128 @@
         <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F5" t="s">
+        <v>200</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" t="s">
+        <v>201</v>
+      </c>
+      <c r="I5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" t="s">
+        <v>202</v>
+      </c>
+      <c r="K5" t="s">
+        <v>203</v>
+      </c>
+      <c r="L5" t="s">
         <v>204</v>
       </c>
-      <c r="G5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" t="s">
-        <v>205</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="M5" t="s">
         <v>43</v>
-      </c>
-      <c r="J5" t="s">
-        <v>206</v>
-      </c>
-      <c r="K5" t="s">
-        <v>110</v>
-      </c>
-      <c r="L5" t="s">
-        <v>207</v>
-      </c>
-      <c r="M5" t="s">
-        <v>176</v>
       </c>
       <c r="N5" t="s">
         <v>26</v>
       </c>
       <c r="O5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
         <v>48</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>49</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>188</v>
+      </c>
+      <c r="E6" t="s">
+        <v>189</v>
+      </c>
+      <c r="F6" t="s">
+        <v>205</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s">
+        <v>206</v>
+      </c>
+      <c r="I6" t="s">
         <v>50</v>
       </c>
-      <c r="D6" t="s">
-        <v>191</v>
-      </c>
-      <c r="E6" t="s">
-        <v>192</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="J6" t="s">
+        <v>207</v>
+      </c>
+      <c r="K6" t="s">
         <v>208</v>
       </c>
-      <c r="G6" t="s">
+      <c r="L6" t="s">
+        <v>209</v>
+      </c>
+      <c r="M6" t="s">
+        <v>73</v>
+      </c>
+      <c r="N6" t="s">
         <v>52</v>
       </c>
-      <c r="H6" t="s">
-        <v>209</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="O6" t="s">
         <v>53</v>
-      </c>
-      <c r="J6" t="s">
-        <v>210</v>
-      </c>
-      <c r="K6" t="s">
-        <v>76</v>
-      </c>
-      <c r="L6" t="s">
-        <v>211</v>
-      </c>
-      <c r="M6" t="s">
-        <v>212</v>
-      </c>
-      <c r="N6" t="s">
-        <v>55</v>
-      </c>
-      <c r="O6" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F7" t="s">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="H7" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="I7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="J7" t="s">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c r="L7" t="s">
-        <v>214</v>
+        <v>180</v>
       </c>
       <c r="M7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="N7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="O7" t="s">
         <v>27</v>

--- a/secteur-action-publique/transition-ecologique/regions/barometre-resultats-transition-ecologique-regions-synthese.xlsx
+++ b/secteur-action-publique/transition-ecologique/regions/barometre-resultats-transition-ecologique-regions-synthese.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="402">
   <si>
     <t>mesure</t>
   </si>
@@ -99,90 +99,93 @@
     <t>2021-12-31</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>75.0</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>kilomètres</t>
+  </si>
+  <si>
+    <t>Verdir le parc automobile</t>
+  </si>
+  <si>
+    <t>Nombre de primes à la conversion et de bonus écologiques</t>
+  </si>
+  <si>
+    <t>nb-primes-conversion</t>
+  </si>
+  <si>
+    <t>2591.0</t>
+  </si>
+  <si>
+    <t>2022-01-31</t>
+  </si>
+  <si>
+    <t>2018-01-31</t>
+  </si>
+  <si>
+    <t>8362.0</t>
+  </si>
+  <si>
+    <t>31.0</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>primes et bonus</t>
+  </si>
+  <si>
+    <t>Nombre de bornes de recharge pour véhicules électriques déployées</t>
+  </si>
+  <si>
+    <t>nb-points-recharge</t>
+  </si>
+  <si>
+    <t>33.0</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>26.0</t>
+  </si>
+  <si>
+    <t>371.0</t>
+  </si>
+  <si>
+    <t>557.0</t>
+  </si>
+  <si>
+    <t>bornes de recharge</t>
+  </si>
+  <si>
+    <t>Mettre en œuvre la sortie du plastique à usage unique et lutter contre le gaspillage</t>
+  </si>
+  <si>
+    <t>Nombre de Français qui peuvent mettre tous les emballages dans le bac jaune</t>
+  </si>
+  <si>
+    <t>nb-francais-emballages-bac-jaune</t>
+  </si>
+  <si>
     <t>0.0</t>
   </si>
   <si>
-    <t>2017-12-31</t>
-  </si>
-  <si>
-    <t>75.0</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>2022-03-31</t>
-  </si>
-  <si>
-    <t>kilomètres</t>
-  </si>
-  <si>
-    <t>Verdir le parc automobile</t>
-  </si>
-  <si>
-    <t>Nombre de primes à la conversion et de bonus écologiques</t>
-  </si>
-  <si>
-    <t>nb-primes-conversion</t>
-  </si>
-  <si>
-    <t>2591.0</t>
-  </si>
-  <si>
-    <t>2022-01-31</t>
-  </si>
-  <si>
-    <t>2018-01-31</t>
-  </si>
-  <si>
-    <t>8362.0</t>
-  </si>
-  <si>
-    <t>31.0</t>
-  </si>
-  <si>
-    <t>2022-06-30</t>
-  </si>
-  <si>
-    <t>primes et bonus</t>
-  </si>
-  <si>
-    <t>Nombre de bornes de recharge pour véhicules électriques déployées</t>
-  </si>
-  <si>
-    <t>nb-points-recharge</t>
-  </si>
-  <si>
-    <t>33.0</t>
-  </si>
-  <si>
-    <t>7.0</t>
-  </si>
-  <si>
-    <t>2019-09-30</t>
-  </si>
-  <si>
-    <t>26.0</t>
-  </si>
-  <si>
-    <t>371.0</t>
-  </si>
-  <si>
-    <t>557.0</t>
-  </si>
-  <si>
-    <t>bornes de recharge</t>
-  </si>
-  <si>
-    <t>Mettre en œuvre la sortie du plastique à usage unique et lutter contre le gaspillage</t>
-  </si>
-  <si>
-    <t>Nombre de Français qui peuvent mettre tous les emballages dans le bac jaune</t>
-  </si>
-  <si>
-    <t>nb-francais-emballages-bac-jaune</t>
-  </si>
-  <si>
     <t>2017-06-30</t>
   </si>
   <si>
@@ -225,6 +228,9 @@
     <t>73.0</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>72.0</t>
   </si>
   <si>
@@ -246,6 +252,9 @@
     <t>76.0</t>
   </si>
   <si>
+    <t>26</t>
+  </si>
+  <si>
     <t>50.0</t>
   </si>
   <si>
@@ -267,6 +276,9 @@
     <t>29.0</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>2020-06-30</t>
   </si>
   <si>
@@ -294,7 +306,7 @@
     <t>392.0</t>
   </si>
   <si>
-    <t>332.0</t>
+    <t>332</t>
   </si>
   <si>
     <t>60.0</t>
@@ -321,7 +333,7 @@
     <t>124.0</t>
   </si>
   <si>
-    <t>67.0</t>
+    <t>67</t>
   </si>
   <si>
     <t>57.0</t>
@@ -1194,7 +1206,7 @@
     <t>54.0</t>
   </si>
   <si>
-    <t>19.0</t>
+    <t>19</t>
   </si>
   <si>
     <t>184.0</t>
@@ -1210,6 +1222,9 @@
   </si>
   <si>
     <t>305.0</t>
+  </si>
+  <si>
+    <t>48</t>
   </si>
   <si>
     <t>257.0</t>
@@ -1758,7 +1773,7 @@
         <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G5" t="s">
         <v>21</v>
@@ -1767,22 +1782,22 @@
         <v>22</v>
       </c>
       <c r="I5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" t="s">
         <v>50</v>
       </c>
-      <c r="J5" t="s">
-        <v>22</v>
-      </c>
       <c r="L5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M5" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="N5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1856,34 +1871,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="K2" t="s">
         <v>35</v>
       </c>
       <c r="L2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="M2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -1903,31 +1918,31 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E3" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F3" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="I3" t="s">
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="L3" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="M3" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="N3" t="s">
         <v>36</v>
@@ -1947,34 +1962,34 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E4" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F4" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="I4" t="s">
         <v>42</v>
       </c>
       <c r="J4" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="K4" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="L4" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="M4" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
@@ -1994,81 +2009,81 @@
         <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E5" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F5" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="G5" t="s">
         <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="I5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J5" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="K5" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="L5" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="M5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="N5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B6" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C6" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D6" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E6" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F6" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="G6" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="I6" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="J6" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="L6" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="M6" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="N6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O6" t="s">
         <v>27</v>
@@ -2145,34 +2160,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="E2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F2" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="K2" t="s">
         <v>43</v>
       </c>
       <c r="L2" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="M2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -2183,46 +2198,46 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C3" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D3" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="E3" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F3" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="G3" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="L3" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="M3" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -2236,31 +2251,31 @@
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="E4" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F4" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="I4" t="s">
         <v>33</v>
       </c>
       <c r="J4" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="L4" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="M4" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="N4" t="s">
         <v>36</v>
@@ -2280,34 +2295,34 @@
         <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="E5" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F5" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="G5" t="s">
         <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="I5" t="s">
         <v>42</v>
       </c>
       <c r="J5" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="K5" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="L5" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="M5" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="N5" t="s">
         <v>26</v>
@@ -2327,81 +2342,81 @@
         <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="E6" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F6" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="G6" t="s">
         <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="I6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J6" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="K6" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="L6" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="M6" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="N6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="E7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="G7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="I7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="J7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="L7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O7" t="s">
         <v>27</v>
@@ -2478,34 +2493,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E2" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F2" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L2" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="M2" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -2525,31 +2540,31 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E3" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F3" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="I3" t="s">
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L3" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="M3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="N3" t="s">
         <v>36</v>
@@ -2569,34 +2584,34 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E4" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F4" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="I4" t="s">
         <v>42</v>
       </c>
       <c r="J4" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="K4" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="L4" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="M4" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
@@ -2616,81 +2631,81 @@
         <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E5" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F5" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="G5" t="s">
         <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="I5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J5" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="K5" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="L5" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="M5" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="N5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B6" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C6" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D6" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E6" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F6" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="G6" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="I6" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="J6" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="L6" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="M6" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="N6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O6" t="s">
         <v>27</v>
@@ -2767,34 +2782,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="E2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F2" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="K2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L2" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="M2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -2814,31 +2829,31 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="E3" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F3" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="I3" t="s">
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="L3" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="M3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="N3" t="s">
         <v>36</v>
@@ -2858,34 +2873,34 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="E4" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F4" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="I4" t="s">
         <v>42</v>
       </c>
       <c r="J4" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="K4" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="L4" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="M4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
@@ -2905,81 +2920,81 @@
         <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="E5" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F5" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="G5" t="s">
         <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="I5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J5" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="K5" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="L5" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="M5" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="N5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B6" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C6" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D6" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="E6" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F6" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="G6" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="I6" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="J6" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="L6" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="M6" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="N6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O6" t="s">
         <v>27</v>
@@ -3056,34 +3071,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="E2" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="F2" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="K2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="L2" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="M2" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -3103,31 +3118,31 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="E3" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="F3" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="I3" t="s">
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="L3" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="M3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="N3" t="s">
         <v>36</v>
@@ -3147,34 +3162,34 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="E4" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="F4" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="I4" t="s">
         <v>42</v>
       </c>
       <c r="J4" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="K4" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="L4" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="M4" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
@@ -3194,81 +3209,81 @@
         <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="E5" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="F5" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="G5" t="s">
         <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="I5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J5" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="K5" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="L5" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="M5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="N5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B6" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C6" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D6" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="E6" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="F6" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="G6" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="I6" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="J6" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="L6" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="M6" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="N6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O6" t="s">
         <v>27</v>
@@ -3345,34 +3360,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="E2" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="F2" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="K2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="L2" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="M2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -3383,46 +3398,46 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C3" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D3" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="E3" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="F3" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="G3" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="L3" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="M3" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -3436,31 +3451,31 @@
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="E4" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="F4" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="I4" t="s">
         <v>33</v>
       </c>
       <c r="J4" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="L4" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="M4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="N4" t="s">
         <v>36</v>
@@ -3480,34 +3495,34 @@
         <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="E5" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="F5" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="G5" t="s">
         <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="I5" t="s">
         <v>42</v>
       </c>
       <c r="J5" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="K5" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L5" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="M5" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="N5" t="s">
         <v>26</v>
@@ -3527,81 +3542,81 @@
         <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="E6" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="F6" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="G6" t="s">
         <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="I6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J6" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="K6" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="L6" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="M6" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="N6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="E7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="F7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="G7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="I7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="J7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="L7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="M7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="N7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O7" t="s">
         <v>27</v>
@@ -3678,34 +3693,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E2" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="F2" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="K2" t="s">
         <v>35</v>
       </c>
       <c r="L2" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="M2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -3716,46 +3731,46 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C3" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D3" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E3" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="F3" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="G3" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="L3" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="M3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -3769,31 +3784,31 @@
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E4" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="F4" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="I4" t="s">
         <v>33</v>
       </c>
       <c r="J4" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="L4" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="M4" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="N4" t="s">
         <v>36</v>
@@ -3813,34 +3828,34 @@
         <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E5" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="F5" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="G5" t="s">
         <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="I5" t="s">
         <v>42</v>
       </c>
       <c r="J5" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="K5" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="L5" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="M5" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="N5" t="s">
         <v>26</v>
@@ -3860,81 +3875,81 @@
         <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E6" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="F6" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="G6" t="s">
         <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="I6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J6" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="K6" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="L6" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="M6" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="N6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="F7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="G7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="I7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="J7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="L7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="M7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="N7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O7" t="s">
         <v>27</v>
@@ -4011,34 +4026,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E2" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="F2" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="K2" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="L2" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="M2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -4049,46 +4064,46 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C3" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D3" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E3" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="F3" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="G3" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="L3" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="M3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -4102,31 +4117,31 @@
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E4" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="F4" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="I4" t="s">
         <v>33</v>
       </c>
       <c r="J4" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="L4" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="M4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="N4" t="s">
         <v>36</v>
@@ -4146,34 +4161,34 @@
         <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E5" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="F5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="G5" t="s">
         <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="I5" t="s">
         <v>42</v>
       </c>
       <c r="J5" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="K5" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="L5" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="M5" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="N5" t="s">
         <v>26</v>
@@ -4193,81 +4208,81 @@
         <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E6" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="F6" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="G6" t="s">
         <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="I6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J6" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="K6" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="L6" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="M6" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="N6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="F7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="G7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="I7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="J7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="L7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="M7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="N7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O7" t="s">
         <v>27</v>
@@ -4344,34 +4359,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="E2" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="F2" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="K2" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="L2" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="M2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -4391,13 +4406,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="E3" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="F3" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -4409,13 +4424,13 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="L3" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="M3" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="N3" t="s">
         <v>36</v>
@@ -4435,34 +4450,34 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="E4" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="F4" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>94</v>
+        <v>397</v>
       </c>
       <c r="I4" t="s">
         <v>42</v>
       </c>
       <c r="J4" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="K4" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="L4" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="M4" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
@@ -4482,13 +4497,13 @@
         <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="E5" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="F5" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="G5" t="s">
         <v>21</v>
@@ -4497,22 +4512,22 @@
         <v>22</v>
       </c>
       <c r="I5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J5" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="L5" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="M5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="N5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -4586,13 +4601,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -4604,16 +4619,16 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -4633,13 +4648,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -4651,10 +4666,10 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M3" t="s">
         <v>40</v>
@@ -4677,34 +4692,34 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="I4" t="s">
         <v>42</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
@@ -4724,13 +4739,13 @@
         <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G5" t="s">
         <v>21</v>
@@ -4739,22 +4754,22 @@
         <v>22</v>
       </c>
       <c r="I5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" t="s">
         <v>50</v>
       </c>
-      <c r="J5" t="s">
-        <v>22</v>
-      </c>
       <c r="L5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M5" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="N5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -4828,34 +4843,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -4875,13 +4890,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -4893,10 +4908,10 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M3" t="s">
         <v>25</v>
@@ -4919,34 +4934,34 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="I4" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="J4" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K4" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L4" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M4" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
@@ -4966,13 +4981,13 @@
         <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G5" t="s">
         <v>21</v>
@@ -4981,22 +4996,22 @@
         <v>22</v>
       </c>
       <c r="I5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" t="s">
         <v>50</v>
       </c>
-      <c r="J5" t="s">
-        <v>22</v>
-      </c>
       <c r="L5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="M5" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="N5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -5070,34 +5085,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="L2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -5117,13 +5132,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F3" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -5135,13 +5150,13 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="L3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="M3" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="N3" t="s">
         <v>36</v>
@@ -5161,31 +5176,31 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="I4" t="s">
         <v>42</v>
       </c>
       <c r="J4" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="L4" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M4" t="s">
         <v>25</v>
@@ -5208,13 +5223,13 @@
         <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E5" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G5" t="s">
         <v>21</v>
@@ -5223,22 +5238,22 @@
         <v>22</v>
       </c>
       <c r="I5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" t="s">
         <v>50</v>
       </c>
-      <c r="J5" t="s">
-        <v>22</v>
-      </c>
       <c r="L5" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="M5" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="N5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -5312,13 +5327,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -5330,13 +5345,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="L2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="M2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -5356,10 +5371,10 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E3" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F3" t="s">
         <v>43</v>
@@ -5377,10 +5392,10 @@
         <v>43</v>
       </c>
       <c r="L3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="N3" t="s">
         <v>36</v>
@@ -5400,13 +5415,13 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E4" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
@@ -5415,16 +5430,16 @@
         <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="J4" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="L4" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="M4" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
@@ -5444,13 +5459,13 @@
         <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E5" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G5" t="s">
         <v>21</v>
@@ -5459,19 +5474,19 @@
         <v>22</v>
       </c>
       <c r="I5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" t="s">
         <v>50</v>
       </c>
-      <c r="J5" t="s">
-        <v>22</v>
-      </c>
       <c r="L5" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="N5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -5545,34 +5560,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="K2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="M2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -5583,49 +5598,49 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C3" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G3" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H3" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="K3" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="L3" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="M3" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -5639,31 +5654,31 @@
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E4" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F4" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="I4" t="s">
         <v>33</v>
       </c>
       <c r="J4" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="L4" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="M4" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="N4" t="s">
         <v>36</v>
@@ -5683,34 +5698,34 @@
         <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E5" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F5" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G5" t="s">
         <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="I5" t="s">
         <v>42</v>
       </c>
       <c r="J5" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K5" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="L5" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="N5" t="s">
         <v>26</v>
@@ -5730,40 +5745,40 @@
         <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E6" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F6" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G6" t="s">
         <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="I6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J6" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="K6" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="L6" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="M6" t="s">
         <v>24</v>
       </c>
       <c r="N6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -5837,34 +5852,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="K2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="L2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="M2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -5884,31 +5899,31 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E3" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F3" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="I3" t="s">
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="L3" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="M3" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="N3" t="s">
         <v>36</v>
@@ -5928,34 +5943,34 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E4" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F4" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="I4" t="s">
         <v>42</v>
       </c>
       <c r="J4" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="K4" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="L4" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M4" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
@@ -5975,81 +5990,81 @@
         <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E5" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F5" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="G5" t="s">
         <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="I5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J5" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K5" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="L5" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="M5" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="N5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B6" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C6" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D6" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E6" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F6" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G6" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="I6" t="s">
+        <v>167</v>
+      </c>
+      <c r="J6" t="s">
         <v>163</v>
       </c>
-      <c r="J6" t="s">
-        <v>159</v>
-      </c>
       <c r="L6" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="M6" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="N6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O6" t="s">
         <v>27</v>
@@ -6126,34 +6141,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="K2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="L2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="M2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -6173,31 +6188,31 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E3" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F3" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="I3" t="s">
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="L3" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="M3" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="N3" t="s">
         <v>36</v>
@@ -6217,34 +6232,34 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E4" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F4" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="I4" t="s">
         <v>42</v>
       </c>
       <c r="J4" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="K4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="L4" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="M4" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
@@ -6264,81 +6279,81 @@
         <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E5" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F5" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="G5" t="s">
         <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="I5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J5" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="K5" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L5" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="M5" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="N5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B6" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C6" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D6" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E6" t="s">
+        <v>171</v>
+      </c>
+      <c r="F6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G6" t="s">
+        <v>111</v>
+      </c>
+      <c r="H6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" t="s">
         <v>167</v>
       </c>
-      <c r="F6" t="s">
-        <v>187</v>
-      </c>
-      <c r="G6" t="s">
-        <v>107</v>
-      </c>
-      <c r="H6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" t="s">
-        <v>163</v>
-      </c>
       <c r="J6" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="L6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M6" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="N6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O6" t="s">
         <v>27</v>
@@ -6415,34 +6430,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="F2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="K2" t="s">
         <v>35</v>
       </c>
       <c r="L2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="M2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -6453,46 +6468,46 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C3" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D3" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E3" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="F3" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G3" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L3" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="M3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -6506,31 +6521,31 @@
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E4" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="F4" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="I4" t="s">
         <v>33</v>
       </c>
       <c r="J4" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="L4" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="M4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="N4" t="s">
         <v>36</v>
@@ -6550,31 +6565,31 @@
         <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E5" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="F5" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G5" t="s">
         <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="I5" t="s">
         <v>42</v>
       </c>
       <c r="J5" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="K5" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="L5" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="M5" t="s">
         <v>43</v>
@@ -6597,81 +6612,81 @@
         <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E6" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="F6" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="G6" t="s">
         <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="I6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J6" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="K6" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="L6" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="M6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="N6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="F7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="I7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="J7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="L7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O7" t="s">
         <v>27</v>

--- a/secteur-action-publique/transition-ecologique/regions/barometre-resultats-transition-ecologique-regions-synthese.xlsx
+++ b/secteur-action-publique/transition-ecologique/regions/barometre-resultats-transition-ecologique-regions-synthese.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="383">
   <si>
     <t>mesure</t>
   </si>
@@ -93,1150 +93,1093 @@
     <t>Guadeloupe</t>
   </si>
   <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>75.0</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>kilomètres</t>
+  </si>
+  <si>
+    <t>Verdir le parc automobile</t>
+  </si>
+  <si>
+    <t>Nombre de primes à la conversion et de bonus écologiques</t>
+  </si>
+  <si>
+    <t>nb-primes-conversion</t>
+  </si>
+  <si>
+    <t>4897.0</t>
+  </si>
+  <si>
+    <t>2018-01-31</t>
+  </si>
+  <si>
+    <t>8362.0</t>
+  </si>
+  <si>
+    <t>59.0</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>primes et bonus</t>
+  </si>
+  <si>
+    <t>Nombre de bornes de recharge pour véhicules électriques déployées</t>
+  </si>
+  <si>
+    <t>nb-points-recharge</t>
+  </si>
+  <si>
+    <t>53.0</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>46.0</t>
+  </si>
+  <si>
+    <t>657.0</t>
+  </si>
+  <si>
+    <t>557.0</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>bornes de recharge</t>
+  </si>
+  <si>
+    <t>Mettre en œuvre la sortie du plastique à usage unique et lutter contre le gaspillage</t>
+  </si>
+  <si>
+    <t>Nombre de Français qui peuvent mettre tous les emballages dans le bac jaune</t>
+  </si>
+  <si>
+    <t>nb-francais-emballages-bac-jaune</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>390000.0</t>
+  </si>
+  <si>
+    <t>habitants</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>11.0</t>
+  </si>
+  <si>
     <t>4.0</t>
   </si>
   <si>
-    <t>2021-12-31</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>2017-12-31</t>
-  </si>
-  <si>
-    <t>75.0</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>2022-03-31</t>
-  </si>
-  <si>
-    <t>kilomètres</t>
-  </si>
-  <si>
-    <t>Verdir le parc automobile</t>
-  </si>
-  <si>
-    <t>Nombre de primes à la conversion et de bonus écologiques</t>
-  </si>
-  <si>
-    <t>nb-primes-conversion</t>
-  </si>
-  <si>
-    <t>2591.0</t>
+    <t>57.0</t>
+  </si>
+  <si>
+    <t>71.0</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>5017.0</t>
+  </si>
+  <si>
+    <t>7900.0</t>
+  </si>
+  <si>
+    <t>64.0</t>
+  </si>
+  <si>
+    <t>83.0</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>82.0</t>
+  </si>
+  <si>
+    <t>8200.0</t>
+  </si>
+  <si>
+    <t>527.0</t>
+  </si>
+  <si>
+    <t>16.0</t>
+  </si>
+  <si>
+    <t>370000.0</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>Guyane</t>
+  </si>
+  <si>
+    <t>26.0</t>
+  </si>
+  <si>
+    <t>49.0</t>
+  </si>
+  <si>
+    <t>188.0</t>
+  </si>
+  <si>
+    <t>69.0</t>
+  </si>
+  <si>
+    <t>100.0</t>
+  </si>
+  <si>
+    <t>3767.0</t>
+  </si>
+  <si>
+    <t>6542.0</t>
+  </si>
+  <si>
+    <t>58.0</t>
+  </si>
+  <si>
+    <t>39.0</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>37.0</t>
+  </si>
+  <si>
+    <t>1850.0</t>
+  </si>
+  <si>
+    <t>436.0</t>
+  </si>
+  <si>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>270000.0</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>La Réunion</t>
+  </si>
+  <si>
+    <t>355.0</t>
+  </si>
+  <si>
+    <t>332.0</t>
+  </si>
+  <si>
+    <t>23.0</t>
+  </si>
+  <si>
+    <t>410.0</t>
+  </si>
+  <si>
+    <t>29.0</t>
+  </si>
+  <si>
+    <t>12944.0</t>
+  </si>
+  <si>
+    <t>19099.0</t>
+  </si>
+  <si>
+    <t>68.0</t>
+  </si>
+  <si>
+    <t>164.0</t>
+  </si>
+  <si>
+    <t>67.0</t>
+  </si>
+  <si>
+    <t>97.0</t>
+  </si>
+  <si>
+    <t>145.0</t>
+  </si>
+  <si>
+    <t>1273.0</t>
+  </si>
+  <si>
+    <t>850000.0</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>40.0</t>
+  </si>
+  <si>
+    <t>70.0</t>
+  </si>
+  <si>
+    <t>6428.0</t>
   </si>
   <si>
     <t>2022-01-31</t>
   </si>
   <si>
-    <t>2018-01-31</t>
-  </si>
-  <si>
-    <t>8362.0</t>
+    <t>2021-11-30</t>
+  </si>
+  <si>
+    <t>429.0</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Île-de-France</t>
+  </si>
+  <si>
+    <t>4785.0</t>
+  </si>
+  <si>
+    <t>3651.0</t>
+  </si>
+  <si>
+    <t>1134.0</t>
   </si>
   <si>
     <t>31.0</t>
   </si>
   <si>
-    <t>2022-06-30</t>
-  </si>
-  <si>
-    <t>primes et bonus</t>
-  </si>
-  <si>
-    <t>Nombre de bornes de recharge pour véhicules électriques déployées</t>
-  </si>
-  <si>
-    <t>nb-points-recharge</t>
+    <t>5104.0</t>
+  </si>
+  <si>
+    <t>78.0</t>
+  </si>
+  <si>
+    <t>Instaurer des zones à faibles émissions</t>
+  </si>
+  <si>
+    <t>Nombre d'habitants vivant à l'intérieur d'une zone à faibles émissions</t>
+  </si>
+  <si>
+    <t>nb-habitants-zfe</t>
+  </si>
+  <si>
+    <t>4839847.0</t>
+  </si>
+  <si>
+    <t>2187526.0</t>
+  </si>
+  <si>
+    <t>2652321.0</t>
+  </si>
+  <si>
+    <t>121.0</t>
+  </si>
+  <si>
+    <t>5279661.0</t>
+  </si>
+  <si>
+    <t>86.0</t>
+  </si>
+  <si>
+    <t>256726.0</t>
+  </si>
+  <si>
+    <t>274237.0</t>
+  </si>
+  <si>
+    <t>94.0</t>
+  </si>
+  <si>
+    <t>15054.0</t>
+  </si>
+  <si>
+    <t>3936.0</t>
+  </si>
+  <si>
+    <t>11118.0</t>
+  </si>
+  <si>
+    <t>282.0</t>
+  </si>
+  <si>
+    <t>18282.0</t>
+  </si>
+  <si>
+    <t>77.0</t>
+  </si>
+  <si>
+    <t>12180000.0</t>
+  </si>
+  <si>
+    <t>3320000.0</t>
+  </si>
+  <si>
+    <t>8860000.0</t>
+  </si>
+  <si>
+    <t>267.0</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Centre-Val de Loire</t>
+  </si>
+  <si>
+    <t>2844.0</t>
+  </si>
+  <si>
+    <t>1816.0</t>
+  </si>
+  <si>
+    <t>1028.0</t>
+  </si>
+  <si>
+    <t>2704.0</t>
+  </si>
+  <si>
+    <t>66457.0</t>
+  </si>
+  <si>
+    <t>57009.0</t>
+  </si>
+  <si>
+    <t>3040.0</t>
+  </si>
+  <si>
+    <t>1493.0</t>
+  </si>
+  <si>
+    <t>1547.0</t>
+  </si>
+  <si>
+    <t>104.0</t>
+  </si>
+  <si>
+    <t>3801.0</t>
+  </si>
+  <si>
+    <t>2570000.0</t>
+  </si>
+  <si>
+    <t>120000.0</t>
+  </si>
+  <si>
+    <t>2450000.0</t>
+  </si>
+  <si>
+    <t>2042.0</t>
+  </si>
+  <si>
+    <t>Plan de soutien aux petites lignes ferroviaires</t>
+  </si>
+  <si>
+    <t>Nombre de kilomètres de lignes rénovées</t>
+  </si>
+  <si>
+    <t>nb-km-lignes-regenerees</t>
+  </si>
+  <si>
+    <t>2017-01-31</t>
+  </si>
+  <si>
+    <t>93.0</t>
+  </si>
+  <si>
+    <t>76.0</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Bourgogne-Franche-Comté</t>
+  </si>
+  <si>
+    <t>3679.0</t>
+  </si>
+  <si>
+    <t>2992.0</t>
+  </si>
+  <si>
+    <t>687.0</t>
+  </si>
+  <si>
+    <t>3577.0</t>
+  </si>
+  <si>
+    <t>68623.0</t>
+  </si>
+  <si>
+    <t>61987.0</t>
+  </si>
+  <si>
+    <t>2846.0</t>
+  </si>
+  <si>
+    <t>1041.0</t>
+  </si>
+  <si>
+    <t>1805.0</t>
+  </si>
+  <si>
+    <t>173.0</t>
+  </si>
+  <si>
+    <t>4132.0</t>
+  </si>
+  <si>
+    <t>2810000.0</t>
+  </si>
+  <si>
+    <t>1010000.0</t>
+  </si>
+  <si>
+    <t>1800000.0</t>
+  </si>
+  <si>
+    <t>178.0</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Normandie</t>
+  </si>
+  <si>
+    <t>3571.0</t>
+  </si>
+  <si>
+    <t>2579.0</t>
+  </si>
+  <si>
+    <t>992.0</t>
+  </si>
+  <si>
+    <t>38.0</t>
+  </si>
+  <si>
+    <t>3405.0</t>
+  </si>
+  <si>
+    <t>257363.0</t>
+  </si>
+  <si>
+    <t>228894.0</t>
+  </si>
+  <si>
+    <t>97237.0</t>
+  </si>
+  <si>
+    <t>73553.0</t>
+  </si>
+  <si>
+    <t>3901.0</t>
+  </si>
+  <si>
+    <t>2166.0</t>
+  </si>
+  <si>
+    <t>1735.0</t>
+  </si>
+  <si>
+    <t>80.0</t>
+  </si>
+  <si>
+    <t>4904.0</t>
+  </si>
+  <si>
+    <t>63.0</t>
+  </si>
+  <si>
+    <t>1310000.0</t>
+  </si>
+  <si>
+    <t>2010000.0</t>
+  </si>
+  <si>
+    <t>153.0</t>
+  </si>
+  <si>
+    <t>34.0</t>
+  </si>
+  <si>
+    <t>42.0</t>
+  </si>
+  <si>
+    <t>81.0</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Hauts-de-France</t>
+  </si>
+  <si>
+    <t>5019.0</t>
+  </si>
+  <si>
+    <t>3515.0</t>
+  </si>
+  <si>
+    <t>1504.0</t>
+  </si>
+  <si>
+    <t>43.0</t>
+  </si>
+  <si>
+    <t>4778.0</t>
+  </si>
+  <si>
+    <t>155357.0</t>
+  </si>
+  <si>
+    <t>132986.0</t>
+  </si>
+  <si>
+    <t>6637.0</t>
+  </si>
+  <si>
+    <t>2335.0</t>
+  </si>
+  <si>
+    <t>4302.0</t>
+  </si>
+  <si>
+    <t>184.0</t>
+  </si>
+  <si>
+    <t>8866.0</t>
+  </si>
+  <si>
+    <t>66.0</t>
+  </si>
+  <si>
+    <t>4610000.0</t>
+  </si>
+  <si>
+    <t>950000.0</t>
+  </si>
+  <si>
+    <t>3660000.0</t>
+  </si>
+  <si>
+    <t>385.0</t>
+  </si>
+  <si>
+    <t>5990000.0</t>
+  </si>
+  <si>
+    <t>73.0</t>
+  </si>
+  <si>
+    <t>148.0</t>
+  </si>
+  <si>
+    <t>170.0</t>
+  </si>
+  <si>
+    <t>87.0</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Grand Est</t>
+  </si>
+  <si>
+    <t>7108.0</t>
+  </si>
+  <si>
+    <t>5340.0</t>
+  </si>
+  <si>
+    <t>1768.0</t>
   </si>
   <si>
     <t>33.0</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>2019-09-30</t>
-  </si>
-  <si>
-    <t>26.0</t>
-  </si>
-  <si>
-    <t>371.0</t>
-  </si>
-  <si>
-    <t>557.0</t>
-  </si>
-  <si>
-    <t>bornes de recharge</t>
-  </si>
-  <si>
-    <t>Mettre en œuvre la sortie du plastique à usage unique et lutter contre le gaspillage</t>
-  </si>
-  <si>
-    <t>Nombre de Français qui peuvent mettre tous les emballages dans le bac jaune</t>
-  </si>
-  <si>
-    <t>nb-francais-emballages-bac-jaune</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>2017-06-30</t>
-  </si>
-  <si>
-    <t>400000.0</t>
-  </si>
-  <si>
-    <t>2022-12-31</t>
-  </si>
-  <si>
-    <t>habitants</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>Martinique</t>
-  </si>
-  <si>
-    <t>8.0</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>14.0</t>
-  </si>
-  <si>
-    <t>71.0</t>
-  </si>
-  <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>2620.0</t>
-  </si>
-  <si>
-    <t>7900.0</t>
-  </si>
-  <si>
-    <t>73.0</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>6856.0</t>
+  </si>
+  <si>
+    <t>514089.0</t>
+  </si>
+  <si>
+    <t>228826.0</t>
+  </si>
+  <si>
+    <t>138657.0</t>
+  </si>
+  <si>
+    <t>122915.0</t>
+  </si>
+  <si>
+    <t>6604.0</t>
+  </si>
+  <si>
+    <t>1946.0</t>
+  </si>
+  <si>
+    <t>4658.0</t>
+  </si>
+  <si>
+    <t>239.0</t>
+  </si>
+  <si>
+    <t>8194.0</t>
+  </si>
+  <si>
+    <t>5550000.0</t>
+  </si>
+  <si>
+    <t>820000.0</t>
+  </si>
+  <si>
+    <t>4730000.0</t>
+  </si>
+  <si>
+    <t>577.0</t>
+  </si>
+  <si>
+    <t>138.0</t>
+  </si>
+  <si>
+    <t>192.0</t>
   </si>
   <si>
     <t>72.0</t>
   </si>
   <si>
-    <t>7200.0</t>
-  </si>
-  <si>
-    <t>527.0</t>
-  </si>
-  <si>
-    <t>380000.0</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>Guyane</t>
-  </si>
-  <si>
-    <t>76.0</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>50.0</t>
-  </si>
-  <si>
-    <t>192.0</t>
-  </si>
-  <si>
-    <t>69.0</t>
-  </si>
-  <si>
-    <t>100.0</t>
-  </si>
-  <si>
-    <t>307.0</t>
-  </si>
-  <si>
-    <t>6542.0</t>
-  </si>
-  <si>
-    <t>29.0</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>2020-06-30</t>
-  </si>
-  <si>
-    <t>27.0</t>
-  </si>
-  <si>
-    <t>1350.0</t>
-  </si>
-  <si>
-    <t>436.0</t>
-  </si>
-  <si>
-    <t>6.0</t>
-  </si>
-  <si>
-    <t>260000.0</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>La Réunion</t>
-  </si>
-  <si>
-    <t>392.0</t>
-  </si>
-  <si>
-    <t>332</t>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Pays de la Loire</t>
+  </si>
+  <si>
+    <t>4963.0</t>
+  </si>
+  <si>
+    <t>3359.0</t>
+  </si>
+  <si>
+    <t>1604.0</t>
+  </si>
+  <si>
+    <t>48.0</t>
+  </si>
+  <si>
+    <t>4840.0</t>
+  </si>
+  <si>
+    <t>114499.0</t>
+  </si>
+  <si>
+    <t>85389.0</t>
+  </si>
+  <si>
+    <t>3638.0</t>
+  </si>
+  <si>
+    <t>1461.0</t>
+  </si>
+  <si>
+    <t>2177.0</t>
+  </si>
+  <si>
+    <t>149.0</t>
+  </si>
+  <si>
+    <t>5693.0</t>
+  </si>
+  <si>
+    <t>51.0</t>
+  </si>
+  <si>
+    <t>3760000.0</t>
+  </si>
+  <si>
+    <t>1270000.0</t>
+  </si>
+  <si>
+    <t>2490000.0</t>
+  </si>
+  <si>
+    <t>196.0</t>
+  </si>
+  <si>
+    <t>141.0</t>
+  </si>
+  <si>
+    <t>144.0</t>
+  </si>
+  <si>
+    <t>98.0</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>Bretagne</t>
+  </si>
+  <si>
+    <t>4514.0</t>
+  </si>
+  <si>
+    <t>2843.0</t>
+  </si>
+  <si>
+    <t>1671.0</t>
+  </si>
+  <si>
+    <t>4084.0</t>
+  </si>
+  <si>
+    <t>103429.0</t>
+  </si>
+  <si>
+    <t>75004.0</t>
+  </si>
+  <si>
+    <t>3584.0</t>
+  </si>
+  <si>
+    <t>1736.0</t>
+  </si>
+  <si>
+    <t>1848.0</t>
+  </si>
+  <si>
+    <t>106.0</t>
+  </si>
+  <si>
+    <t>5000.0</t>
+  </si>
+  <si>
+    <t>1240000.0</t>
+  </si>
+  <si>
+    <t>2080000.0</t>
+  </si>
+  <si>
+    <t>168.0</t>
+  </si>
+  <si>
+    <t>111.0</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>Nouvelle-Aquitaine</t>
+  </si>
+  <si>
+    <t>7432.0</t>
+  </si>
+  <si>
+    <t>5548.0</t>
+  </si>
+  <si>
+    <t>1884.0</t>
+  </si>
+  <si>
+    <t>7424.0</t>
+  </si>
+  <si>
+    <t>177288.0</t>
+  </si>
+  <si>
+    <t>134372.0</t>
+  </si>
+  <si>
+    <t>7390.0</t>
+  </si>
+  <si>
+    <t>3084.0</t>
+  </si>
+  <si>
+    <t>4306.0</t>
+  </si>
+  <si>
+    <t>140.0</t>
+  </si>
+  <si>
+    <t>8958.0</t>
+  </si>
+  <si>
+    <t>5940000.0</t>
+  </si>
+  <si>
+    <t>2050000.0</t>
+  </si>
+  <si>
+    <t>3890000.0</t>
+  </si>
+  <si>
+    <t>190.0</t>
+  </si>
+  <si>
+    <t>200.0</t>
+  </si>
+  <si>
+    <t>232.0</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>Occitanie</t>
+  </si>
+  <si>
+    <t>5616.0</t>
+  </si>
+  <si>
+    <t>3826.0</t>
+  </si>
+  <si>
+    <t>1790.0</t>
+  </si>
+  <si>
+    <t>47.0</t>
+  </si>
+  <si>
+    <t>5378.0</t>
+  </si>
+  <si>
+    <t>822274.0</t>
+  </si>
+  <si>
+    <t>707740.0</t>
+  </si>
+  <si>
+    <t>191889.0</t>
+  </si>
+  <si>
+    <t>133170.0</t>
+  </si>
+  <si>
+    <t>7806.0</t>
+  </si>
+  <si>
+    <t>3374.0</t>
+  </si>
+  <si>
+    <t>4432.0</t>
+  </si>
+  <si>
+    <t>131.0</t>
+  </si>
+  <si>
+    <t>8878.0</t>
+  </si>
+  <si>
+    <t>5830000.0</t>
+  </si>
+  <si>
+    <t>1560000.0</t>
+  </si>
+  <si>
+    <t>4270000.0</t>
+  </si>
+  <si>
+    <t>274.0</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>Auvergne-Rhône-Alpes</t>
+  </si>
+  <si>
+    <t>5295.0</t>
+  </si>
+  <si>
+    <t>3809.0</t>
+  </si>
+  <si>
+    <t>1486.0</t>
+  </si>
+  <si>
+    <t>5103.0</t>
+  </si>
+  <si>
+    <t>1193324.0</t>
+  </si>
+  <si>
+    <t>1030199.0</t>
+  </si>
+  <si>
+    <t>221481.0</t>
+  </si>
+  <si>
+    <t>180043.0</t>
+  </si>
+  <si>
+    <t>9126.0</t>
+  </si>
+  <si>
+    <t>6042.0</t>
+  </si>
+  <si>
+    <t>12003.0</t>
+  </si>
+  <si>
+    <t>7950000.0</t>
+  </si>
+  <si>
+    <t>800000.0</t>
+  </si>
+  <si>
+    <t>7150000.0</t>
+  </si>
+  <si>
+    <t>894.0</t>
+  </si>
+  <si>
+    <t>209.0</t>
+  </si>
+  <si>
+    <t>189.0</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>Provence-Alpes-Côte d'Azur</t>
+  </si>
+  <si>
+    <t>2137.0</t>
+  </si>
+  <si>
+    <t>1322.0</t>
+  </si>
+  <si>
+    <t>815.0</t>
+  </si>
+  <si>
+    <t>62.0</t>
+  </si>
+  <si>
+    <t>1906.0</t>
+  </si>
+  <si>
+    <t>358100.0</t>
+  </si>
+  <si>
+    <t>1524680.0</t>
+  </si>
+  <si>
+    <t>150219.0</t>
+  </si>
+  <si>
+    <t>113234.0</t>
+  </si>
+  <si>
+    <t>6917.0</t>
+  </si>
+  <si>
+    <t>1966.0</t>
+  </si>
+  <si>
+    <t>4951.0</t>
+  </si>
+  <si>
+    <t>252.0</t>
+  </si>
+  <si>
+    <t>7549.0</t>
+  </si>
+  <si>
+    <t>89.0</t>
+  </si>
+  <si>
+    <t>5020000.0</t>
+  </si>
+  <si>
+    <t>1140000.0</t>
+  </si>
+  <si>
+    <t>3880000.0</t>
+  </si>
+  <si>
+    <t>340.0</t>
   </si>
   <si>
     <t>60.0</t>
   </si>
   <si>
-    <t>18.0</t>
-  </si>
-  <si>
-    <t>410.0</t>
-  </si>
-  <si>
-    <t>77.0</t>
-  </si>
-  <si>
-    <t>9150.0</t>
-  </si>
-  <si>
-    <t>19099.0</t>
-  </si>
-  <si>
-    <t>48.0</t>
-  </si>
-  <si>
-    <t>124.0</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>57.0</t>
-  </si>
-  <si>
-    <t>85.0</t>
-  </si>
-  <si>
-    <t>1273.0</t>
-  </si>
-  <si>
-    <t>850000.0</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>Mayotte</t>
-  </si>
-  <si>
-    <t>23.0</t>
-  </si>
-  <si>
-    <t>58.0</t>
-  </si>
-  <si>
-    <t>40.0</t>
-  </si>
-  <si>
-    <t>6428.0</t>
-  </si>
-  <si>
-    <t>2021-11-30</t>
-  </si>
-  <si>
-    <t>429.0</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Île-de-France</t>
-  </si>
-  <si>
-    <t>4640.0</t>
-  </si>
-  <si>
-    <t>3651.0</t>
-  </si>
-  <si>
-    <t>989.0</t>
-  </si>
-  <si>
-    <t>5104.0</t>
-  </si>
-  <si>
-    <t>68.0</t>
-  </si>
-  <si>
-    <t>Instaurer des zones à faibles émissions</t>
-  </si>
-  <si>
-    <t>Nombre d'habitants vivant à l'intérieur d'une zone à faibles émissions</t>
-  </si>
-  <si>
-    <t>nb-habitants-zfe</t>
-  </si>
-  <si>
-    <t>4754793.0</t>
-  </si>
-  <si>
-    <t>2022-02-28</t>
-  </si>
-  <si>
-    <t>2187526.0</t>
-  </si>
-  <si>
-    <t>2567267.0</t>
-  </si>
-  <si>
-    <t>117.0</t>
-  </si>
-  <si>
-    <t>5279661.0</t>
-  </si>
-  <si>
-    <t>83.0</t>
-  </si>
-  <si>
-    <t>186833.0</t>
-  </si>
-  <si>
-    <t>274237.0</t>
-  </si>
-  <si>
-    <t>10113.0</t>
-  </si>
-  <si>
-    <t>3936.0</t>
-  </si>
-  <si>
-    <t>6177.0</t>
-  </si>
-  <si>
-    <t>157.0</t>
-  </si>
-  <si>
-    <t>18282.0</t>
-  </si>
-  <si>
-    <t>43.0</t>
-  </si>
-  <si>
-    <t>9850000.0</t>
-  </si>
-  <si>
-    <t>3270000.0</t>
-  </si>
-  <si>
-    <t>6580000.0</t>
-  </si>
-  <si>
-    <t>201.0</t>
-  </si>
-  <si>
-    <t>12090000.0</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>Centre-Val de Loire</t>
-  </si>
-  <si>
-    <t>2740.0</t>
-  </si>
-  <si>
-    <t>1816.0</t>
-  </si>
-  <si>
-    <t>924.0</t>
-  </si>
-  <si>
-    <t>51.0</t>
-  </si>
-  <si>
-    <t>2704.0</t>
-  </si>
-  <si>
-    <t>53578.0</t>
-  </si>
-  <si>
-    <t>57009.0</t>
-  </si>
-  <si>
-    <t>94.0</t>
-  </si>
-  <si>
-    <t>2345.0</t>
-  </si>
-  <si>
-    <t>1493.0</t>
-  </si>
-  <si>
-    <t>852.0</t>
-  </si>
-  <si>
-    <t>3801.0</t>
-  </si>
-  <si>
-    <t>37.0</t>
-  </si>
-  <si>
-    <t>1000000.0</t>
-  </si>
-  <si>
-    <t>120000.0</t>
-  </si>
-  <si>
-    <t>880000.0</t>
-  </si>
-  <si>
-    <t>733.0</t>
-  </si>
-  <si>
-    <t>2560000.0</t>
-  </si>
-  <si>
-    <t>36.0</t>
-  </si>
-  <si>
-    <t>Plan de soutien aux petites lignes ferroviaires</t>
-  </si>
-  <si>
-    <t>Nombre de kilomètres de lignes rénovées</t>
-  </si>
-  <si>
-    <t>nb-km-lignes-regenerees</t>
-  </si>
-  <si>
-    <t>2017-01-31</t>
-  </si>
-  <si>
-    <t>93.0</t>
-  </si>
-  <si>
-    <t>39.0</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>Bourgogne-Franche-Comté</t>
-  </si>
-  <si>
-    <t>3593.0</t>
-  </si>
-  <si>
-    <t>2992.0</t>
-  </si>
-  <si>
-    <t>601.0</t>
-  </si>
-  <si>
-    <t>20.0</t>
-  </si>
-  <si>
-    <t>3577.0</t>
-  </si>
-  <si>
-    <t>56704.0</t>
-  </si>
-  <si>
-    <t>61987.0</t>
-  </si>
-  <si>
-    <t>91.0</t>
-  </si>
-  <si>
-    <t>2330.0</t>
-  </si>
-  <si>
-    <t>1041.0</t>
-  </si>
-  <si>
-    <t>1289.0</t>
-  </si>
-  <si>
-    <t>4132.0</t>
-  </si>
-  <si>
-    <t>42.0</t>
-  </si>
-  <si>
-    <t>1570000.0</t>
-  </si>
-  <si>
-    <t>1030000.0</t>
-  </si>
-  <si>
-    <t>540000.0</t>
-  </si>
-  <si>
-    <t>52.0</t>
-  </si>
-  <si>
-    <t>2820000.0</t>
-  </si>
-  <si>
-    <t>30.0</t>
-  </si>
-  <si>
-    <t>65.0</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>Normandie</t>
-  </si>
-  <si>
-    <t>3381.0</t>
-  </si>
-  <si>
-    <t>2579.0</t>
-  </si>
-  <si>
-    <t>802.0</t>
-  </si>
-  <si>
-    <t>3405.0</t>
-  </si>
-  <si>
-    <t>97.0</t>
-  </si>
-  <si>
-    <t>33467.0</t>
-  </si>
-  <si>
-    <t>228894.0</t>
-  </si>
-  <si>
-    <t>15.0</t>
-  </si>
-  <si>
-    <t>77218.0</t>
-  </si>
-  <si>
-    <t>73553.0</t>
-  </si>
-  <si>
-    <t>2868.0</t>
-  </si>
-  <si>
-    <t>2166.0</t>
-  </si>
-  <si>
-    <t>702.0</t>
-  </si>
-  <si>
-    <t>32.0</t>
-  </si>
-  <si>
-    <t>4904.0</t>
-  </si>
-  <si>
-    <t>2710000.0</t>
-  </si>
-  <si>
-    <t>1310000.0</t>
-  </si>
-  <si>
-    <t>1400000.0</t>
-  </si>
-  <si>
-    <t>107.0</t>
-  </si>
-  <si>
-    <t>3340000.0</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>Hauts-de-France</t>
-  </si>
-  <si>
-    <t>4615.0</t>
-  </si>
-  <si>
-    <t>3515.0</t>
-  </si>
-  <si>
-    <t>1100.0</t>
-  </si>
-  <si>
-    <t>4778.0</t>
-  </si>
-  <si>
-    <t>87.0</t>
-  </si>
-  <si>
-    <t>122997.0</t>
-  </si>
-  <si>
-    <t>132986.0</t>
-  </si>
-  <si>
-    <t>92.0</t>
-  </si>
-  <si>
-    <t>4590.0</t>
-  </si>
-  <si>
-    <t>2335.0</t>
-  </si>
-  <si>
-    <t>2255.0</t>
-  </si>
-  <si>
-    <t>8866.0</t>
-  </si>
-  <si>
-    <t>35.0</t>
-  </si>
-  <si>
-    <t>2400000.0</t>
-  </si>
-  <si>
-    <t>940000.0</t>
-  </si>
-  <si>
-    <t>1460000.0</t>
-  </si>
-  <si>
-    <t>155.0</t>
-  </si>
-  <si>
-    <t>6010000.0</t>
-  </si>
-  <si>
-    <t>140.0</t>
-  </si>
-  <si>
-    <t>170.0</t>
-  </si>
-  <si>
-    <t>82.0</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>Grand Est</t>
-  </si>
-  <si>
-    <t>6739.0</t>
-  </si>
-  <si>
-    <t>5340.0</t>
-  </si>
-  <si>
-    <t>1399.0</t>
-  </si>
-  <si>
-    <t>6856.0</t>
-  </si>
-  <si>
-    <t>26000.0</t>
-  </si>
-  <si>
-    <t>228826.0</t>
-  </si>
-  <si>
-    <t>11.0</t>
-  </si>
-  <si>
-    <t>109671.0</t>
-  </si>
-  <si>
-    <t>122915.0</t>
-  </si>
-  <si>
-    <t>89.0</t>
-  </si>
-  <si>
-    <t>4337.0</t>
-  </si>
-  <si>
-    <t>1946.0</t>
-  </si>
-  <si>
-    <t>2391.0</t>
-  </si>
-  <si>
-    <t>123.0</t>
-  </si>
-  <si>
-    <t>8194.0</t>
-  </si>
-  <si>
-    <t>38.0</t>
-  </si>
-  <si>
-    <t>2350000.0</t>
-  </si>
-  <si>
-    <t>830000.0</t>
-  </si>
-  <si>
-    <t>1520000.0</t>
-  </si>
-  <si>
-    <t>183.0</t>
-  </si>
-  <si>
-    <t>5550000.0</t>
-  </si>
-  <si>
-    <t>138.0</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>Pays de la Loire</t>
-  </si>
-  <si>
-    <t>4770.0</t>
-  </si>
-  <si>
-    <t>3359.0</t>
-  </si>
-  <si>
-    <t>1411.0</t>
-  </si>
-  <si>
-    <t>4840.0</t>
-  </si>
-  <si>
-    <t>95.0</t>
-  </si>
-  <si>
-    <t>95269.0</t>
-  </si>
-  <si>
-    <t>85389.0</t>
-  </si>
-  <si>
-    <t>2369.0</t>
-  </si>
-  <si>
-    <t>1461.0</t>
-  </si>
-  <si>
-    <t>908.0</t>
-  </si>
-  <si>
-    <t>62.0</t>
-  </si>
-  <si>
-    <t>5693.0</t>
-  </si>
-  <si>
-    <t>21.0</t>
-  </si>
-  <si>
-    <t>3700000.0</t>
-  </si>
-  <si>
-    <t>1270000.0</t>
-  </si>
-  <si>
-    <t>2430000.0</t>
-  </si>
-  <si>
-    <t>191.0</t>
-  </si>
-  <si>
-    <t>3730000.0</t>
-  </si>
-  <si>
-    <t>99.0</t>
-  </si>
-  <si>
-    <t>139.0</t>
-  </si>
-  <si>
-    <t>144.0</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>Bretagne</t>
-  </si>
-  <si>
-    <t>4252.0</t>
-  </si>
-  <si>
-    <t>2843.0</t>
-  </si>
-  <si>
-    <t>1409.0</t>
-  </si>
-  <si>
-    <t>4084.0</t>
-  </si>
-  <si>
-    <t>86036.0</t>
-  </si>
-  <si>
-    <t>75004.0</t>
-  </si>
-  <si>
-    <t>2697.0</t>
-  </si>
-  <si>
-    <t>1736.0</t>
-  </si>
-  <si>
-    <t>961.0</t>
-  </si>
-  <si>
-    <t>55.0</t>
-  </si>
-  <si>
-    <t>5000.0</t>
-  </si>
-  <si>
-    <t>2550000.0</t>
-  </si>
-  <si>
-    <t>1240000.0</t>
-  </si>
-  <si>
-    <t>106.0</t>
-  </si>
-  <si>
-    <t>3290000.0</t>
-  </si>
-  <si>
-    <t>64.0</t>
-  </si>
-  <si>
-    <t>111.0</t>
-  </si>
-  <si>
-    <t>80.0</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>Nouvelle-Aquitaine</t>
-  </si>
-  <si>
-    <t>7190.0</t>
-  </si>
-  <si>
-    <t>5548.0</t>
-  </si>
-  <si>
-    <t>1642.0</t>
-  </si>
-  <si>
-    <t>7424.0</t>
-  </si>
-  <si>
-    <t>88.0</t>
-  </si>
-  <si>
-    <t>143764.0</t>
-  </si>
-  <si>
-    <t>134372.0</t>
-  </si>
-  <si>
-    <t>5453.0</t>
-  </si>
-  <si>
-    <t>3084.0</t>
-  </si>
-  <si>
-    <t>8958.0</t>
-  </si>
-  <si>
-    <t>2050000.0</t>
-  </si>
-  <si>
-    <t>1650000.0</t>
-  </si>
-  <si>
-    <t>5900000.0</t>
-  </si>
-  <si>
-    <t>180.0</t>
-  </si>
-  <si>
-    <t>232.0</t>
-  </si>
-  <si>
-    <t>78.0</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>Occitanie</t>
-  </si>
-  <si>
-    <t>5248.0</t>
-  </si>
-  <si>
-    <t>3826.0</t>
-  </si>
-  <si>
-    <t>1422.0</t>
-  </si>
-  <si>
-    <t>5378.0</t>
-  </si>
-  <si>
-    <t>430000.0</t>
-  </si>
-  <si>
-    <t>707740.0</t>
-  </si>
-  <si>
-    <t>61.0</t>
-  </si>
-  <si>
-    <t>153659.0</t>
-  </si>
-  <si>
-    <t>133170.0</t>
-  </si>
-  <si>
-    <t>5141.0</t>
-  </si>
-  <si>
-    <t>3374.0</t>
-  </si>
-  <si>
-    <t>1767.0</t>
-  </si>
-  <si>
-    <t>8878.0</t>
-  </si>
-  <si>
-    <t>3430000.0</t>
-  </si>
-  <si>
-    <t>1560000.0</t>
-  </si>
-  <si>
-    <t>1870000.0</t>
-  </si>
-  <si>
-    <t>120.0</t>
-  </si>
-  <si>
-    <t>5790000.0</t>
-  </si>
-  <si>
-    <t>44.0</t>
-  </si>
-  <si>
-    <t>145.0</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>Auvergne-Rhône-Alpes</t>
-  </si>
-  <si>
-    <t>5004.0</t>
-  </si>
-  <si>
-    <t>3809.0</t>
-  </si>
-  <si>
-    <t>1195.0</t>
-  </si>
-  <si>
-    <t>5103.0</t>
-  </si>
-  <si>
-    <t>1337272.0</t>
-  </si>
-  <si>
-    <t>1030199.0</t>
-  </si>
-  <si>
-    <t>176440.0</t>
-  </si>
-  <si>
-    <t>180043.0</t>
-  </si>
-  <si>
-    <t>98.0</t>
-  </si>
-  <si>
-    <t>5937.0</t>
-  </si>
-  <si>
-    <t>2853.0</t>
-  </si>
-  <si>
-    <t>12003.0</t>
-  </si>
-  <si>
-    <t>4550000.0</t>
-  </si>
-  <si>
-    <t>790000.0</t>
-  </si>
-  <si>
-    <t>3760000.0</t>
-  </si>
-  <si>
-    <t>476.0</t>
-  </si>
-  <si>
-    <t>7870000.0</t>
-  </si>
-  <si>
-    <t>53.0</t>
-  </si>
-  <si>
-    <t>189.0</t>
-  </si>
-  <si>
     <t>74.0</t>
   </si>
   <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>Provence-Alpes-Côte d'Azur</t>
-  </si>
-  <si>
-    <t>1968.0</t>
-  </si>
-  <si>
-    <t>1322.0</t>
-  </si>
-  <si>
-    <t>646.0</t>
-  </si>
-  <si>
-    <t>49.0</t>
-  </si>
-  <si>
-    <t>1906.0</t>
-  </si>
-  <si>
-    <t>36000.0</t>
-  </si>
-  <si>
-    <t>1524680.0</t>
-  </si>
-  <si>
-    <t>115222.0</t>
-  </si>
-  <si>
-    <t>113234.0</t>
-  </si>
-  <si>
-    <t>4923.0</t>
-  </si>
-  <si>
-    <t>1966.0</t>
-  </si>
-  <si>
-    <t>2957.0</t>
-  </si>
-  <si>
-    <t>150.0</t>
-  </si>
-  <si>
-    <t>7549.0</t>
-  </si>
-  <si>
-    <t>3140000.0</t>
-  </si>
-  <si>
-    <t>1140000.0</t>
-  </si>
-  <si>
-    <t>2000000.0</t>
-  </si>
-  <si>
-    <t>175.0</t>
-  </si>
-  <si>
-    <t>5010000.0</t>
-  </si>
-  <si>
-    <t>81.0</t>
-  </si>
-  <si>
     <t>94</t>
   </si>
   <si>
     <t>Corse</t>
   </si>
   <si>
-    <t>54.0</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>184.0</t>
-  </si>
-  <si>
-    <t>70.0</t>
-  </si>
-  <si>
-    <t>7333.0</t>
+    <t>19.0</t>
+  </si>
+  <si>
+    <t>179.0</t>
+  </si>
+  <si>
+    <t>11002.0</t>
   </si>
   <si>
     <t>7771.0</t>
   </si>
   <si>
-    <t>305.0</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>257.0</t>
-  </si>
-  <si>
-    <t>535.0</t>
+    <t>443.0</t>
+  </si>
+  <si>
+    <t>395.0</t>
+  </si>
+  <si>
+    <t>823.0</t>
   </si>
   <si>
     <t>518.0</t>
   </si>
   <si>
-    <t>320000.0</t>
+    <t>84.0</t>
+  </si>
+  <si>
+    <t>340000.0</t>
   </si>
 </sst>
 </file>
@@ -1685,28 +1628,28 @@
         <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
         <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
         <v>31</v>
       </c>
       <c r="L3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" t="s">
         <v>34</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>35</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>36</v>
-      </c>
-      <c r="O3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1714,10 +1657,10 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
         <v>38</v>
-      </c>
-      <c r="C4" t="s">
-        <v>39</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
@@ -1726,45 +1669,45 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" t="s">
         <v>40</v>
       </c>
-      <c r="G4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>41</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>42</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>43</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
         <v>44</v>
-      </c>
-      <c r="L4" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" t="s">
-        <v>25</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
         <v>47</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>48</v>
-      </c>
-      <c r="C5" t="s">
-        <v>49</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -1773,7 +1716,7 @@
         <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
         <v>21</v>
@@ -1782,22 +1725,22 @@
         <v>22</v>
       </c>
       <c r="I5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" t="s">
         <v>51</v>
-      </c>
-      <c r="J5" t="s">
-        <v>50</v>
-      </c>
-      <c r="L5" t="s">
-        <v>52</v>
-      </c>
-      <c r="M5" t="s">
-        <v>50</v>
-      </c>
-      <c r="N5" t="s">
-        <v>53</v>
-      </c>
-      <c r="O5" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1871,34 +1814,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="E2" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="F2" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="K2" t="s">
-        <v>35</v>
+        <v>209</v>
       </c>
       <c r="L2" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="M2" t="s">
-        <v>220</v>
+        <v>75</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -1918,37 +1861,37 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="E3" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="F3" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
         <v>32</v>
       </c>
-      <c r="H3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" t="s">
-        <v>33</v>
-      </c>
       <c r="J3" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="L3" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="M3" t="s">
-        <v>223</v>
+        <v>75</v>
       </c>
       <c r="N3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" t="s">
         <v>36</v>
-      </c>
-      <c r="O3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1956,134 +1899,134 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
       <c r="D4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E4" t="s">
+        <v>205</v>
+      </c>
+      <c r="F4" t="s">
+        <v>213</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
         <v>214</v>
       </c>
-      <c r="E4" t="s">
+      <c r="I4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" t="s">
         <v>215</v>
       </c>
-      <c r="F4" t="s">
-        <v>224</v>
-      </c>
-      <c r="G4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" t="s">
-        <v>225</v>
-      </c>
-      <c r="I4" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" t="s">
-        <v>226</v>
-      </c>
       <c r="K4" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="L4" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="M4" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
         <v>47</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>48</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E5" t="s">
+        <v>205</v>
+      </c>
+      <c r="F5" t="s">
+        <v>219</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>220</v>
+      </c>
+      <c r="I5" t="s">
         <v>49</v>
       </c>
-      <c r="D5" t="s">
-        <v>214</v>
-      </c>
-      <c r="E5" t="s">
-        <v>215</v>
-      </c>
-      <c r="F5" t="s">
-        <v>229</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" t="s">
-        <v>230</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
+        <v>221</v>
+      </c>
+      <c r="K5" t="s">
+        <v>222</v>
+      </c>
+      <c r="L5" t="s">
+        <v>223</v>
+      </c>
+      <c r="M5" t="s">
+        <v>224</v>
+      </c>
+      <c r="N5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" t="s">
         <v>51</v>
-      </c>
-      <c r="J5" t="s">
-        <v>231</v>
-      </c>
-      <c r="K5" t="s">
-        <v>232</v>
-      </c>
-      <c r="L5" t="s">
-        <v>233</v>
-      </c>
-      <c r="M5" t="s">
-        <v>80</v>
-      </c>
-      <c r="N5" t="s">
-        <v>53</v>
-      </c>
-      <c r="O5" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B6" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C6" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D6" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="E6" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="F6" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="G6" t="s">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="I6" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="J6" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="L6" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="M6" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="N6" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="O6" t="s">
         <v>27</v>
@@ -2160,34 +2103,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="E2" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="F2" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="K2" t="s">
-        <v>43</v>
+        <v>233</v>
       </c>
       <c r="L2" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="M2" t="s">
-        <v>223</v>
+        <v>75</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -2198,46 +2141,46 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" t="s">
         <v>120</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>121</v>
       </c>
-      <c r="C3" t="s">
-        <v>122</v>
-      </c>
       <c r="D3" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="E3" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="F3" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="G3" t="s">
-        <v>124</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="L3" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="M3" t="s">
-        <v>245</v>
+        <v>75</v>
       </c>
       <c r="N3" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="O3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -2251,37 +2194,37 @@
         <v>30</v>
       </c>
       <c r="D4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E4" t="s">
+        <v>229</v>
+      </c>
+      <c r="F4" t="s">
         <v>237</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" t="s">
+        <v>237</v>
+      </c>
+      <c r="L4" t="s">
         <v>238</v>
       </c>
-      <c r="F4" t="s">
-        <v>246</v>
-      </c>
-      <c r="G4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" t="s">
-        <v>246</v>
-      </c>
-      <c r="L4" t="s">
-        <v>247</v>
-      </c>
       <c r="M4" t="s">
-        <v>248</v>
+        <v>75</v>
       </c>
       <c r="N4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" t="s">
         <v>36</v>
-      </c>
-      <c r="O4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -2289,134 +2232,134 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
         <v>38</v>
       </c>
-      <c r="C5" t="s">
-        <v>39</v>
-      </c>
       <c r="D5" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="E5" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="F5" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="I5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J5" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="K5" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="L5" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="M5" t="s">
-        <v>254</v>
+        <v>24</v>
       </c>
       <c r="N5" t="s">
         <v>26</v>
       </c>
       <c r="O5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
         <v>47</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>48</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>228</v>
+      </c>
+      <c r="E6" t="s">
+        <v>229</v>
+      </c>
+      <c r="F6" t="s">
+        <v>244</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s">
+        <v>245</v>
+      </c>
+      <c r="I6" t="s">
         <v>49</v>
       </c>
-      <c r="D6" t="s">
-        <v>237</v>
-      </c>
-      <c r="E6" t="s">
-        <v>238</v>
-      </c>
-      <c r="F6" t="s">
-        <v>255</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" t="s">
-        <v>256</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
+        <v>246</v>
+      </c>
+      <c r="K6" t="s">
+        <v>247</v>
+      </c>
+      <c r="L6" t="s">
+        <v>244</v>
+      </c>
+      <c r="M6" t="s">
+        <v>75</v>
+      </c>
+      <c r="N6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" t="s">
         <v>51</v>
-      </c>
-      <c r="J6" t="s">
-        <v>257</v>
-      </c>
-      <c r="K6" t="s">
-        <v>258</v>
-      </c>
-      <c r="L6" t="s">
-        <v>259</v>
-      </c>
-      <c r="M6" t="s">
-        <v>207</v>
-      </c>
-      <c r="N6" t="s">
-        <v>53</v>
-      </c>
-      <c r="O6" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D7" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="E7" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="F7" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="G7" t="s">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="H7" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="I7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="J7" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="L7" t="s">
-        <v>75</v>
+        <v>249</v>
       </c>
       <c r="M7" t="s">
-        <v>66</v>
+        <v>250</v>
       </c>
       <c r="N7" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="O7" t="s">
         <v>27</v>
@@ -2493,34 +2436,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="E2" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="F2" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="K2" t="s">
-        <v>184</v>
+        <v>256</v>
       </c>
       <c r="L2" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="M2" t="s">
-        <v>267</v>
+        <v>75</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -2540,37 +2483,37 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="E3" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="F3" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
         <v>32</v>
       </c>
-      <c r="H3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" t="s">
-        <v>33</v>
-      </c>
       <c r="J3" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="L3" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="M3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" t="s">
         <v>36</v>
-      </c>
-      <c r="O3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -2578,134 +2521,134 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
       <c r="D4" t="s">
+        <v>251</v>
+      </c>
+      <c r="E4" t="s">
+        <v>252</v>
+      </c>
+      <c r="F4" t="s">
+        <v>260</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
         <v>261</v>
       </c>
-      <c r="E4" t="s">
+      <c r="I4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" t="s">
         <v>262</v>
       </c>
-      <c r="F4" t="s">
-        <v>270</v>
-      </c>
-      <c r="G4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" t="s">
-        <v>271</v>
-      </c>
-      <c r="I4" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" t="s">
-        <v>272</v>
-      </c>
       <c r="K4" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="L4" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="M4" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
         <v>47</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>48</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>251</v>
+      </c>
+      <c r="E5" t="s">
+        <v>252</v>
+      </c>
+      <c r="F5" t="s">
+        <v>266</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>267</v>
+      </c>
+      <c r="I5" t="s">
         <v>49</v>
       </c>
-      <c r="D5" t="s">
-        <v>261</v>
-      </c>
-      <c r="E5" t="s">
-        <v>262</v>
-      </c>
-      <c r="F5" t="s">
-        <v>276</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" t="s">
-        <v>277</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
+        <v>268</v>
+      </c>
+      <c r="K5" t="s">
+        <v>269</v>
+      </c>
+      <c r="L5" t="s">
+        <v>266</v>
+      </c>
+      <c r="M5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" t="s">
         <v>51</v>
-      </c>
-      <c r="J5" t="s">
-        <v>278</v>
-      </c>
-      <c r="K5" t="s">
-        <v>279</v>
-      </c>
-      <c r="L5" t="s">
-        <v>280</v>
-      </c>
-      <c r="M5" t="s">
-        <v>281</v>
-      </c>
-      <c r="N5" t="s">
-        <v>53</v>
-      </c>
-      <c r="O5" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B6" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C6" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D6" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="E6" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="F6" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="G6" t="s">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="I6" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="J6" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="L6" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="M6" t="s">
-        <v>198</v>
+        <v>272</v>
       </c>
       <c r="N6" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="O6" t="s">
         <v>27</v>
@@ -2782,34 +2725,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="E2" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="F2" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="K2" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="L2" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="M2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -2829,37 +2772,37 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="E3" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="F3" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
         <v>32</v>
       </c>
-      <c r="H3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" t="s">
-        <v>33</v>
-      </c>
       <c r="J3" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="L3" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="M3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" t="s">
         <v>36</v>
-      </c>
-      <c r="O3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -2867,134 +2810,134 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
       <c r="D4" t="s">
+        <v>273</v>
+      </c>
+      <c r="E4" t="s">
+        <v>274</v>
+      </c>
+      <c r="F4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>282</v>
+      </c>
+      <c r="I4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" t="s">
+        <v>283</v>
+      </c>
+      <c r="K4" t="s">
         <v>284</v>
       </c>
-      <c r="E4" t="s">
+      <c r="L4" t="s">
         <v>285</v>
       </c>
-      <c r="F4" t="s">
-        <v>292</v>
-      </c>
-      <c r="G4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" t="s">
-        <v>293</v>
-      </c>
-      <c r="I4" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" t="s">
-        <v>294</v>
-      </c>
-      <c r="K4" t="s">
-        <v>295</v>
-      </c>
-      <c r="L4" t="s">
-        <v>296</v>
-      </c>
       <c r="M4" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
         <v>47</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>48</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>273</v>
+      </c>
+      <c r="E5" t="s">
+        <v>274</v>
+      </c>
+      <c r="F5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>286</v>
+      </c>
+      <c r="I5" t="s">
         <v>49</v>
       </c>
-      <c r="D5" t="s">
-        <v>284</v>
-      </c>
-      <c r="E5" t="s">
-        <v>285</v>
-      </c>
-      <c r="F5" t="s">
-        <v>297</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" t="s">
-        <v>298</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
+        <v>287</v>
+      </c>
+      <c r="K5" t="s">
+        <v>288</v>
+      </c>
+      <c r="L5" t="s">
+        <v>138</v>
+      </c>
+      <c r="M5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" t="s">
         <v>51</v>
-      </c>
-      <c r="J5" t="s">
-        <v>210</v>
-      </c>
-      <c r="K5" t="s">
-        <v>299</v>
-      </c>
-      <c r="L5" t="s">
-        <v>300</v>
-      </c>
-      <c r="M5" t="s">
-        <v>301</v>
-      </c>
-      <c r="N5" t="s">
-        <v>53</v>
-      </c>
-      <c r="O5" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B6" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C6" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D6" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="E6" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="F6" t="s">
-        <v>248</v>
+        <v>99</v>
       </c>
       <c r="G6" t="s">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="I6" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="J6" t="s">
-        <v>248</v>
+        <v>99</v>
       </c>
       <c r="L6" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="M6" t="s">
-        <v>303</v>
+        <v>227</v>
       </c>
       <c r="N6" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="O6" t="s">
         <v>27</v>
@@ -3071,34 +3014,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="E2" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="F2" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="K2" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="L2" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="M2" t="s">
-        <v>310</v>
+        <v>75</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -3118,37 +3061,37 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="E3" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="F3" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
         <v>32</v>
       </c>
-      <c r="H3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" t="s">
-        <v>33</v>
-      </c>
       <c r="J3" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="L3" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="M3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" t="s">
         <v>36</v>
-      </c>
-      <c r="O3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -3156,134 +3099,134 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
       <c r="D4" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="E4" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="F4" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="I4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J4" t="s">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="K4" t="s">
-        <v>95</v>
+        <v>301</v>
       </c>
       <c r="L4" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="M4" t="s">
-        <v>109</v>
+        <v>224</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
         <v>47</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>48</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>290</v>
+      </c>
+      <c r="E5" t="s">
+        <v>291</v>
+      </c>
+      <c r="F5" t="s">
+        <v>303</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>304</v>
+      </c>
+      <c r="I5" t="s">
         <v>49</v>
       </c>
-      <c r="D5" t="s">
-        <v>304</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="J5" t="s">
         <v>305</v>
       </c>
-      <c r="F5" t="s">
-        <v>276</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" t="s">
-        <v>316</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
+        <v>306</v>
+      </c>
+      <c r="L5" t="s">
+        <v>303</v>
+      </c>
+      <c r="M5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" t="s">
         <v>51</v>
-      </c>
-      <c r="J5" t="s">
-        <v>317</v>
-      </c>
-      <c r="K5" t="s">
-        <v>303</v>
-      </c>
-      <c r="L5" t="s">
-        <v>318</v>
-      </c>
-      <c r="M5" t="s">
-        <v>137</v>
-      </c>
-      <c r="N5" t="s">
-        <v>53</v>
-      </c>
-      <c r="O5" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B6" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C6" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D6" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="E6" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="F6" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="G6" t="s">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="I6" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="J6" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="L6" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="M6" t="s">
-        <v>321</v>
+        <v>127</v>
       </c>
       <c r="N6" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="O6" t="s">
         <v>27</v>
@@ -3360,34 +3303,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="E2" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="F2" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="K2" t="s">
-        <v>157</v>
+        <v>314</v>
       </c>
       <c r="L2" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="M2" t="s">
-        <v>223</v>
+        <v>75</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -3398,46 +3341,46 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" t="s">
         <v>120</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>121</v>
       </c>
-      <c r="C3" t="s">
-        <v>122</v>
-      </c>
       <c r="D3" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="E3" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="F3" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="G3" t="s">
-        <v>124</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="L3" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="M3" t="s">
-        <v>330</v>
+        <v>75</v>
       </c>
       <c r="N3" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="O3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -3451,37 +3394,37 @@
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="E4" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="F4" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
         <v>32</v>
       </c>
-      <c r="H4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" t="s">
-        <v>33</v>
-      </c>
       <c r="J4" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="L4" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="M4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" t="s">
         <v>36</v>
-      </c>
-      <c r="O4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -3489,134 +3432,134 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
         <v>38</v>
       </c>
-      <c r="C5" t="s">
-        <v>39</v>
-      </c>
       <c r="D5" t="s">
+        <v>309</v>
+      </c>
+      <c r="E5" t="s">
+        <v>310</v>
+      </c>
+      <c r="F5" t="s">
+        <v>320</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>321</v>
+      </c>
+      <c r="I5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" t="s">
         <v>322</v>
       </c>
-      <c r="E5" t="s">
+      <c r="K5" t="s">
         <v>323</v>
       </c>
-      <c r="F5" t="s">
-        <v>333</v>
-      </c>
-      <c r="G5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" t="s">
-        <v>334</v>
-      </c>
-      <c r="I5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" t="s">
-        <v>335</v>
-      </c>
-      <c r="K5" t="s">
-        <v>188</v>
-      </c>
       <c r="L5" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="M5" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="N5" t="s">
         <v>26</v>
       </c>
       <c r="O5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
         <v>47</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>48</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>309</v>
+      </c>
+      <c r="E6" t="s">
+        <v>310</v>
+      </c>
+      <c r="F6" t="s">
+        <v>325</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s">
+        <v>326</v>
+      </c>
+      <c r="I6" t="s">
         <v>49</v>
       </c>
-      <c r="D6" t="s">
-        <v>322</v>
-      </c>
-      <c r="E6" t="s">
-        <v>323</v>
-      </c>
-      <c r="F6" t="s">
-        <v>337</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" t="s">
-        <v>338</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
+        <v>327</v>
+      </c>
+      <c r="K6" t="s">
+        <v>328</v>
+      </c>
+      <c r="L6" t="s">
+        <v>325</v>
+      </c>
+      <c r="M6" t="s">
+        <v>75</v>
+      </c>
+      <c r="N6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" t="s">
         <v>51</v>
-      </c>
-      <c r="J6" t="s">
-        <v>339</v>
-      </c>
-      <c r="K6" t="s">
-        <v>340</v>
-      </c>
-      <c r="L6" t="s">
-        <v>341</v>
-      </c>
-      <c r="M6" t="s">
-        <v>342</v>
-      </c>
-      <c r="N6" t="s">
-        <v>53</v>
-      </c>
-      <c r="O6" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D7" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="E7" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="F7" t="s">
-        <v>248</v>
+        <v>284</v>
       </c>
       <c r="G7" t="s">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="H7" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="I7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="J7" t="s">
-        <v>248</v>
+        <v>284</v>
       </c>
       <c r="L7" t="s">
-        <v>343</v>
+        <v>100</v>
       </c>
       <c r="M7" t="s">
-        <v>330</v>
+        <v>224</v>
       </c>
       <c r="N7" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="O7" t="s">
         <v>27</v>
@@ -3693,34 +3636,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="E2" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="F2" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="K2" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="M2" t="s">
-        <v>223</v>
+        <v>75</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -3731,46 +3674,46 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" t="s">
         <v>120</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>121</v>
       </c>
-      <c r="C3" t="s">
-        <v>122</v>
-      </c>
       <c r="D3" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="E3" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="F3" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="G3" t="s">
-        <v>124</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="L3" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="M3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N3" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="O3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -3784,37 +3727,37 @@
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="E4" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="F4" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
         <v>32</v>
       </c>
-      <c r="H4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" t="s">
-        <v>33</v>
-      </c>
       <c r="J4" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="L4" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="M4" t="s">
-        <v>354</v>
+        <v>75</v>
       </c>
       <c r="N4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" t="s">
         <v>36</v>
-      </c>
-      <c r="O4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -3822,134 +3765,134 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
         <v>38</v>
       </c>
-      <c r="C5" t="s">
-        <v>39</v>
-      </c>
       <c r="D5" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="E5" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="F5" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="I5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J5" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="K5" t="s">
-        <v>168</v>
+        <v>269</v>
       </c>
       <c r="L5" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="M5" t="s">
-        <v>207</v>
+        <v>96</v>
       </c>
       <c r="N5" t="s">
         <v>26</v>
       </c>
       <c r="O5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
         <v>47</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>48</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>329</v>
+      </c>
+      <c r="E6" t="s">
+        <v>330</v>
+      </c>
+      <c r="F6" t="s">
+        <v>342</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s">
+        <v>343</v>
+      </c>
+      <c r="I6" t="s">
         <v>49</v>
       </c>
-      <c r="D6" t="s">
+      <c r="J6" t="s">
         <v>344</v>
       </c>
-      <c r="E6" t="s">
+      <c r="K6" t="s">
         <v>345</v>
       </c>
-      <c r="F6" t="s">
-        <v>358</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" t="s">
-        <v>359</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="L6" t="s">
+        <v>342</v>
+      </c>
+      <c r="M6" t="s">
+        <v>75</v>
+      </c>
+      <c r="N6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" t="s">
         <v>51</v>
-      </c>
-      <c r="J6" t="s">
-        <v>360</v>
-      </c>
-      <c r="K6" t="s">
-        <v>361</v>
-      </c>
-      <c r="L6" t="s">
-        <v>362</v>
-      </c>
-      <c r="M6" t="s">
-        <v>363</v>
-      </c>
-      <c r="N6" t="s">
-        <v>53</v>
-      </c>
-      <c r="O6" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D7" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="E7" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="F7" t="s">
-        <v>282</v>
+        <v>346</v>
       </c>
       <c r="G7" t="s">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="H7" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="I7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="J7" t="s">
-        <v>282</v>
+        <v>346</v>
       </c>
       <c r="L7" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="M7" t="s">
-        <v>365</v>
+        <v>75</v>
       </c>
       <c r="N7" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="O7" t="s">
         <v>27</v>
@@ -4026,34 +3969,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="E2" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="F2" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="K2" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="L2" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="M2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -4064,46 +4007,46 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" t="s">
         <v>120</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>121</v>
       </c>
-      <c r="C3" t="s">
-        <v>122</v>
-      </c>
       <c r="D3" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="E3" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="F3" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="G3" t="s">
-        <v>124</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="L3" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="M3" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="N3" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="O3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -4117,37 +4060,37 @@
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="E4" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="F4" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
         <v>32</v>
       </c>
-      <c r="H4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" t="s">
-        <v>33</v>
-      </c>
       <c r="J4" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="L4" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="M4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" t="s">
         <v>36</v>
-      </c>
-      <c r="O4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -4155,134 +4098,134 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
         <v>38</v>
       </c>
-      <c r="C5" t="s">
-        <v>39</v>
-      </c>
       <c r="D5" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="E5" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="F5" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="I5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J5" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="K5" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="L5" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M5" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N5" t="s">
         <v>26</v>
       </c>
       <c r="O5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
         <v>47</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>48</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>348</v>
+      </c>
+      <c r="E6" t="s">
+        <v>349</v>
+      </c>
+      <c r="F6" t="s">
+        <v>365</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s">
+        <v>366</v>
+      </c>
+      <c r="I6" t="s">
         <v>49</v>
       </c>
-      <c r="D6" t="s">
-        <v>366</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="J6" t="s">
         <v>367</v>
       </c>
-      <c r="F6" t="s">
-        <v>382</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" t="s">
-        <v>383</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
+        <v>368</v>
+      </c>
+      <c r="L6" t="s">
+        <v>365</v>
+      </c>
+      <c r="M6" t="s">
+        <v>75</v>
+      </c>
+      <c r="N6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" t="s">
         <v>51</v>
-      </c>
-      <c r="J6" t="s">
-        <v>384</v>
-      </c>
-      <c r="K6" t="s">
-        <v>385</v>
-      </c>
-      <c r="L6" t="s">
-        <v>386</v>
-      </c>
-      <c r="M6" t="s">
-        <v>188</v>
-      </c>
-      <c r="N6" t="s">
-        <v>53</v>
-      </c>
-      <c r="O6" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D7" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="E7" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="F7" t="s">
-        <v>295</v>
+        <v>369</v>
       </c>
       <c r="G7" t="s">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="H7" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="I7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="J7" t="s">
-        <v>295</v>
+        <v>369</v>
       </c>
       <c r="L7" t="s">
-        <v>387</v>
+        <v>203</v>
       </c>
       <c r="M7" t="s">
-        <v>119</v>
+        <v>370</v>
       </c>
       <c r="N7" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="O7" t="s">
         <v>27</v>
@@ -4359,34 +4302,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>388</v>
+        <v>371</v>
       </c>
       <c r="E2" t="s">
-        <v>389</v>
+        <v>372</v>
       </c>
       <c r="F2" t="s">
-        <v>390</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="K2" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="L2" t="s">
-        <v>393</v>
+        <v>106</v>
       </c>
       <c r="M2" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -4406,37 +4349,37 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>388</v>
+        <v>371</v>
       </c>
       <c r="E3" t="s">
-        <v>389</v>
+        <v>372</v>
       </c>
       <c r="F3" t="s">
-        <v>394</v>
+        <v>375</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
         <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>394</v>
+        <v>375</v>
       </c>
       <c r="L3" t="s">
-        <v>395</v>
+        <v>376</v>
       </c>
       <c r="M3" t="s">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="N3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" t="s">
         <v>36</v>
-      </c>
-      <c r="O3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -4444,66 +4387,66 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
       <c r="D4" t="s">
-        <v>388</v>
+        <v>371</v>
       </c>
       <c r="E4" t="s">
-        <v>389</v>
+        <v>372</v>
       </c>
       <c r="F4" t="s">
-        <v>396</v>
+        <v>377</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>397</v>
+        <v>256</v>
       </c>
       <c r="I4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J4" t="s">
-        <v>398</v>
+        <v>378</v>
       </c>
       <c r="K4" t="s">
-        <v>399</v>
+        <v>379</v>
       </c>
       <c r="L4" t="s">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="M4" t="s">
-        <v>295</v>
+        <v>381</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
         <v>47</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>48</v>
       </c>
-      <c r="C5" t="s">
-        <v>49</v>
-      </c>
       <c r="D5" t="s">
-        <v>388</v>
+        <v>371</v>
       </c>
       <c r="E5" t="s">
-        <v>389</v>
+        <v>372</v>
       </c>
       <c r="F5" t="s">
-        <v>401</v>
+        <v>382</v>
       </c>
       <c r="G5" t="s">
         <v>21</v>
@@ -4512,22 +4455,22 @@
         <v>22</v>
       </c>
       <c r="I5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" t="s">
+        <v>382</v>
+      </c>
+      <c r="L5" t="s">
+        <v>382</v>
+      </c>
+      <c r="M5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" t="s">
         <v>51</v>
-      </c>
-      <c r="J5" t="s">
-        <v>401</v>
-      </c>
-      <c r="L5" t="s">
-        <v>401</v>
-      </c>
-      <c r="M5" t="s">
-        <v>77</v>
-      </c>
-      <c r="N5" t="s">
-        <v>53</v>
-      </c>
-      <c r="O5" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -4601,34 +4544,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M2" t="s">
         <v>58</v>
-      </c>
-      <c r="K2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L2" t="s">
-        <v>60</v>
-      </c>
-      <c r="M2" t="s">
-        <v>61</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -4648,37 +4591,37 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
         <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="M3" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="N3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" t="s">
         <v>36</v>
-      </c>
-      <c r="O3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -4686,66 +4629,66 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" t="s">
         <v>64</v>
       </c>
-      <c r="G4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="K4" t="s">
         <v>65</v>
       </c>
-      <c r="I4" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>66</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
         <v>67</v>
-      </c>
-      <c r="L4" t="s">
-        <v>68</v>
-      </c>
-      <c r="M4" t="s">
-        <v>59</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
         <v>47</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>48</v>
       </c>
-      <c r="C5" t="s">
-        <v>49</v>
-      </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
         <v>21</v>
@@ -4754,22 +4697,22 @@
         <v>22</v>
       </c>
       <c r="I5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" t="s">
         <v>51</v>
-      </c>
-      <c r="J5" t="s">
-        <v>50</v>
-      </c>
-      <c r="L5" t="s">
-        <v>69</v>
-      </c>
-      <c r="M5" t="s">
-        <v>50</v>
-      </c>
-      <c r="N5" t="s">
-        <v>53</v>
-      </c>
-      <c r="O5" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -4843,34 +4786,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" t="s">
         <v>70</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
         <v>71</v>
-      </c>
-      <c r="F2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>73</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L2" t="s">
         <v>74</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>75</v>
-      </c>
-      <c r="L2" t="s">
-        <v>76</v>
-      </c>
-      <c r="M2" t="s">
-        <v>77</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -4890,37 +4833,37 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" t="s">
         <v>70</v>
       </c>
-      <c r="E3" t="s">
-        <v>71</v>
-      </c>
       <c r="F3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
         <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
+        <v>76</v>
+      </c>
+      <c r="L3" t="s">
+        <v>77</v>
+      </c>
+      <c r="M3" t="s">
         <v>78</v>
       </c>
-      <c r="L3" t="s">
-        <v>79</v>
-      </c>
-      <c r="M3" t="s">
-        <v>25</v>
-      </c>
       <c r="N3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" t="s">
         <v>36</v>
-      </c>
-      <c r="O3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -4928,66 +4871,66 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
       <c r="D4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" t="s">
         <v>70</v>
       </c>
-      <c r="E4" t="s">
-        <v>71</v>
-      </c>
       <c r="F4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
         <v>80</v>
       </c>
-      <c r="G4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>81</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>82</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>83</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>84</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>85</v>
-      </c>
-      <c r="M4" t="s">
-        <v>86</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
         <v>47</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>48</v>
       </c>
-      <c r="C5" t="s">
-        <v>49</v>
-      </c>
       <c r="D5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" t="s">
         <v>70</v>
       </c>
-      <c r="E5" t="s">
-        <v>71</v>
-      </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
         <v>21</v>
@@ -4996,22 +4939,22 @@
         <v>22</v>
       </c>
       <c r="I5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" t="s">
+        <v>86</v>
+      </c>
+      <c r="M5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" t="s">
         <v>51</v>
-      </c>
-      <c r="J5" t="s">
-        <v>50</v>
-      </c>
-      <c r="L5" t="s">
-        <v>87</v>
-      </c>
-      <c r="M5" t="s">
-        <v>50</v>
-      </c>
-      <c r="N5" t="s">
-        <v>53</v>
-      </c>
-      <c r="O5" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -5085,34 +5028,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" t="s">
         <v>88</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>89</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
         <v>90</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>91</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" t="s">
         <v>92</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>93</v>
-      </c>
-      <c r="L2" t="s">
-        <v>94</v>
-      </c>
-      <c r="M2" t="s">
-        <v>95</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -5132,37 +5075,37 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" t="s">
         <v>88</v>
       </c>
-      <c r="E3" t="s">
-        <v>89</v>
-      </c>
       <c r="F3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
         <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
+        <v>94</v>
+      </c>
+      <c r="L3" t="s">
+        <v>95</v>
+      </c>
+      <c r="M3" t="s">
         <v>96</v>
       </c>
-      <c r="L3" t="s">
-        <v>97</v>
-      </c>
-      <c r="M3" t="s">
-        <v>98</v>
-      </c>
       <c r="N3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" t="s">
         <v>36</v>
-      </c>
-      <c r="O3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -5170,66 +5113,66 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
       <c r="D4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" t="s">
         <v>88</v>
       </c>
-      <c r="E4" t="s">
-        <v>89</v>
-      </c>
       <c r="F4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" t="s">
         <v>99</v>
       </c>
-      <c r="G4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="K4" t="s">
         <v>100</v>
       </c>
-      <c r="I4" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>101</v>
       </c>
-      <c r="K4" t="s">
-        <v>102</v>
-      </c>
-      <c r="L4" t="s">
-        <v>103</v>
-      </c>
       <c r="M4" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
         <v>47</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>48</v>
       </c>
-      <c r="C5" t="s">
-        <v>49</v>
-      </c>
       <c r="D5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" t="s">
         <v>88</v>
       </c>
-      <c r="E5" t="s">
-        <v>89</v>
-      </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
         <v>21</v>
@@ -5238,22 +5181,22 @@
         <v>22</v>
       </c>
       <c r="I5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" t="s">
+        <v>102</v>
+      </c>
+      <c r="M5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" t="s">
         <v>51</v>
-      </c>
-      <c r="J5" t="s">
-        <v>50</v>
-      </c>
-      <c r="L5" t="s">
-        <v>104</v>
-      </c>
-      <c r="M5" t="s">
-        <v>50</v>
-      </c>
-      <c r="N5" t="s">
-        <v>53</v>
-      </c>
-      <c r="O5" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -5327,13 +5270,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" t="s">
         <v>105</v>
-      </c>
-      <c r="E2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F2" t="s">
-        <v>107</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -5345,13 +5288,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L2" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="M2" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -5371,37 +5314,37 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" t="s">
         <v>106</v>
       </c>
-      <c r="F3" t="s">
-        <v>43</v>
-      </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
         <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="L3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="M3" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="N3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" t="s">
         <v>36</v>
-      </c>
-      <c r="O3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -5409,63 +5352,63 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
       <c r="D4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J4" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="L4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M4" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
         <v>47</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>48</v>
       </c>
-      <c r="C5" t="s">
-        <v>49</v>
-      </c>
       <c r="D5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
         <v>21</v>
@@ -5474,19 +5417,19 @@
         <v>22</v>
       </c>
       <c r="I5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" t="s">
         <v>51</v>
-      </c>
-      <c r="J5" t="s">
-        <v>50</v>
-      </c>
-      <c r="L5" t="s">
-        <v>50</v>
-      </c>
-      <c r="N5" t="s">
-        <v>53</v>
-      </c>
-      <c r="O5" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -5560,34 +5503,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" t="s">
         <v>113</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
         <v>114</v>
-      </c>
-      <c r="F2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>116</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K2" t="s">
+        <v>116</v>
+      </c>
+      <c r="L2" t="s">
         <v>117</v>
       </c>
-      <c r="K2" t="s">
-        <v>83</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>118</v>
-      </c>
-      <c r="M2" t="s">
-        <v>119</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -5598,49 +5541,49 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" t="s">
         <v>120</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>121</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" t="s">
         <v>122</v>
       </c>
-      <c r="D3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
         <v>123</v>
-      </c>
-      <c r="G3" t="s">
-        <v>124</v>
-      </c>
-      <c r="H3" t="s">
-        <v>125</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
+        <v>124</v>
+      </c>
+      <c r="K3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L3" t="s">
         <v>126</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>127</v>
       </c>
-      <c r="L3" t="s">
-        <v>128</v>
-      </c>
-      <c r="M3" t="s">
-        <v>129</v>
-      </c>
       <c r="N3" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="O3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -5654,37 +5597,37 @@
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" t="s">
+        <v>128</v>
+      </c>
+      <c r="L4" t="s">
+        <v>129</v>
+      </c>
+      <c r="M4" t="s">
         <v>130</v>
       </c>
-      <c r="G4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" t="s">
-        <v>130</v>
-      </c>
-      <c r="L4" t="s">
-        <v>131</v>
-      </c>
-      <c r="M4" t="s">
-        <v>119</v>
-      </c>
       <c r="N4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" t="s">
         <v>36</v>
-      </c>
-      <c r="O4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -5692,93 +5635,93 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
         <v>38</v>
       </c>
-      <c r="C5" t="s">
-        <v>39</v>
-      </c>
       <c r="D5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
         <v>132</v>
       </c>
-      <c r="G5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" t="s">
         <v>133</v>
       </c>
-      <c r="I5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>134</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>135</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>136</v>
-      </c>
-      <c r="M5" t="s">
-        <v>137</v>
       </c>
       <c r="N5" t="s">
         <v>26</v>
       </c>
       <c r="O5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
         <v>47</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>48</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s">
+        <v>138</v>
+      </c>
+      <c r="I6" t="s">
         <v>49</v>
       </c>
-      <c r="D6" t="s">
-        <v>113</v>
-      </c>
-      <c r="E6" t="s">
-        <v>114</v>
-      </c>
-      <c r="F6" t="s">
-        <v>138</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="J6" t="s">
         <v>139</v>
       </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
+        <v>140</v>
+      </c>
+      <c r="L6" t="s">
+        <v>137</v>
+      </c>
+      <c r="M6" t="s">
+        <v>75</v>
+      </c>
+      <c r="N6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" t="s">
         <v>51</v>
-      </c>
-      <c r="J6" t="s">
-        <v>140</v>
-      </c>
-      <c r="K6" t="s">
-        <v>141</v>
-      </c>
-      <c r="L6" t="s">
-        <v>142</v>
-      </c>
-      <c r="M6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N6" t="s">
-        <v>53</v>
-      </c>
-      <c r="O6" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -5852,34 +5795,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2" t="s">
         <v>143</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
         <v>144</v>
-      </c>
-      <c r="F2" t="s">
-        <v>145</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>146</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K2" t="s">
-        <v>148</v>
+        <v>56</v>
       </c>
       <c r="L2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -5899,37 +5842,37 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
         <v>32</v>
       </c>
-      <c r="H3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" t="s">
-        <v>33</v>
-      </c>
       <c r="J3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="L3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="M3" t="s">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="N3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" t="s">
         <v>36</v>
-      </c>
-      <c r="O3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -5937,134 +5880,134 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
       <c r="D4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>150</v>
+      </c>
+      <c r="I4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" t="s">
+        <v>151</v>
+      </c>
+      <c r="K4" t="s">
+        <v>152</v>
+      </c>
+      <c r="L4" t="s">
         <v>153</v>
       </c>
-      <c r="G4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" t="s">
-        <v>154</v>
-      </c>
-      <c r="I4" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" t="s">
-        <v>155</v>
-      </c>
-      <c r="K4" t="s">
-        <v>101</v>
-      </c>
-      <c r="L4" t="s">
-        <v>156</v>
-      </c>
       <c r="M4" t="s">
-        <v>157</v>
+        <v>98</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
         <v>47</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>48</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I5" t="s">
         <v>49</v>
       </c>
-      <c r="D5" t="s">
-        <v>143</v>
-      </c>
-      <c r="E5" t="s">
-        <v>144</v>
-      </c>
-      <c r="F5" t="s">
-        <v>158</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" t="s">
-        <v>159</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
+        <v>156</v>
+      </c>
+      <c r="K5" t="s">
+        <v>157</v>
+      </c>
+      <c r="L5" t="s">
+        <v>154</v>
+      </c>
+      <c r="M5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" t="s">
         <v>51</v>
-      </c>
-      <c r="J5" t="s">
-        <v>160</v>
-      </c>
-      <c r="K5" t="s">
-        <v>161</v>
-      </c>
-      <c r="L5" t="s">
-        <v>162</v>
-      </c>
-      <c r="M5" t="s">
-        <v>163</v>
-      </c>
-      <c r="N5" t="s">
-        <v>53</v>
-      </c>
-      <c r="O5" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B6" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C6" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" t="s">
+        <v>161</v>
+      </c>
+      <c r="J6" t="s">
+        <v>57</v>
+      </c>
+      <c r="L6" t="s">
+        <v>162</v>
+      </c>
+      <c r="M6" t="s">
         <v>163</v>
       </c>
-      <c r="G6" t="s">
-        <v>111</v>
-      </c>
-      <c r="H6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" t="s">
-        <v>167</v>
-      </c>
-      <c r="J6" t="s">
-        <v>163</v>
-      </c>
-      <c r="L6" t="s">
-        <v>168</v>
-      </c>
-      <c r="M6" t="s">
-        <v>169</v>
-      </c>
       <c r="N6" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="O6" t="s">
         <v>27</v>
@@ -6141,34 +6084,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F2" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="K2" t="s">
-        <v>175</v>
+        <v>91</v>
       </c>
       <c r="L2" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="M2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -6188,37 +6131,37 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F3" t="s">
         <v>170</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" t="s">
+        <v>170</v>
+      </c>
+      <c r="L3" t="s">
         <v>171</v>
       </c>
-      <c r="F3" t="s">
-        <v>177</v>
-      </c>
-      <c r="G3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" t="s">
-        <v>177</v>
-      </c>
-      <c r="L3" t="s">
-        <v>178</v>
-      </c>
       <c r="M3" t="s">
-        <v>179</v>
+        <v>75</v>
       </c>
       <c r="N3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" t="s">
         <v>36</v>
-      </c>
-      <c r="O3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -6226,134 +6169,134 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
       <c r="D4" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E4" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F4" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="I4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J4" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="K4" t="s">
-        <v>99</v>
+        <v>175</v>
       </c>
       <c r="L4" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="M4" t="s">
-        <v>184</v>
+        <v>78</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
         <v>47</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>48</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>178</v>
+      </c>
+      <c r="I5" t="s">
         <v>49</v>
       </c>
-      <c r="D5" t="s">
-        <v>170</v>
-      </c>
-      <c r="E5" t="s">
-        <v>171</v>
-      </c>
-      <c r="F5" t="s">
-        <v>185</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" t="s">
-        <v>186</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
+        <v>179</v>
+      </c>
+      <c r="K5" t="s">
+        <v>180</v>
+      </c>
+      <c r="L5" t="s">
+        <v>177</v>
+      </c>
+      <c r="M5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" t="s">
         <v>51</v>
-      </c>
-      <c r="J5" t="s">
-        <v>187</v>
-      </c>
-      <c r="K5" t="s">
-        <v>188</v>
-      </c>
-      <c r="L5" t="s">
-        <v>189</v>
-      </c>
-      <c r="M5" t="s">
-        <v>190</v>
-      </c>
-      <c r="N5" t="s">
-        <v>53</v>
-      </c>
-      <c r="O5" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D6" t="s">
         <v>164</v>
       </c>
-      <c r="B6" t="s">
+      <c r="E6" t="s">
         <v>165</v>
       </c>
-      <c r="C6" t="s">
-        <v>166</v>
-      </c>
-      <c r="D6" t="s">
-        <v>170</v>
-      </c>
-      <c r="E6" t="s">
-        <v>171</v>
-      </c>
       <c r="F6" t="s">
-        <v>191</v>
+        <v>136</v>
       </c>
       <c r="G6" t="s">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="I6" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="J6" t="s">
-        <v>191</v>
+        <v>136</v>
       </c>
       <c r="L6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M6" t="s">
-        <v>191</v>
+        <v>136</v>
       </c>
       <c r="N6" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="O6" t="s">
         <v>27</v>
@@ -6430,34 +6373,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="E2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F2" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="K2" t="s">
-        <v>35</v>
+        <v>186</v>
       </c>
       <c r="L2" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="M2" t="s">
-        <v>198</v>
+        <v>75</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -6468,46 +6411,46 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" t="s">
         <v>120</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>121</v>
       </c>
-      <c r="C3" t="s">
-        <v>122</v>
-      </c>
       <c r="D3" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="E3" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F3" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="G3" t="s">
-        <v>124</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="L3" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="M3" t="s">
-        <v>201</v>
+        <v>75</v>
       </c>
       <c r="N3" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="O3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -6521,37 +6464,37 @@
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="E4" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F4" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
         <v>32</v>
       </c>
-      <c r="H4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" t="s">
-        <v>33</v>
-      </c>
       <c r="J4" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="L4" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="M4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" t="s">
         <v>36</v>
-      </c>
-      <c r="O4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -6559,134 +6502,134 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
         <v>38</v>
       </c>
-      <c r="C5" t="s">
-        <v>39</v>
-      </c>
       <c r="D5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E5" t="s">
+        <v>182</v>
+      </c>
+      <c r="F5" t="s">
         <v>192</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
         <v>193</v>
       </c>
-      <c r="F5" t="s">
-        <v>204</v>
-      </c>
-      <c r="G5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" t="s">
-        <v>205</v>
-      </c>
       <c r="I5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J5" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="K5" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="L5" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="M5" t="s">
-        <v>43</v>
+        <v>197</v>
       </c>
       <c r="N5" t="s">
         <v>26</v>
       </c>
       <c r="O5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
         <v>47</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>48</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>181</v>
+      </c>
+      <c r="E6" t="s">
+        <v>182</v>
+      </c>
+      <c r="F6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s">
+        <v>198</v>
+      </c>
+      <c r="I6" t="s">
         <v>49</v>
       </c>
-      <c r="D6" t="s">
-        <v>192</v>
-      </c>
-      <c r="E6" t="s">
-        <v>193</v>
-      </c>
-      <c r="F6" t="s">
-        <v>209</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" t="s">
-        <v>210</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
+        <v>199</v>
+      </c>
+      <c r="K6" t="s">
+        <v>200</v>
+      </c>
+      <c r="L6" t="s">
+        <v>138</v>
+      </c>
+      <c r="M6" t="s">
+        <v>75</v>
+      </c>
+      <c r="N6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" t="s">
         <v>51</v>
-      </c>
-      <c r="J6" t="s">
-        <v>211</v>
-      </c>
-      <c r="K6" t="s">
-        <v>212</v>
-      </c>
-      <c r="L6" t="s">
-        <v>213</v>
-      </c>
-      <c r="M6" t="s">
-        <v>76</v>
-      </c>
-      <c r="N6" t="s">
-        <v>53</v>
-      </c>
-      <c r="O6" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D7" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="E7" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F7" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="G7" t="s">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="H7" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="I7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="J7" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="L7" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="M7" t="s">
-        <v>60</v>
+        <v>203</v>
       </c>
       <c r="N7" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="O7" t="s">
         <v>27</v>
